--- a/prot/356379915/ООО Регионстрой/Трехосные_КД_ПП/1064.xlsx
+++ b/prot/356379915/ООО Регионстрой/Трехосные_КД_ПП/1064.xlsx
@@ -914,24 +914,24 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="168" fontId="27" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
     <xf numFmtId="168" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -2738,19 +2738,19 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'1'!$K$65:$K$2000</f>
+              <f>'1'!$K$65:$K$200000</f>
               <numCache>
-                <formatCode>0.0000</formatCode>
-                <ptCount val="1936"/>
+                <formatCode>General</formatCode>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'1'!$J$65:$J$2000</f>
+              <f>'1'!$J$65:$J$200000</f>
               <numCache>
                 <formatCode>0.000</formatCode>
-                <ptCount val="1936"/>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </yVal>
@@ -2781,19 +2781,19 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'1'!$M$65:$M$2000</f>
+              <f>'1'!$M$65:$M$200000</f>
               <numCache>
-                <formatCode>0.000</formatCode>
-                <ptCount val="1936"/>
+                <formatCode>General</formatCode>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'1'!$L$65:$L$2000</f>
+              <f>'1'!$L$65:$L$200000</f>
               <numCache>
                 <formatCode>0.000</formatCode>
-                <ptCount val="1936"/>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </yVal>
@@ -2824,19 +2824,19 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'1'!$O$65:$O$2000</f>
+              <f>'1'!$O$65:$O$200000</f>
               <numCache>
-                <formatCode>0.000</formatCode>
-                <ptCount val="1936"/>
+                <formatCode>General</formatCode>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'1'!$N$65:$N$2000</f>
+              <f>'1'!$N$65:$N$200000</f>
               <numCache>
-                <formatCode>0.0000</formatCode>
-                <ptCount val="1936"/>
+                <formatCode>General</formatCode>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </yVal>
@@ -3181,19 +3181,19 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'1'!$G$65:$G$2000</f>
+              <f>'1'!$G$65:$G$200000</f>
               <numCache>
-                <formatCode>0.0000</formatCode>
-                <ptCount val="1936"/>
+                <formatCode>General</formatCode>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'1'!$F$65:$F$2000</f>
+              <f>'1'!$F$65:$F$200000</f>
               <numCache>
-                <formatCode>0.000</formatCode>
-                <ptCount val="1936"/>
+                <formatCode>General</formatCode>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </yVal>
@@ -3399,7 +3399,7 @@
             </a:ln>
           </spPr>
         </title>
-        <numFmt formatCode="0.0000" sourceLinked="1"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
@@ -3508,7 +3508,7 @@
             </a:ln>
           </spPr>
         </title>
-        <numFmt formatCode="0.000" sourceLinked="1"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
@@ -3657,19 +3657,19 @@
           </trendline>
           <xVal>
             <numRef>
-              <f>'1'!$G$65:$G$2000</f>
+              <f>'1'!$G$65:$G$200000</f>
               <numCache>
-                <formatCode>0.0000</formatCode>
-                <ptCount val="1936"/>
+                <formatCode>General</formatCode>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'1'!$F$65:$F$2000</f>
+              <f>'1'!$F$65:$F$200000</f>
               <numCache>
-                <formatCode>0.000</formatCode>
-                <ptCount val="1936"/>
+                <formatCode>General</formatCode>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </yVal>
@@ -3749,10 +3749,9 @@
             <numRef>
               <f>'1'!$A$81:$A$82</f>
               <numCache>
-                <formatCode>0.0000</formatCode>
+                <formatCode>General</formatCode>
                 <ptCount val="2"/>
                 <pt idx="0">
-                  <formatCode>General</formatCode>
                   <v>0</v>
                 </pt>
                 <pt idx="1">
@@ -3814,10 +3813,9 @@
             <numRef>
               <f>'1'!$A$75:$A$76</f>
               <numCache>
-                <formatCode>0.0000</formatCode>
+                <formatCode>General</formatCode>
                 <ptCount val="2"/>
                 <pt idx="0">
-                  <formatCode>General</formatCode>
                   <v>0</v>
                 </pt>
                 <pt idx="1">
@@ -3869,7 +3867,7 @@
             <numRef>
               <f>'1'!$A$85:$A$86</f>
               <numCache>
-                <formatCode>0.000</formatCode>
+                <formatCode>General</formatCode>
                 <ptCount val="2"/>
                 <pt idx="0">
                   <v>0</v>
@@ -3923,7 +3921,7 @@
             <numRef>
               <f>'1'!$A$88:$A$89</f>
               <numCache>
-                <formatCode>0.000</formatCode>
+                <formatCode>General</formatCode>
                 <ptCount val="2"/>
                 <pt idx="0">
                   <v>#N/A</v>
@@ -3978,7 +3976,7 @@
             <numRef>
               <f>'1'!$A$78:$A$79</f>
               <numCache>
-                <formatCode>0.0000</formatCode>
+                <formatCode>General</formatCode>
                 <ptCount val="2"/>
                 <pt idx="0">
                   <v>0</v>
@@ -4088,7 +4086,7 @@
             </a:ln>
           </spPr>
         </title>
-        <numFmt formatCode="0.0000" sourceLinked="1"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
@@ -4198,7 +4196,7 @@
             </a:ln>
           </spPr>
         </title>
-        <numFmt formatCode="0.000" sourceLinked="1"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
@@ -4886,8 +4884,8 @@
   </sheetPr>
   <dimension ref="A1:BF264"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A65" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="S81" sqref="S81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -4917,13 +4915,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
-      <c r="A1" s="150" t="inlineStr">
+      <c r="A1" s="153" t="inlineStr">
         <is>
           <t>Общество с ограниченной ответственностью "Инженерная геология" (ООО "ИнжГео")</t>
         </is>
       </c>
-      <c r="L1" s="150" t="n"/>
-      <c r="M1" s="150" t="inlineStr">
+      <c r="L1" s="153" t="n"/>
+      <c r="M1" s="153" t="inlineStr">
         <is>
           <t>Общество с ограниченной ответственностью "Инженерная геология" (ООО "ИнжГео")</t>
         </is>
@@ -4974,13 +4972,13 @@
       <c r="BC1" s="40" t="n"/>
     </row>
     <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="150" t="inlineStr">
+      <c r="A2" s="153" t="inlineStr">
         <is>
           <t>Юр. адрес: 117279, г. Москва, ул. Миклухо-Маклая, 36 а, этаж 5, пом. XXIII к. 76-84</t>
         </is>
       </c>
-      <c r="L2" s="150" t="n"/>
-      <c r="M2" s="150" t="inlineStr">
+      <c r="L2" s="153" t="n"/>
+      <c r="M2" s="153" t="inlineStr">
         <is>
           <t>Юр. адрес: 117279, г. Москва, ул. Миклухо-Маклая, 36 а, этаж 5, пом. XXIII к. 76-84</t>
         </is>
@@ -5096,13 +5094,13 @@
       <c r="BD2" s="50" t="n"/>
     </row>
     <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="150" t="inlineStr">
+      <c r="A3" s="153" t="inlineStr">
         <is>
           <t>Телефон/факс +7 (495) 132-30-00,  Адрес электронной почты inbox@inj-geo.ru</t>
         </is>
       </c>
-      <c r="L3" s="150" t="n"/>
-      <c r="M3" s="150" t="inlineStr">
+      <c r="L3" s="153" t="n"/>
+      <c r="M3" s="153" t="inlineStr">
         <is>
           <t>Телефон/факс +7 (495) 132-30-00,  Адрес электронной почты inbox@inj-geo.ru</t>
         </is>
@@ -5173,27 +5171,27 @@
       </c>
     </row>
     <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="150" t="n"/>
-      <c r="B4" s="150" t="n"/>
-      <c r="C4" s="150" t="n"/>
-      <c r="D4" s="150" t="n"/>
-      <c r="E4" s="150" t="n"/>
-      <c r="F4" s="150" t="n"/>
-      <c r="G4" s="150" t="n"/>
-      <c r="H4" s="150" t="n"/>
-      <c r="I4" s="150" t="n"/>
-      <c r="J4" s="150" t="n"/>
-      <c r="K4" s="150" t="n"/>
-      <c r="L4" s="150" t="n"/>
-      <c r="M4" s="150" t="n"/>
-      <c r="N4" s="150" t="n"/>
-      <c r="O4" s="150" t="n"/>
-      <c r="P4" s="150" t="n"/>
-      <c r="Q4" s="150" t="n"/>
-      <c r="R4" s="150" t="n"/>
-      <c r="S4" s="150" t="n"/>
-      <c r="T4" s="150" t="n"/>
-      <c r="U4" s="150" t="n"/>
+      <c r="A4" s="153" t="n"/>
+      <c r="B4" s="153" t="n"/>
+      <c r="C4" s="153" t="n"/>
+      <c r="D4" s="153" t="n"/>
+      <c r="E4" s="153" t="n"/>
+      <c r="F4" s="153" t="n"/>
+      <c r="G4" s="153" t="n"/>
+      <c r="H4" s="153" t="n"/>
+      <c r="I4" s="153" t="n"/>
+      <c r="J4" s="153" t="n"/>
+      <c r="K4" s="153" t="n"/>
+      <c r="L4" s="153" t="n"/>
+      <c r="M4" s="153" t="n"/>
+      <c r="N4" s="153" t="n"/>
+      <c r="O4" s="153" t="n"/>
+      <c r="P4" s="153" t="n"/>
+      <c r="Q4" s="153" t="n"/>
+      <c r="R4" s="153" t="n"/>
+      <c r="S4" s="153" t="n"/>
+      <c r="T4" s="153" t="n"/>
+      <c r="U4" s="153" t="n"/>
       <c r="X4" s="66">
         <f>X2-X1</f>
         <v/>
@@ -5256,13 +5254,13 @@
       <c r="BC4" s="58" t="n"/>
     </row>
     <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="150" t="inlineStr">
+      <c r="A5" s="153" t="inlineStr">
         <is>
           <t>Испытательная лаборатория ООО «ИнжГео»</t>
         </is>
       </c>
-      <c r="L5" s="150" t="n"/>
-      <c r="M5" s="150" t="inlineStr">
+      <c r="L5" s="153" t="n"/>
+      <c r="M5" s="153" t="inlineStr">
         <is>
           <t>Испытательная лаборатория ООО «ИнжГео»</t>
         </is>
@@ -5377,13 +5375,13 @@
       <c r="BC5" s="58" t="n"/>
     </row>
     <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="154" t="inlineStr">
+      <c r="A6" s="152" t="inlineStr">
         <is>
           <t>Адрес места осуществления деятельности лаборатории: г. Москва, просп. Вернадского, д. 51, стр. 1</t>
         </is>
       </c>
-      <c r="L6" s="154" t="n"/>
-      <c r="M6" s="154" t="inlineStr">
+      <c r="L6" s="152" t="n"/>
+      <c r="M6" s="152" t="inlineStr">
         <is>
           <t>Адрес места осуществления деятельности лаборатории: г. Москва, просп. Вернадского, д. 51, стр. 1</t>
         </is>
@@ -5456,13 +5454,13 @@
       <c r="BF6" s="67" t="n"/>
     </row>
     <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="150" t="inlineStr">
+      <c r="A7" s="153" t="inlineStr">
         <is>
           <t>Телефон +7(910)4557682, E-mail: slg85@mail.ru</t>
         </is>
       </c>
-      <c r="L7" s="150" t="n"/>
-      <c r="M7" s="150" t="inlineStr">
+      <c r="L7" s="153" t="n"/>
+      <c r="M7" s="153" t="inlineStr">
         <is>
           <t>Телефон +7(910)4557682, E-mail: slg85@mail.ru</t>
         </is>
@@ -5624,8 +5622,8 @@
       <c r="BF8" s="67" t="n"/>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="156" t="n"/>
-      <c r="M9" s="156" t="inlineStr">
+      <c r="A9" s="155" t="n"/>
+      <c r="M9" s="155" t="inlineStr">
         <is>
           <t>Протокол испытаний № 13-63/29 от 27-11-2022</t>
         </is>
@@ -6442,13 +6440,13 @@
       <c r="BC17" s="58" t="n"/>
     </row>
     <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="155" t="inlineStr">
+      <c r="A18" s="154" t="inlineStr">
         <is>
           <t>Испытание грунтов методом трехосного сжатия</t>
         </is>
       </c>
-      <c r="L18" s="155" t="n"/>
-      <c r="M18" s="155" t="inlineStr">
+      <c r="L18" s="154" t="n"/>
+      <c r="M18" s="154" t="inlineStr">
         <is>
           <t>Испытание грунтов методом трехосного сжатия</t>
         </is>
@@ -7332,13 +7330,13 @@
       <c r="BC26" s="58" t="n"/>
     </row>
     <row r="27" ht="15" customHeight="1">
-      <c r="A27" s="155" t="inlineStr">
+      <c r="A27" s="154" t="inlineStr">
         <is>
           <t xml:space="preserve">Результаты испытаний </t>
         </is>
       </c>
-      <c r="L27" s="155" t="n"/>
-      <c r="M27" s="155" t="inlineStr">
+      <c r="L27" s="154" t="n"/>
+      <c r="M27" s="154" t="inlineStr">
         <is>
           <t xml:space="preserve">Результаты испытаний </t>
         </is>
@@ -9137,26 +9135,26 @@
       <c r="U59" s="10" t="n"/>
     </row>
     <row r="60">
-      <c r="A60" s="152" t="inlineStr">
+      <c r="A60" s="156" t="inlineStr">
         <is>
           <t>Лист 1 , всего листов 2</t>
         </is>
       </c>
-      <c r="L60" s="152" t="n"/>
-      <c r="M60" s="152" t="inlineStr">
+      <c r="L60" s="156" t="n"/>
+      <c r="M60" s="156" t="inlineStr">
         <is>
           <t>Лист 2 , всего листов 2</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="153" t="inlineStr">
+      <c r="A61" s="150" t="inlineStr">
         <is>
           <t>Частичное воспроизведение протокола испытаний без письменного разрешения  ООО «ИнжГео» ЗАПРЕЩАЕТСЯ</t>
         </is>
       </c>
-      <c r="L61" s="153" t="n"/>
-      <c r="M61" s="153" t="inlineStr">
+      <c r="L61" s="150" t="n"/>
+      <c r="M61" s="150" t="inlineStr">
         <is>
           <t>Частичное воспроизведение протокола испытаний без письменного разрешения  ООО «ИнжГео» ЗАПРЕЩАЕТСЯ</t>
         </is>
@@ -9261,7 +9259,7 @@
         <v>0.0174681646244358</v>
       </c>
       <c r="B65" t="n">
-        <v>0.001745506350096747</v>
+        <v>0.001746803361320112</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9276,26 +9274,26 @@
         <v/>
       </c>
       <c r="F65" s="170" t="n">
-        <v>0.0001399999999999943</v>
+        <v>-0.0004249999999999948</v>
       </c>
       <c r="G65" s="171" t="n">
         <v>0</v>
       </c>
       <c r="H65" s="171" t="n"/>
       <c r="J65" s="170" t="n">
-        <v>0.0001399999999999943</v>
+        <v>-0.0004249999999999948</v>
       </c>
       <c r="K65" s="171" t="n">
         <v>0</v>
       </c>
       <c r="L65" s="172" t="n">
-        <v>0.01692592197543397</v>
+        <v>0.01656579597595667</v>
       </c>
       <c r="M65" s="170" t="n">
-        <v>0.0003416813643222704</v>
+        <v>0.000340857443055285</v>
       </c>
       <c r="N65" s="171" t="n">
-        <v>-0.00192500000000001</v>
+        <v>-0.002024999999999999</v>
       </c>
       <c r="O65" s="172" t="n">
         <v>0</v>
@@ -9318,29 +9316,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.009956853835928405</v>
+        <v>0.00698726584977432</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0006632924130367639</v>
+        <v>0.0004658142296853631</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.009956853835928405</v>
+        <v>0.00698726584977432</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0006632924130367639</v>
+        <v>0.0004658142296853631</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.02994957317949831</v>
+        <v>0.03601259994773187</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007047105178733893</v>
+        <v>0.001111491662136798</v>
       </c>
       <c r="N66" s="171" t="n">
         <v>0.05455703527102795</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0009912021362649941</v>
+        <v>0.001212369468739187</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9361,26 +9359,26 @@
         <v>0.0174681646244358</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001745506350096747</v>
+        <v>0.001746803361320112</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
         <v>0.0174681646244358</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001745506350096747</v>
+        <v>0.001746803361320112</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.03601259994773187</v>
+        <v>0.03631487312928858</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001090472439326396</v>
+        <v>0.001669094901190281</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.05431169307536066</v>
+        <v>0.05545666794946019</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001408423344258725</v>
+        <v>0.001670108748492818</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9398,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.01823183376877895</v>
+        <v>0.0178940440402925</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002124006436697108</v>
+        <v>0.002513219915089693</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.01823183376877895</v>
+        <v>0.0178940440402925</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002124006436697108</v>
+        <v>0.002513219915089693</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.03823129987813639</v>
+        <v>0.03799017567575694</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002114131553620168</v>
+        <v>0.002503642351785422</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.05949129696157984</v>
+        <v>0.05730702653858843</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002112635016388087</v>
+        <v>0.002505163122739226</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9445,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.01836675182024411</v>
+        <v>0.01966851512556532</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.00283200858226281</v>
+        <v>0.003350959886786257</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.01836675182024411</v>
+        <v>0.01966851512556532</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.00283200858226281</v>
+        <v>0.003350959886786257</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.04066237763060829</v>
+        <v>0.04289477888759383</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.002818842071493557</v>
+        <v>0.003338189802380563</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.06180602494904602</v>
+        <v>0.0611894006977805</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.002816846688517449</v>
+        <v>0.003340217496985635</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9482,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.0006632924130367639</v>
+        <v>0.0004658142296853631</v>
       </c>
       <c r="B70" t="n">
-        <v>0.009956853835928405</v>
+        <v>0.00698726584977432</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.01998015114944442</v>
+        <v>0.02120281874444475</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003540010727828513</v>
+        <v>0.004188699858482821</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.01998015114944442</v>
+        <v>0.02120281874444475</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003540010727828513</v>
+        <v>0.004188699858482821</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.04272052256698375</v>
+        <v>0.04476165243905306</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003523552589366946</v>
+        <v>0.004172737252975703</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.06580097727137962</v>
+        <v>0.06434317871328338</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003521058360646812</v>
+        <v>0.004175271871232044</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.02087022422677266</v>
+        <v>0.02139461315076521</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004248012873394216</v>
+        <v>0.005026439830179385</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.02087022422677266</v>
+        <v>0.02139461315076521</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004248012873394216</v>
+        <v>0.005026439830179385</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.04582375790808565</v>
+        <v>0.0462403008514034</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004228263107240336</v>
+        <v>0.005007284703570844</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.06704087556752059</v>
+        <v>0.06919137923328023</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004225270032776174</v>
+        <v>0.005010326245478453</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9552,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.02095438083688268</v>
+        <v>0.02244939683003268</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.004956015018959918</v>
+        <v>0.005864179801875949</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.02095438083688268</v>
+        <v>0.02244939683003268</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.004956015018959918</v>
+        <v>0.005864179801875949</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.04773813422703688</v>
+        <v>0.04801613991476125</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.004932973625113725</v>
+        <v>0.005841832154165985</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.06967472545398973</v>
+        <v>0.07322191187516303</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.004929481704905536</v>
+        <v>0.005845380619724862</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9598,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.02183493731927227</v>
+        <v>0.02217618238353206</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.005664017164525621</v>
+        <v>0.006701919773572514</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.02183493731927227</v>
+        <v>0.02217618238353206</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.005664017164525621</v>
+        <v>0.006701919773572514</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.04788591384451063</v>
+        <v>0.04948898353957992</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.005637684142987115</v>
+        <v>0.006676379604761125</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.0731621299844985</v>
+        <v>0.07244373399277526</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.005633693377034898</v>
+        <v>0.006680434993971271</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9635,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.02265815968514952</v>
+        <v>0.02398068548000692</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.006372019310091324</v>
+        <v>0.007539659745269077</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.02265815968514952</v>
+        <v>0.02398068548000692</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.006372019310091324</v>
+        <v>0.007539659745269077</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.05039949322560897</v>
+        <v>0.05033454741846743</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006342394660860504</v>
+        <v>0.007510927055356267</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.07785937136729432</v>
+        <v>0.0732331244648699</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006337905049164261</v>
+        <v>0.00751548936821768</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9679,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.02375425614073624</v>
+        <v>0.02469603581605902</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007080021455657026</v>
+        <v>0.008377399716965642</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.02375425614073624</v>
+        <v>0.02469603581605902</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007080021455657026</v>
+        <v>0.008377399716965642</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.0508299316073948</v>
+        <v>0.05088027703281978</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007047105178733893</v>
+        <v>0.008345474505951406</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.07798294895538299</v>
+        <v>0.0757695666075906</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007042116721293623</v>
+        <v>0.008350543742464089</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9721,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.02462594579245803</v>
+        <v>0.02509303817234759</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.007788023601222729</v>
+        <v>0.009215139688662208</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.02462594579245803</v>
+        <v>0.02509303817234759</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.007788023601222729</v>
+        <v>0.009215139688662208</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.05202793486456272</v>
+        <v>0.05059016443609865</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.007751815696607282</v>
+        <v>0.009180021956546547</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.08106495843256339</v>
+        <v>0.079573624300598</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.007746328393422985</v>
+        <v>0.009185598116710497</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9758,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.02545520515854881</v>
+        <v>0.02499769242270408</v>
       </c>
       <c r="G77" t="n">
-        <v>0.008496025746788432</v>
+        <v>0.01005287966035877</v>
       </c>
       <c r="J77" t="n">
-        <v>0.02545520515854881</v>
+        <v>0.02499769242270408</v>
       </c>
       <c r="K77" t="n">
-        <v>0.008496025746788432</v>
+        <v>0.01005287966035877</v>
       </c>
       <c r="L77" t="n">
-        <v>0.05342260118464812</v>
+        <v>0.05145228351970663</v>
       </c>
       <c r="M77" t="n">
-        <v>0.008456526214480672</v>
+        <v>0.01001456940714169</v>
       </c>
       <c r="N77" t="n">
-        <v>0.08209221399168232</v>
+        <v>0.07892544165351928</v>
       </c>
       <c r="O77" t="n">
-        <v>0.008450540065552348</v>
+        <v>0.01002065249095691</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9798,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.02578363033165443</v>
+        <v>0.02560808248723052</v>
       </c>
       <c r="G78" t="n">
-        <v>0.009204027892354133</v>
+        <v>0.01089061963205533</v>
       </c>
       <c r="J78" t="n">
-        <v>0.02578363033165443</v>
+        <v>0.02560808248723052</v>
       </c>
       <c r="K78" t="n">
-        <v>0.009204027892354133</v>
+        <v>0.01089061963205533</v>
       </c>
       <c r="L78" t="n">
-        <v>0.05554525447458528</v>
+        <v>0.05548925099457949</v>
       </c>
       <c r="M78" t="n">
-        <v>0.009161236732354061</v>
+        <v>0.01084911685773683</v>
       </c>
       <c r="N78" t="n">
-        <v>0.08460049663221914</v>
+        <v>0.08194990712479772</v>
       </c>
       <c r="O78" t="n">
-        <v>0.00915475173768171</v>
+        <v>0.01085570686520331</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9840,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.02545983362828119</v>
+        <v>0.02549826369532376</v>
       </c>
       <c r="G79" t="n">
-        <v>0.009912030037919836</v>
+        <v>0.0117283596037519</v>
       </c>
       <c r="J79" t="n">
-        <v>0.02545983362828119</v>
+        <v>0.02549826369532376</v>
       </c>
       <c r="K79" t="n">
-        <v>0.009912030037919836</v>
+        <v>0.0117283596037519</v>
       </c>
       <c r="L79" t="n">
-        <v>0.05660361335254771</v>
+        <v>0.0543207125394152</v>
       </c>
       <c r="M79" t="n">
-        <v>0.00986594725022745</v>
+        <v>0.01168366430833197</v>
       </c>
       <c r="N79" t="n">
-        <v>0.08445806971705544</v>
+        <v>0.08158621296657781</v>
       </c>
       <c r="O79" t="n">
-        <v>0.009858963409811072</v>
+        <v>0.01169076123944972</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9871,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.02608929801963066</v>
+        <v>0.02682757126108172</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01062003218348554</v>
+        <v>0.01256609957544846</v>
       </c>
       <c r="J80" t="n">
-        <v>0.02608929801963066</v>
+        <v>0.02682757126108172</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01062003218348554</v>
+        <v>0.01256609957544846</v>
       </c>
       <c r="L80" t="n">
-        <v>0.05825568365143843</v>
+        <v>0.0572614029395167</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01057065776810084</v>
+        <v>0.01251821175892711</v>
       </c>
       <c r="N80" t="n">
-        <v>0.08749418477034171</v>
+        <v>0.08201627569574022</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01056317508194043</v>
+        <v>0.01252581561369613</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9908,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.02723177287876054</v>
+        <v>0.02630509379556879</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01132803432905124</v>
+        <v>0.01340383954714503</v>
       </c>
       <c r="J81" t="n">
-        <v>0.02723177287876054</v>
+        <v>0.02630509379556879</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01132803432905124</v>
+        <v>0.01340383954714503</v>
       </c>
       <c r="L81" t="n">
-        <v>0.05782101649206009</v>
+        <v>0.05539633438200559</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01127536828597423</v>
+        <v>0.01335275920952225</v>
       </c>
       <c r="N81" t="n">
-        <v>0.08941712919344424</v>
+        <v>0.08594107423287373</v>
       </c>
       <c r="O81" t="n">
-        <v>0.0112673867540698</v>
+        <v>0.01336086998794254</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9942,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.02699380028088817</v>
+        <v>0.02676052696367032</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01203603647461694</v>
+        <v>0.01424157951884159</v>
       </c>
       <c r="J82" t="n">
-        <v>0.02699380028088817</v>
+        <v>0.02676052696367032</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01203603647461694</v>
+        <v>0.01424157951884159</v>
       </c>
       <c r="L82" t="n">
-        <v>0.05673706993127012</v>
+        <v>0.0568064545012647</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01198007880384762</v>
+        <v>0.01418730666011739</v>
       </c>
       <c r="N82" t="n">
-        <v>0.08707499632532661</v>
+        <v>0.08628922356128504</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01197159842619916</v>
+        <v>0.01419592436218895</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9973,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.02781660974648383</v>
+        <v>0.02712368144121299</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01274403862018265</v>
+        <v>0.01507931949053815</v>
       </c>
       <c r="J83" t="n">
-        <v>0.02781660974648383</v>
+        <v>0.02712368144121299</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01274403862018265</v>
+        <v>0.01507931949053815</v>
       </c>
       <c r="L83" t="n">
-        <v>0.0592237909524623</v>
+        <v>0.05557213692223736</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01268478932172101</v>
+        <v>0.01502185411071253</v>
       </c>
       <c r="N83" t="n">
-        <v>0.08959783349152306</v>
+        <v>0.08472626865800809</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01267581009832852</v>
+        <v>0.01503097873643536</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10009,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.02846096484004448</v>
+        <v>0.02763084885420017</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01345204076574835</v>
+        <v>0.01591705946223472</v>
       </c>
       <c r="J84" t="n">
-        <v>0.02846096484004448</v>
+        <v>0.02763084885420017</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01345204076574835</v>
+        <v>0.01591705946223472</v>
       </c>
       <c r="L84" t="n">
-        <v>0.05831674785287427</v>
+        <v>0.05751122490872909</v>
       </c>
       <c r="M84" t="n">
-        <v>0.0133894998395944</v>
+        <v>0.01585640156130767</v>
       </c>
       <c r="N84" t="n">
-        <v>0.09116588745028253</v>
+        <v>0.08937188468490909</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01338002177045788</v>
+        <v>0.01586603311068177</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10049,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.02845212928952023</v>
+        <v>0.02831197516742562</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01416004291131405</v>
+        <v>0.01675479943393128</v>
       </c>
       <c r="J85" t="n">
-        <v>0.02845212928952023</v>
+        <v>0.02831197516742562</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01416004291131405</v>
+        <v>0.01675479943393128</v>
       </c>
       <c r="L85" t="n">
-        <v>0.05898855158415475</v>
+        <v>0.05560113444309789</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01409421035746779</v>
+        <v>0.01669094901190281</v>
       </c>
       <c r="N85" t="n">
-        <v>0.08826542156886752</v>
+        <v>0.0903035782083807</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01408423344258725</v>
+        <v>0.01670108748492818</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10091,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.02823526261653664</v>
+        <v>0.02868721671544358</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01486804505687975</v>
+        <v>0.01759253940562785</v>
       </c>
       <c r="J86" t="n">
-        <v>0.02823526261653664</v>
+        <v>0.02868721671544358</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01486804505687975</v>
+        <v>0.01759253940562785</v>
       </c>
       <c r="L86" t="n">
-        <v>0.06121153433865478</v>
+        <v>0.05775736754873592</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01479892087534118</v>
+        <v>0.01752549646249795</v>
       </c>
       <c r="N86" t="n">
-        <v>0.09208990177531484</v>
+        <v>0.08796269130045697</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01478844511471661</v>
+        <v>0.01753614185917458</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10122,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02931892193448317</v>
+        <v>0.02795538652087912</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01557604720244546</v>
+        <v>0.01843027937732442</v>
       </c>
       <c r="J87" t="n">
-        <v>0.02931892193448317</v>
+        <v>0.02795538652087912</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01557604720244546</v>
+        <v>0.01843027937732442</v>
       </c>
       <c r="L87" t="n">
-        <v>0.0610892449135598</v>
+        <v>0.05716825759930239</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01550363139321456</v>
+        <v>0.01836004391309309</v>
       </c>
       <c r="N87" t="n">
-        <v>0.09174804812952114</v>
+        <v>0.08749701487014649</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01549265678684597</v>
+        <v>0.01837119623342099</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10157,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.02947323473804646</v>
+        <v>0.02855825699962594</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01628404934801116</v>
+        <v>0.01926801934902098</v>
       </c>
       <c r="J88" t="n">
-        <v>0.02947323473804646</v>
+        <v>0.02855825699962594</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01628404934801116</v>
+        <v>0.01926801934902098</v>
       </c>
       <c r="L88" t="n">
-        <v>0.05947649644014527</v>
+        <v>0.06038242463194393</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01620834191108795</v>
+        <v>0.01919459136368824</v>
       </c>
       <c r="N88" t="n">
-        <v>0.09134239404948186</v>
+        <v>0.09129509018216675</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01619686845897533</v>
+        <v>0.0192062506076674</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4578 +10191,4578 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.02904307718209669</v>
+        <v>0.02814699749344349</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01699205149357686</v>
+        <v>0.02010575932071754</v>
       </c>
       <c r="J89" t="n">
-        <v>0.02904307718209669</v>
+        <v>0.02814699749344349</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01699205149357686</v>
+        <v>0.02010575932071754</v>
       </c>
       <c r="L89" t="n">
-        <v>0.06013925791665736</v>
+        <v>0.05745100599419073</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01691305242896134</v>
+        <v>0.02002913881428338</v>
       </c>
       <c r="N89" t="n">
-        <v>0.09154051897737719</v>
+        <v>0.0877822518318308</v>
       </c>
       <c r="O89" t="n">
-        <v>0.0169010801311047</v>
+        <v>0.02004130498191381</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.02977881150510948</v>
+        <v>0.0290463110239728</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01770005363914257</v>
+        <v>0.0209434992924141</v>
       </c>
       <c r="J90" t="n">
-        <v>0.02977881150510948</v>
+        <v>0.0290463110239728</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01770005363914257</v>
+        <v>0.0209434992924141</v>
       </c>
       <c r="L90" t="n">
-        <v>0.0630486766819861</v>
+        <v>0.06102085579945984</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01761776294683473</v>
+        <v>0.02086368626487852</v>
       </c>
       <c r="N90" t="n">
-        <v>0.09545582645488998</v>
+        <v>0.09257549357667133</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01760529180323406</v>
+        <v>0.02087635935616022</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.02951732536909724</v>
+        <v>0.02876660500391125</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01840805578470827</v>
+        <v>0.02178123926411067</v>
       </c>
       <c r="J91" t="n">
-        <v>0.02951732536909724</v>
+        <v>0.02876660500391125</v>
       </c>
       <c r="K91" t="n">
-        <v>0.01840805578470827</v>
+        <v>0.02178123926411067</v>
       </c>
       <c r="L91" t="n">
-        <v>0.06095565514032769</v>
+        <v>0.05957607712328947</v>
       </c>
       <c r="M91" t="n">
-        <v>0.01832247346470812</v>
+        <v>0.02169823371547366</v>
       </c>
       <c r="N91" t="n">
-        <v>0.09403011278705981</v>
+        <v>0.09040560977019874</v>
       </c>
       <c r="O91" t="n">
-        <v>0.01830950347536342</v>
+        <v>0.02171141373040663</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02999506074686921</v>
+        <v>0.0292148247169223</v>
       </c>
       <c r="G92" t="n">
-        <v>0.01911605793027397</v>
+        <v>0.02261897923580724</v>
       </c>
       <c r="J92" t="n">
-        <v>0.02999506074686921</v>
+        <v>0.0292148247169223</v>
       </c>
       <c r="K92" t="n">
-        <v>0.01911605793027397</v>
+        <v>0.02261897923580724</v>
       </c>
       <c r="L92" t="n">
-        <v>0.061804486049955</v>
+        <v>0.05932164755355782</v>
       </c>
       <c r="M92" t="n">
-        <v>0.01902718398258151</v>
+        <v>0.0225327811660688</v>
       </c>
       <c r="N92" t="n">
-        <v>0.09716153607565026</v>
+        <v>0.09241439223138742</v>
       </c>
       <c r="O92" t="n">
-        <v>0.01901371514749278</v>
+        <v>0.02254646810465304</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02967351033296428</v>
+        <v>0.02852498543375101</v>
       </c>
       <c r="G93" t="n">
-        <v>0.01982406007583967</v>
+        <v>0.0234567192075038</v>
       </c>
       <c r="J93" t="n">
-        <v>0.02967351033296428</v>
+        <v>0.02852498543375101</v>
       </c>
       <c r="K93" t="n">
-        <v>0.01982406007583967</v>
+        <v>0.0234567192075038</v>
       </c>
       <c r="L93" t="n">
-        <v>0.06249296818505637</v>
+        <v>0.06163217094366322</v>
       </c>
       <c r="M93" t="n">
-        <v>0.0197318945004549</v>
+        <v>0.02336732861666394</v>
       </c>
       <c r="N93" t="n">
-        <v>0.09652633642583591</v>
+        <v>0.08928378163642686</v>
       </c>
       <c r="O93" t="n">
-        <v>0.01971792681962214</v>
+        <v>0.02338152247889945</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.03052988899373892</v>
+        <v>0.02916155339782724</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02053206222140538</v>
+        <v>0.02429445917920036</v>
       </c>
       <c r="J94" t="n">
-        <v>0.03052988899373892</v>
+        <v>0.02916155339782724</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02053206222140538</v>
+        <v>0.02429445917920036</v>
       </c>
       <c r="L94" t="n">
-        <v>0.06221466795678368</v>
+        <v>0.06036043775321231</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02043660501832829</v>
+        <v>0.02420187606725908</v>
       </c>
       <c r="N94" t="n">
-        <v>0.09673296501205503</v>
+        <v>0.09239150725338197</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02042213849175151</v>
+        <v>0.02421657685314586</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.03065789633460814</v>
+        <v>0.0299588320312474</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02124006436697108</v>
+        <v>0.02513219915089693</v>
       </c>
       <c r="J95" t="n">
-        <v>0.03065789633460814</v>
+        <v>0.0299588320312474</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02124006436697108</v>
+        <v>0.02513219915089693</v>
       </c>
       <c r="L95" t="n">
-        <v>0.06130473006701964</v>
+        <v>0.06066056158064623</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02114131553620168</v>
+        <v>0.02503642351785422</v>
       </c>
       <c r="N95" t="n">
-        <v>0.09696392314678415</v>
+        <v>0.09460908449838329</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02112635016388087</v>
+        <v>0.02505163122739226</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.03050666914650446</v>
+        <v>0.02953293674227679</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02194806651253678</v>
+        <v>0.02596993912259349</v>
       </c>
       <c r="J96" t="n">
-        <v>0.03050666914650446</v>
+        <v>0.02953293674227679</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02194806651253678</v>
+        <v>0.02596993912259349</v>
       </c>
       <c r="L96" t="n">
-        <v>0.06296385205615976</v>
+        <v>0.06272545711201655</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02184602605407507</v>
+        <v>0.02587097096844936</v>
       </c>
       <c r="N96" t="n">
-        <v>0.0976697947233518</v>
+        <v>0.09015237245526869</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02183056183601023</v>
+        <v>0.02588668560163868</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.03140437332489868</v>
+        <v>0.02983411747290472</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02265606865810248</v>
+        <v>0.02680767909429006</v>
       </c>
       <c r="J97" t="n">
-        <v>0.03140437332489868</v>
+        <v>0.02983411747290472</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02265606865810248</v>
+        <v>0.02680767909429006</v>
       </c>
       <c r="L97" t="n">
-        <v>0.06252338363092208</v>
+        <v>0.06211799524844561</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02255073657194846</v>
+        <v>0.0267055184190445</v>
       </c>
       <c r="N97" t="n">
-        <v>0.09769091591145973</v>
+        <v>0.09383484457255536</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02253477350813959</v>
+        <v>0.02672173997588508</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.0308581835721564</v>
+        <v>0.02949777001440719</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02336407080366819</v>
+        <v>0.02764541906598662</v>
       </c>
       <c r="J98" t="n">
-        <v>0.0308581835721564</v>
+        <v>0.02949777001440719</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02336407080366819</v>
+        <v>0.02764541906598662</v>
       </c>
       <c r="L98" t="n">
-        <v>0.06365626567743321</v>
+        <v>0.0619505964086097</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02325544708982185</v>
+        <v>0.02754006586963964</v>
       </c>
       <c r="N98" t="n">
-        <v>0.09415379438460464</v>
+        <v>0.09115972191528032</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02323898518026896</v>
+        <v>0.02755679435013149</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.03104667476266618</v>
+        <v>0.02973521397067183</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02407207294923389</v>
+        <v>0.02848315903768318</v>
       </c>
       <c r="J99" t="n">
-        <v>0.03104667476266618</v>
+        <v>0.02973521397067183</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02407207294923389</v>
+        <v>0.02848315903768318</v>
       </c>
       <c r="L99" t="n">
-        <v>0.06544757602560519</v>
+        <v>0.05970161036770191</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02396015760769524</v>
+        <v>0.02837461332023479</v>
       </c>
       <c r="N99" t="n">
-        <v>0.09777167454460761</v>
+        <v>0.09240587852672222</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02394319685239832</v>
+        <v>0.0283918487243779</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.03135747083542388</v>
+        <v>0.02999976434527016</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02478007509479959</v>
+        <v>0.02932089900937975</v>
       </c>
       <c r="J100" t="n">
-        <v>0.03135747083542388</v>
+        <v>0.02999976434527016</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02478007509479959</v>
+        <v>0.02932089900937975</v>
       </c>
       <c r="L100" t="n">
-        <v>0.06341885878108922</v>
+        <v>0.06080472709852711</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02466486812556863</v>
+        <v>0.02920916077082992</v>
       </c>
       <c r="N100" t="n">
-        <v>0.0988759970985334</v>
+        <v>0.09371083092492916</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02464740852452768</v>
+        <v>0.02922690309862431</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.03145782317742631</v>
+        <v>0.03051314431805056</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02548807724036529</v>
+        <v>0.03015863898107631</v>
       </c>
       <c r="J101" t="n">
-        <v>0.03145782317742631</v>
+        <v>0.03051314431805056</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02548807724036529</v>
+        <v>0.03015863898107631</v>
       </c>
       <c r="L101" t="n">
-        <v>0.0662730790487161</v>
+        <v>0.06122948794940594</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02536957864344202</v>
+        <v>0.03004370822142507</v>
       </c>
       <c r="N101" t="n">
-        <v>0.09502705368131315</v>
+        <v>0.09710714300455853</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02535162019665704</v>
+        <v>0.03006195747287072</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.03244957511425625</v>
+        <v>0.0298188654052165</v>
       </c>
       <c r="G102" t="n">
-        <v>0.026196079385931</v>
+        <v>0.03099637895277288</v>
       </c>
       <c r="J102" t="n">
-        <v>0.03244957511425625</v>
+        <v>0.0298188654052165</v>
       </c>
       <c r="K102" t="n">
-        <v>0.026196079385931</v>
+        <v>0.03099637895277288</v>
       </c>
       <c r="L102" t="n">
-        <v>0.0648232287288068</v>
+        <v>0.06212680327505504</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02607428916131541</v>
+        <v>0.03087825567202021</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1001331367433766</v>
+        <v>0.09310016225627615</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02605583186878641</v>
+        <v>0.03089701184711713</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.03217711721590186</v>
+        <v>0.03039949908224293</v>
       </c>
       <c r="G103" t="n">
-        <v>0.0269040815314967</v>
+        <v>0.03183411892446944</v>
       </c>
       <c r="J103" t="n">
-        <v>0.03217711721590186</v>
+        <v>0.03039949908224293</v>
       </c>
       <c r="K103" t="n">
-        <v>0.0269040815314967</v>
+        <v>0.03183411892446944</v>
       </c>
       <c r="L103" t="n">
-        <v>0.06588999130185116</v>
+        <v>0.06400762967054033</v>
       </c>
       <c r="M103" t="n">
-        <v>0.0267789996791888</v>
+        <v>0.03171280312261535</v>
       </c>
       <c r="N103" t="n">
-        <v>0.09742084014641006</v>
+        <v>0.09228547834856338</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02676004354091577</v>
+        <v>0.03173206622136353</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.03249315298680068</v>
+        <v>0.03080457167868991</v>
       </c>
       <c r="G104" t="n">
-        <v>0.0276120836770624</v>
+        <v>0.032671858896166</v>
       </c>
       <c r="J104" t="n">
-        <v>0.03249315298680068</v>
+        <v>0.03080457167868991</v>
       </c>
       <c r="K104" t="n">
-        <v>0.0276120836770624</v>
+        <v>0.032671858896166</v>
       </c>
       <c r="L104" t="n">
-        <v>0.06546095567346086</v>
+        <v>0.06128545917247535</v>
       </c>
       <c r="M104" t="n">
-        <v>0.02748371019706218</v>
+        <v>0.03254735057321049</v>
       </c>
       <c r="N104" t="n">
-        <v>0.09942224504048208</v>
+        <v>0.09342415857687159</v>
       </c>
       <c r="O104" t="n">
-        <v>0.02746425521304513</v>
+        <v>0.03256712059560994</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.03195171861119137</v>
+        <v>0.03059425391307856</v>
       </c>
       <c r="G105" t="n">
-        <v>0.0283200858226281</v>
+        <v>0.03350959886786257</v>
       </c>
       <c r="J105" t="n">
-        <v>0.03195171861119137</v>
+        <v>0.03059425391307856</v>
       </c>
       <c r="K105" t="n">
-        <v>0.0283200858226281</v>
+        <v>0.03350959886786257</v>
       </c>
       <c r="L105" t="n">
-        <v>0.06519550628314197</v>
+        <v>0.06230391871455834</v>
       </c>
       <c r="M105" t="n">
-        <v>0.02818842071493557</v>
+        <v>0.03338189802380562</v>
       </c>
       <c r="N105" t="n">
-        <v>0.1012704759196269</v>
+        <v>0.0932063717474072</v>
       </c>
       <c r="O105" t="n">
-        <v>0.02816846688517449</v>
+        <v>0.03340217496985635</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.03222023760879865</v>
+        <v>0.03005483779453713</v>
       </c>
       <c r="G106" t="n">
-        <v>0.02902808796819381</v>
+        <v>0.03434733883955914</v>
       </c>
       <c r="J106" t="n">
-        <v>0.03222023760879865</v>
+        <v>0.03005483779453713</v>
       </c>
       <c r="K106" t="n">
-        <v>0.02902808796819381</v>
+        <v>0.03434733883955914</v>
       </c>
       <c r="L106" t="n">
-        <v>0.06496447958572235</v>
+        <v>0.06453139329875898</v>
       </c>
       <c r="M106" t="n">
-        <v>0.02889313123280897</v>
+        <v>0.03421644547440077</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1026601043333346</v>
+        <v>0.09797334098467964</v>
       </c>
       <c r="O106" t="n">
-        <v>0.02887267855730385</v>
+        <v>0.03423722934410276</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.03235247881772324</v>
+        <v>0.03080579568042811</v>
       </c>
       <c r="G107" t="n">
-        <v>0.02973609011375951</v>
+        <v>0.0351850788112557</v>
       </c>
       <c r="J107" t="n">
-        <v>0.03235247881772324</v>
+        <v>0.03080579568042811</v>
       </c>
       <c r="K107" t="n">
-        <v>0.02973609011375951</v>
+        <v>0.0351850788112557</v>
       </c>
       <c r="L107" t="n">
-        <v>0.06684922047832167</v>
+        <v>0.0644717138955718</v>
       </c>
       <c r="M107" t="n">
-        <v>0.02959784175068235</v>
+        <v>0.03505099292499591</v>
       </c>
       <c r="N107" t="n">
-        <v>0.09861077114836131</v>
+        <v>0.09336787451171608</v>
       </c>
       <c r="O107" t="n">
-        <v>0.02957689022943322</v>
+        <v>0.03507228371834917</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.03224129252039411</v>
+        <v>0.03130163856820069</v>
       </c>
       <c r="G108" t="n">
-        <v>0.03044409225932521</v>
+        <v>0.03602281878295226</v>
       </c>
       <c r="J108" t="n">
-        <v>0.03224129252039411</v>
+        <v>0.03130163856820069</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03044409225932521</v>
+        <v>0.03602281878295226</v>
       </c>
       <c r="L108" t="n">
-        <v>0.06678208148347695</v>
+        <v>0.06405057423330693</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03030255226855574</v>
+        <v>0.03588554037559105</v>
       </c>
       <c r="N108" t="n">
-        <v>0.09860728124139062</v>
+        <v>0.09289588133313204</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03028110190156258</v>
+        <v>0.03590733809259558</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.03208359720110504</v>
+        <v>0.03106814271587227</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03115209440489091</v>
+        <v>0.03686055875464883</v>
       </c>
       <c r="J109" t="n">
-        <v>0.03208359720110504</v>
+        <v>0.03106814271587227</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03115209440489091</v>
+        <v>0.03686055875464883</v>
       </c>
       <c r="L109" t="n">
-        <v>0.06787115927927256</v>
+        <v>0.06405808704875632</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03100726278642913</v>
+        <v>0.03672008782618619</v>
       </c>
       <c r="N109" t="n">
-        <v>0.09819280689266097</v>
+        <v>0.09916781200794827</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03098531357369194</v>
+        <v>0.03674239246684199</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.0331614403854369</v>
+        <v>0.03072316075229513</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03186009655045662</v>
+        <v>0.03769829872634539</v>
       </c>
       <c r="J110" t="n">
-        <v>0.0331614403854369</v>
+        <v>0.03072316075229513</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03186009655045662</v>
+        <v>0.03769829872634539</v>
       </c>
       <c r="L110" t="n">
-        <v>0.06550697648880607</v>
+        <v>0.0658901096230555</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03171197330430252</v>
+        <v>0.03755463527678133</v>
       </c>
       <c r="N110" t="n">
-        <v>0.1018949672428758</v>
+        <v>0.09510859642168701</v>
       </c>
       <c r="O110" t="n">
-        <v>0.0316895252458213</v>
+        <v>0.03757744684108839</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.03298760321245703</v>
+        <v>0.03131018669764195</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03256809869602232</v>
+        <v>0.03853603869804195</v>
       </c>
       <c r="J111" t="n">
-        <v>0.03298760321245703</v>
+        <v>0.03131018669764195</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03256809869602232</v>
+        <v>0.03853603869804195</v>
       </c>
       <c r="L111" t="n">
-        <v>0.06519560706098262</v>
+        <v>0.0633578365073848</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03241668382217591</v>
+        <v>0.03838918272737647</v>
       </c>
       <c r="N111" t="n">
-        <v>0.09990670677394381</v>
+        <v>0.09835431768571568</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03239373691795067</v>
+        <v>0.03841250121533481</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.03300101833722049</v>
+        <v>0.03123098907435201</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03327610084158802</v>
+        <v>0.03937377866973851</v>
       </c>
       <c r="J112" t="n">
-        <v>0.03300101833722049</v>
+        <v>0.03123098907435201</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03327610084158802</v>
+        <v>0.03937377866973851</v>
       </c>
       <c r="L112" t="n">
-        <v>0.06672877442828515</v>
+        <v>0.06340816327740167</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03312139434004929</v>
+        <v>0.03922373017797161</v>
       </c>
       <c r="N112" t="n">
-        <v>0.1032141713689014</v>
+        <v>0.09412016498127174</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03309794859008003</v>
+        <v>0.03924755558958121</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.03283347934273678</v>
+        <v>0.03113671925784714</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03398410298715373</v>
+        <v>0.04021151864143508</v>
       </c>
       <c r="J113" t="n">
-        <v>0.03283347934273678</v>
+        <v>0.03113671925784714</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03398410298715373</v>
+        <v>0.04021151864143508</v>
       </c>
       <c r="L113" t="n">
-        <v>0.06607472802832687</v>
+        <v>0.06596968561415281</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03382610485792269</v>
+        <v>0.04005827762856675</v>
       </c>
       <c r="N113" t="n">
-        <v>0.1005397808730424</v>
+        <v>0.1005233378485343</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03380216026220939</v>
+        <v>0.04008260996382762</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.03281252136503948</v>
+        <v>0.03132004900093933</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03469210513271943</v>
+        <v>0.04104925861313165</v>
       </c>
       <c r="J114" t="n">
-        <v>0.03281252136503948</v>
+        <v>0.03132004900093933</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03469210513271943</v>
+        <v>0.04104925861313165</v>
       </c>
       <c r="L114" t="n">
-        <v>0.06729302664079112</v>
+        <v>0.06513680852652232</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03453081537579607</v>
+        <v>0.04089282507916189</v>
       </c>
       <c r="N114" t="n">
-        <v>0.1039519063307077</v>
+        <v>0.09753845017608681</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03450637193433875</v>
+        <v>0.04091766433807403</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.03364903137375999</v>
+        <v>0.03063943779818058</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03540010727828513</v>
+        <v>0.04188699858482821</v>
       </c>
       <c r="J115" t="n">
-        <v>0.03364903137375999</v>
+        <v>0.03063943779818058</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03540010727828513</v>
+        <v>0.04188699858482821</v>
       </c>
       <c r="L115" t="n">
-        <v>0.06879461068982701</v>
+        <v>0.06405341862127448</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03523552589366946</v>
+        <v>0.04172737252975704</v>
       </c>
       <c r="N115" t="n">
-        <v>0.1001789199959058</v>
+        <v>0.09631514568101296</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03521058360646812</v>
+        <v>0.04175271871232044</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.03335790180942275</v>
+        <v>0.03178583461956913</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03610810942385084</v>
+        <v>0.04272473855652478</v>
       </c>
       <c r="J116" t="n">
-        <v>0.03335790180942275</v>
+        <v>0.03178583461956913</v>
       </c>
       <c r="K116" t="n">
-        <v>0.03610810942385084</v>
+        <v>0.04272473855652478</v>
       </c>
       <c r="L116" t="n">
-        <v>0.06827703825815579</v>
+        <v>0.06678684111902541</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03594023641154285</v>
+        <v>0.04256191998035217</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1022057144717228</v>
+        <v>0.09623918571212803</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03591479527859748</v>
+        <v>0.04258777308656685</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.03381893067307729</v>
+        <v>0.0320982087060229</v>
       </c>
       <c r="G117" t="n">
-        <v>0.03681611156941653</v>
+        <v>0.04356247852822134</v>
       </c>
       <c r="J117" t="n">
-        <v>0.03381893067307729</v>
+        <v>0.0320982087060229</v>
       </c>
       <c r="K117" t="n">
-        <v>0.03681611156941653</v>
+        <v>0.04356247852822134</v>
       </c>
       <c r="L117" t="n">
-        <v>0.0690958087283205</v>
+        <v>0.06507042195129231</v>
       </c>
       <c r="M117" t="n">
-        <v>0.03664494692941624</v>
+        <v>0.04339646743094732</v>
       </c>
       <c r="N117" t="n">
-        <v>0.1007226625054001</v>
+        <v>0.09638995421465119</v>
       </c>
       <c r="O117" t="n">
-        <v>0.03661900695072684</v>
+        <v>0.04342282746081325</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.0337279413745732</v>
+        <v>0.03094641694167119</v>
       </c>
       <c r="G118" t="n">
-        <v>0.03752411371498224</v>
+        <v>0.0444002184999179</v>
       </c>
       <c r="J118" t="n">
-        <v>0.0337279413745732</v>
+        <v>0.03094641694167119</v>
       </c>
       <c r="K118" t="n">
-        <v>0.03752411371498224</v>
+        <v>0.0444002184999179</v>
       </c>
       <c r="L118" t="n">
-        <v>0.06839048836619588</v>
+        <v>0.06546638589243556</v>
       </c>
       <c r="M118" t="n">
-        <v>0.03734965744728963</v>
+        <v>0.04423101488154246</v>
       </c>
       <c r="N118" t="n">
-        <v>0.1027165182590198</v>
+        <v>0.101671507439061</v>
       </c>
       <c r="O118" t="n">
-        <v>0.0373232186228562</v>
+        <v>0.04425788183505967</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.03418592589715337</v>
+        <v>0.03267571812013205</v>
       </c>
       <c r="G119" t="n">
-        <v>0.03823211586054794</v>
+        <v>0.04523795847161447</v>
       </c>
       <c r="J119" t="n">
-        <v>0.03418592589715337</v>
+        <v>0.03267571812013205</v>
       </c>
       <c r="K119" t="n">
-        <v>0.03823211586054794</v>
+        <v>0.04523795847161447</v>
       </c>
       <c r="L119" t="n">
-        <v>0.06904268480995321</v>
+        <v>0.06313486268828761</v>
       </c>
       <c r="M119" t="n">
-        <v>0.03805436796516302</v>
+        <v>0.0450655623321376</v>
       </c>
       <c r="N119" t="n">
-        <v>0.101063824113897</v>
+        <v>0.09779959805556232</v>
       </c>
       <c r="O119" t="n">
-        <v>0.03802743029498556</v>
+        <v>0.04509293620930608</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.03412416214644662</v>
+        <v>0.03101885464355512</v>
       </c>
       <c r="G120" t="n">
-        <v>0.03894011800611365</v>
+        <v>0.04607569844331103</v>
       </c>
       <c r="J120" t="n">
-        <v>0.03412416214644662</v>
+        <v>0.03101885464355512</v>
       </c>
       <c r="K120" t="n">
-        <v>0.03894011800611365</v>
+        <v>0.04607569844331103</v>
       </c>
       <c r="L120" t="n">
-        <v>0.0665718475019228</v>
+        <v>0.06738998732988233</v>
       </c>
       <c r="M120" t="n">
-        <v>0.03875907848303641</v>
+        <v>0.04590010978273274</v>
       </c>
       <c r="N120" t="n">
-        <v>0.1013645416358472</v>
+        <v>0.100415631138866</v>
       </c>
       <c r="O120" t="n">
-        <v>0.03873164196711493</v>
+        <v>0.04592799058355249</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.03421173558310077</v>
+        <v>0.03203324719276034</v>
       </c>
       <c r="G121" t="n">
-        <v>0.03964812015167934</v>
+        <v>0.04691343841500759</v>
       </c>
       <c r="J121" t="n">
-        <v>0.03421173558310077</v>
+        <v>0.03203324719276034</v>
       </c>
       <c r="K121" t="n">
-        <v>0.03964812015167934</v>
+        <v>0.04691343841500759</v>
       </c>
       <c r="L121" t="n">
-        <v>0.06832955924453696</v>
+        <v>0.06431807010330384</v>
       </c>
       <c r="M121" t="n">
-        <v>0.0394637890009098</v>
+        <v>0.04673465723332788</v>
       </c>
       <c r="N121" t="n">
-        <v>0.1021969194768352</v>
+        <v>0.1013468423024145</v>
       </c>
       <c r="O121" t="n">
-        <v>0.03943585363924429</v>
+        <v>0.04676304495779889</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.03417583457652722</v>
+        <v>0.03209819709305758</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04035612229724505</v>
+        <v>0.04775117838670416</v>
       </c>
       <c r="J122" t="n">
-        <v>0.03417583457652722</v>
+        <v>0.03209819709305758</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04035612229724505</v>
+        <v>0.04775117838670416</v>
       </c>
       <c r="L122" t="n">
-        <v>0.06906585137420851</v>
+        <v>0.06744440749334543</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04016849951878319</v>
+        <v>0.04756920468392302</v>
       </c>
       <c r="N122" t="n">
-        <v>0.103993185901264</v>
+        <v>0.09823369647458863</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04014006531137365</v>
+        <v>0.04759809933204531</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.03399068927432088</v>
+        <v>0.03225085358805399</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04106412444281075</v>
+        <v>0.04858891835840072</v>
       </c>
       <c r="J123" t="n">
-        <v>0.03399068927432088</v>
+        <v>0.03225085358805399</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04106412444281075</v>
+        <v>0.04858891835840072</v>
       </c>
       <c r="L123" t="n">
-        <v>0.06960000568843708</v>
+        <v>0.06761323876216363</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04087321003665658</v>
+        <v>0.04840375213451816</v>
       </c>
       <c r="N123" t="n">
-        <v>0.1031204442886979</v>
+        <v>0.09789388946292504</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04084427698350301</v>
+        <v>0.04843315370629171</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.0343686210954368</v>
+        <v>0.03248171053943516</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04177212658837646</v>
+        <v>0.04942665833009729</v>
       </c>
       <c r="J124" t="n">
-        <v>0.0343686210954368</v>
+        <v>0.03248171053943516</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04177212658837646</v>
+        <v>0.04942665833009729</v>
       </c>
       <c r="L124" t="n">
-        <v>0.06925787678336656</v>
+        <v>0.06731975217567843</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04157792055452997</v>
+        <v>0.0492382995851133</v>
       </c>
       <c r="N124" t="n">
-        <v>0.1058868806630966</v>
+        <v>0.09761900081286623</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04154848865563238</v>
+        <v>0.04926820808053812</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.03448599292663135</v>
+        <v>0.03177197415638629</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04248012873394216</v>
+        <v>0.05026439830179386</v>
       </c>
       <c r="J125" t="n">
-        <v>0.03448599292663135</v>
+        <v>0.03177197415638629</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04248012873394216</v>
+        <v>0.05026439830179386</v>
       </c>
       <c r="L125" t="n">
-        <v>0.06978089161170237</v>
+        <v>0.06521895283238802</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04228263107240336</v>
+        <v>0.05007284703570844</v>
       </c>
       <c r="N125" t="n">
-        <v>0.1049757725841726</v>
+        <v>0.1035203936551158</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04225270032776174</v>
+        <v>0.05010326245478453</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.03421903504414649</v>
+        <v>0.03269289612193366</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04318813087950786</v>
+        <v>0.05110213827349042</v>
       </c>
       <c r="J126" t="n">
-        <v>0.03421903504414649</v>
+        <v>0.03269289612193366</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04318813087950786</v>
+        <v>0.05110213827349042</v>
       </c>
       <c r="L126" t="n">
-        <v>0.06702481721527201</v>
+        <v>0.06820564322609354</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04298734159027675</v>
+        <v>0.05090739448630358</v>
       </c>
       <c r="N126" t="n">
-        <v>0.1064214275759126</v>
+        <v>0.09999377052642416</v>
       </c>
       <c r="O126" t="n">
-        <v>0.0429569119998911</v>
+        <v>0.05093831682903094</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.03490023077798905</v>
+        <v>0.03185365884179933</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04389613302507357</v>
+        <v>0.05193987824518698</v>
       </c>
       <c r="J127" t="n">
-        <v>0.03490023077798905</v>
+        <v>0.03185365884179933</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04389613302507357</v>
+        <v>0.05193987824518698</v>
       </c>
       <c r="L127" t="n">
-        <v>0.06760904339223076</v>
+        <v>0.06504536946808648</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04369205210815014</v>
+        <v>0.05174194193689872</v>
       </c>
       <c r="N127" t="n">
-        <v>0.1031794483943085</v>
+        <v>0.1039592710852748</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04366112367202046</v>
+        <v>0.05177337120327735</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.034073172316313</v>
+        <v>0.03210148818503966</v>
       </c>
       <c r="G128" t="n">
-        <v>0.04460413517063927</v>
+        <v>0.05277761821688355</v>
       </c>
       <c r="J128" t="n">
-        <v>0.034073172316313</v>
+        <v>0.03210148818503966</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04460413517063927</v>
+        <v>0.05277761821688355</v>
       </c>
       <c r="L128" t="n">
-        <v>0.06974214748641552</v>
+        <v>0.06927416190666985</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04439676262602352</v>
+        <v>0.05257648938749387</v>
       </c>
       <c r="N128" t="n">
-        <v>0.1070041785330776</v>
+        <v>0.1025342555252454</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04436533534414983</v>
+        <v>0.05260842557752375</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.03476615223427983</v>
+        <v>0.03318993515587183</v>
       </c>
       <c r="G129" t="n">
-        <v>0.04531213731620497</v>
+        <v>0.05361535818858011</v>
       </c>
       <c r="J129" t="n">
-        <v>0.03476615223427983</v>
+        <v>0.03318993515587183</v>
       </c>
       <c r="K129" t="n">
-        <v>0.04531213731620497</v>
+        <v>0.05361535818858011</v>
       </c>
       <c r="L129" t="n">
-        <v>0.06896816838636233</v>
+        <v>0.0656078533391263</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04510147314389692</v>
+        <v>0.053411036838089</v>
       </c>
       <c r="N129" t="n">
-        <v>0.1023189356482608</v>
+        <v>0.09926670687226935</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04506954701627919</v>
+        <v>0.05344347995177016</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.03497320818635216</v>
+        <v>0.03303839352717466</v>
       </c>
       <c r="G130" t="n">
-        <v>0.04602013946177067</v>
+        <v>0.05445309816027667</v>
       </c>
       <c r="J130" t="n">
-        <v>0.03497320818635216</v>
+        <v>0.03303839352717466</v>
       </c>
       <c r="K130" t="n">
-        <v>0.04602013946177067</v>
+        <v>0.05445309816027667</v>
       </c>
       <c r="L130" t="n">
-        <v>0.07013843211524648</v>
+        <v>0.06743892274176383</v>
       </c>
       <c r="M130" t="n">
-        <v>0.04580618366177031</v>
+        <v>0.05424558428868415</v>
       </c>
       <c r="N130" t="n">
-        <v>0.1057644615219753</v>
+        <v>0.1018804591725168</v>
       </c>
       <c r="O130" t="n">
-        <v>0.04577375868840855</v>
+        <v>0.05427853432601657</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.03375441682701463</v>
+        <v>0.0334612142947406</v>
       </c>
       <c r="G131" t="n">
-        <v>0.04672814160733638</v>
+        <v>0.05529083813197324</v>
       </c>
       <c r="J131" t="n">
-        <v>0.03375441682701463</v>
+        <v>0.0334612142947406</v>
       </c>
       <c r="K131" t="n">
-        <v>0.04672814160733638</v>
+        <v>0.05529083813197324</v>
       </c>
       <c r="L131" t="n">
-        <v>0.06910278354763377</v>
+        <v>0.06565155136040307</v>
       </c>
       <c r="M131" t="n">
-        <v>0.04651089417964369</v>
+        <v>0.05508013173927928</v>
       </c>
       <c r="N131" t="n">
-        <v>0.1033601670709506</v>
+        <v>0.1013681418557347</v>
       </c>
       <c r="O131" t="n">
-        <v>0.04647797036053791</v>
+        <v>0.05511358870026298</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.035033599336088</v>
+        <v>0.03282300672445265</v>
       </c>
       <c r="G132" t="n">
-        <v>0.04743614375290208</v>
+        <v>0.0561285781036698</v>
       </c>
       <c r="J132" t="n">
-        <v>0.035033599336088</v>
+        <v>0.03282300672445265</v>
       </c>
       <c r="K132" t="n">
-        <v>0.04743614375290208</v>
+        <v>0.0561285781036698</v>
       </c>
       <c r="L132" t="n">
-        <v>0.06823451059890584</v>
+        <v>0.06748116453636055</v>
       </c>
       <c r="M132" t="n">
-        <v>0.04721560469751709</v>
+        <v>0.05591467918987443</v>
       </c>
       <c r="N132" t="n">
-        <v>0.1045212063186542</v>
+        <v>0.1054865321884912</v>
       </c>
       <c r="O132" t="n">
-        <v>0.04718218203266727</v>
+        <v>0.05594864307450939</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.0347833937026282</v>
+        <v>0.03257303466793753</v>
       </c>
       <c r="G133" t="n">
-        <v>0.04814414589846778</v>
+        <v>0.05696631807536636</v>
       </c>
       <c r="J133" t="n">
-        <v>0.0347833937026282</v>
+        <v>0.03257303466793753</v>
       </c>
       <c r="K133" t="n">
-        <v>0.04814414589846778</v>
+        <v>0.05696631807536636</v>
       </c>
       <c r="L133" t="n">
-        <v>0.06824322747816286</v>
+        <v>0.06679733696556162</v>
       </c>
       <c r="M133" t="n">
-        <v>0.04792031521539047</v>
+        <v>0.05674922664046957</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1064111957256619</v>
+        <v>0.1000469249002492</v>
       </c>
       <c r="O133" t="n">
-        <v>0.04788639370479664</v>
+        <v>0.0567836974487558</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.03467532444449281</v>
+        <v>0.03243267793777632</v>
       </c>
       <c r="G134" t="n">
-        <v>0.04885214804403348</v>
+        <v>0.05780405804706294</v>
       </c>
       <c r="J134" t="n">
-        <v>0.03467532444449281</v>
+        <v>0.03243267793777632</v>
       </c>
       <c r="K134" t="n">
-        <v>0.04885214804403348</v>
+        <v>0.05780405804706294</v>
       </c>
       <c r="L134" t="n">
-        <v>0.06912195026569101</v>
+        <v>0.06662081310876455</v>
       </c>
       <c r="M134" t="n">
-        <v>0.04862502573326386</v>
+        <v>0.05758377409106471</v>
       </c>
       <c r="N134" t="n">
-        <v>0.107691762970112</v>
+        <v>0.104445321141492</v>
       </c>
       <c r="O134" t="n">
-        <v>0.048590605376926</v>
+        <v>0.05761875182300221</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.03398304371262462</v>
+        <v>0.03375621810286371</v>
       </c>
       <c r="G135" t="n">
-        <v>0.04956015018959919</v>
+        <v>0.0586417980187595</v>
       </c>
       <c r="J135" t="n">
-        <v>0.03398304371262462</v>
+        <v>0.03375621810286371</v>
       </c>
       <c r="K135" t="n">
-        <v>0.04956015018959919</v>
+        <v>0.0586417980187595</v>
       </c>
       <c r="L135" t="n">
-        <v>0.07037313532250883</v>
+        <v>0.06716051573431719</v>
       </c>
       <c r="M135" t="n">
-        <v>0.04932973625113726</v>
+        <v>0.05841832154165984</v>
       </c>
       <c r="N135" t="n">
-        <v>0.1073025575734348</v>
+        <v>0.1040335524486382</v>
       </c>
       <c r="O135" t="n">
-        <v>0.04929481704905536</v>
+        <v>0.05845380619724862</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.03469231162519915</v>
+        <v>0.03326656338477411</v>
       </c>
       <c r="G136" t="n">
-        <v>0.05026815233516489</v>
+        <v>0.05947953799045606</v>
       </c>
       <c r="J136" t="n">
-        <v>0.03469231162519915</v>
+        <v>0.03326656338477411</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05026815233516489</v>
+        <v>0.05947953799045606</v>
       </c>
       <c r="L136" t="n">
-        <v>0.07086738349715324</v>
+        <v>0.06909933757907447</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05003444676901064</v>
+        <v>0.05925286899225499</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1035649158527563</v>
+        <v>0.1063410861767522</v>
       </c>
       <c r="O136" t="n">
-        <v>0.04999902872118472</v>
+        <v>0.05928886057149503</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.03394351994247795</v>
+        <v>0.03306742697435626</v>
       </c>
       <c r="G137" t="n">
-        <v>0.05097615448073059</v>
+        <v>0.06031727796215262</v>
       </c>
       <c r="J137" t="n">
-        <v>0.03394351994247795</v>
+        <v>0.03306742697435626</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05097615448073059</v>
+        <v>0.06031727796215262</v>
       </c>
       <c r="L137" t="n">
-        <v>0.07014009663741622</v>
+        <v>0.06866741446663485</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05073915728688403</v>
+        <v>0.06008741644285014</v>
       </c>
       <c r="N137" t="n">
-        <v>0.1066284815759739</v>
+        <v>0.1030202810982596</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05070324039331409</v>
+        <v>0.06012391494574144</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.03432457197121819</v>
+        <v>0.03297552508056956</v>
       </c>
       <c r="G138" t="n">
-        <v>0.05168415662629629</v>
+        <v>0.06115501793384919</v>
       </c>
       <c r="J138" t="n">
-        <v>0.03432457197121819</v>
+        <v>0.03297552508056956</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05168415662629629</v>
+        <v>0.06115501793384919</v>
       </c>
       <c r="L138" t="n">
-        <v>0.07077075012039605</v>
+        <v>0.06888663611673013</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05144386780475742</v>
+        <v>0.06092196389344527</v>
       </c>
       <c r="N138" t="n">
-        <v>0.1071000880009669</v>
+        <v>0.1059910804658001</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05140745206544345</v>
+        <v>0.06095896931998784</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.03504299962536869</v>
+        <v>0.03422786280771782</v>
       </c>
       <c r="G139" t="n">
-        <v>0.052392158771862</v>
+        <v>0.06199275790554575</v>
       </c>
       <c r="J139" t="n">
-        <v>0.03504299962536869</v>
+        <v>0.03422786280771782</v>
       </c>
       <c r="K139" t="n">
-        <v>0.052392158771862</v>
+        <v>0.06199275790554575</v>
       </c>
       <c r="L139" t="n">
-        <v>0.06850861456542781</v>
+        <v>0.06947523196102878</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05214857832263081</v>
+        <v>0.06175651134404041</v>
       </c>
       <c r="N139" t="n">
-        <v>0.1079919388036245</v>
+        <v>0.1022364587991332</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05211166373757281</v>
+        <v>0.06179402369423426</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.03446285724484344</v>
+        <v>0.03449484409553305</v>
       </c>
       <c r="G140" t="n">
-        <v>0.0531001609174277</v>
+        <v>0.06283049787724231</v>
       </c>
       <c r="J140" t="n">
-        <v>0.03446285724484344</v>
+        <v>0.03449484409553305</v>
       </c>
       <c r="K140" t="n">
-        <v>0.0531001609174277</v>
+        <v>0.06283049787724231</v>
       </c>
       <c r="L140" t="n">
-        <v>0.06923386897870448</v>
+        <v>0.07038491528858562</v>
       </c>
       <c r="M140" t="n">
-        <v>0.0528532888405042</v>
+        <v>0.06259105879463556</v>
       </c>
       <c r="N140" t="n">
-        <v>0.1032198941354571</v>
+        <v>0.1047246584357102</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05281587540970217</v>
+        <v>0.06262907806848066</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.03430000397638724</v>
+        <v>0.03296198003980369</v>
       </c>
       <c r="G141" t="n">
-        <v>0.05380816306299339</v>
+        <v>0.06366823784893888</v>
       </c>
       <c r="J141" t="n">
-        <v>0.03430000397638724</v>
+        <v>0.03296198003980369</v>
       </c>
       <c r="K141" t="n">
-        <v>0.05380816306299339</v>
+        <v>0.06366823784893888</v>
       </c>
       <c r="L141" t="n">
-        <v>0.06871959309114353</v>
+        <v>0.07109555918820532</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05355799935837759</v>
+        <v>0.06342560624523069</v>
       </c>
       <c r="N141" t="n">
-        <v>0.1039557226437177</v>
+        <v>0.1049841816312226</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05352008708183154</v>
+        <v>0.06346413244272707</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.03398589853555008</v>
+        <v>0.03368670445304478</v>
       </c>
       <c r="G142" t="n">
-        <v>0.0545161652085591</v>
+        <v>0.06450597782063544</v>
       </c>
       <c r="J142" t="n">
-        <v>0.03398589853555008</v>
+        <v>0.03368670445304478</v>
       </c>
       <c r="K142" t="n">
-        <v>0.0545161652085591</v>
+        <v>0.06450597782063544</v>
       </c>
       <c r="L142" t="n">
-        <v>0.07202519989546374</v>
+        <v>0.06819649155241198</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05426270987625097</v>
+        <v>0.06426015369582583</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1065125803503554</v>
+        <v>0.1066860591100459</v>
       </c>
       <c r="O142" t="n">
-        <v>0.0542242987539609</v>
+        <v>0.06429918681697348</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.03488526091177364</v>
+        <v>0.03355512922765963</v>
       </c>
       <c r="G143" t="n">
-        <v>0.0552241673541248</v>
+        <v>0.065343717792332</v>
       </c>
       <c r="J143" t="n">
-        <v>0.03488526091177364</v>
+        <v>0.03355512922765963</v>
       </c>
       <c r="K143" t="n">
-        <v>0.0552241673541248</v>
+        <v>0.065343717792332</v>
       </c>
       <c r="L143" t="n">
-        <v>0.07042054795452146</v>
+        <v>0.06955350087504633</v>
       </c>
       <c r="M143" t="n">
-        <v>0.05496742039412437</v>
+        <v>0.06509470114642098</v>
       </c>
       <c r="N143" t="n">
-        <v>0.1043746965121042</v>
+        <v>0.1091140705420559</v>
       </c>
       <c r="O143" t="n">
-        <v>0.05492851042609027</v>
+        <v>0.06513424119121988</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.03486393784376339</v>
+        <v>0.03389847310784767</v>
       </c>
       <c r="G144" t="n">
-        <v>0.05593216949969051</v>
+        <v>0.06618145776402858</v>
       </c>
       <c r="J144" t="n">
-        <v>0.03486393784376339</v>
+        <v>0.03389847310784767</v>
       </c>
       <c r="K144" t="n">
-        <v>0.05593216949969051</v>
+        <v>0.06618145776402858</v>
       </c>
       <c r="L144" t="n">
-        <v>0.07121697613467648</v>
+        <v>0.06780385523168034</v>
       </c>
       <c r="M144" t="n">
-        <v>0.05567213091199776</v>
+        <v>0.06592924859701611</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1046354597925868</v>
+        <v>0.103337617248893</v>
       </c>
       <c r="O144" t="n">
-        <v>0.05563272209821962</v>
+        <v>0.0659692955654663</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.03475451137142901</v>
+        <v>0.03310825224088776</v>
       </c>
       <c r="G145" t="n">
-        <v>0.05664017164525621</v>
+        <v>0.06701919773572514</v>
       </c>
       <c r="J145" t="n">
-        <v>0.03475451137142901</v>
+        <v>0.03310825224088776</v>
       </c>
       <c r="K145" t="n">
-        <v>0.05664017164525621</v>
+        <v>0.06701919773572514</v>
       </c>
       <c r="L145" t="n">
-        <v>0.07027236524174069</v>
+        <v>0.07070556535964517</v>
       </c>
       <c r="M145" t="n">
-        <v>0.05637684142987114</v>
+        <v>0.06676379604761125</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1070960003644355</v>
+        <v>0.1051373735180289</v>
       </c>
       <c r="O145" t="n">
-        <v>0.05633693377034898</v>
+        <v>0.06680434993971271</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.03413162315852804</v>
+        <v>0.03454087950157243</v>
       </c>
       <c r="G146" t="n">
-        <v>0.05734817379082191</v>
+        <v>0.0678569377074217</v>
       </c>
       <c r="J146" t="n">
-        <v>0.03413162315852804</v>
+        <v>0.03454087950157243</v>
       </c>
       <c r="K146" t="n">
-        <v>0.05734817379082191</v>
+        <v>0.0678569377074217</v>
       </c>
       <c r="L146" t="n">
-        <v>0.07165013180348562</v>
+        <v>0.07202519989546374</v>
       </c>
       <c r="M146" t="n">
-        <v>0.05708155194774454</v>
+        <v>0.0675983434982064</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1079810274252695</v>
+        <v>0.1067972612958595</v>
       </c>
       <c r="O146" t="n">
-        <v>0.05704114544247835</v>
+        <v>0.06763940431395911</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.03500735512282964</v>
+        <v>0.03421448921610101</v>
       </c>
       <c r="G147" t="n">
-        <v>0.05805617593638761</v>
+        <v>0.06869467767911827</v>
       </c>
       <c r="J147" t="n">
-        <v>0.03500735512282964</v>
+        <v>0.03421448921610101</v>
       </c>
       <c r="K147" t="n">
-        <v>0.05805617593638761</v>
+        <v>0.06869467767911827</v>
       </c>
       <c r="L147" t="n">
-        <v>0.07035453931661961</v>
+        <v>0.07265976220768341</v>
       </c>
       <c r="M147" t="n">
-        <v>0.05778626246561793</v>
+        <v>0.06843289094880153</v>
       </c>
       <c r="N147" t="n">
-        <v>0.1051537685096668</v>
+        <v>0.1058717749666233</v>
       </c>
       <c r="O147" t="n">
-        <v>0.0577453571146077</v>
+        <v>0.06847445868820552</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.03406485951076497</v>
+        <v>0.03505541613339314</v>
       </c>
       <c r="G148" t="n">
-        <v>0.05876417808195331</v>
+        <v>0.06953241765081483</v>
       </c>
       <c r="J148" t="n">
-        <v>0.03406485951076497</v>
+        <v>0.03505541613339314</v>
       </c>
       <c r="K148" t="n">
-        <v>0.05876417808195331</v>
+        <v>0.06953241765081483</v>
       </c>
       <c r="L148" t="n">
-        <v>0.07160461701048693</v>
+        <v>0.07142064442847576</v>
       </c>
       <c r="M148" t="n">
-        <v>0.05849097298349131</v>
+        <v>0.06926743839939668</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1048697677623102</v>
+        <v>0.1047570577217618</v>
       </c>
       <c r="O148" t="n">
-        <v>0.05844956878673707</v>
+        <v>0.06930951306245194</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.03429654570649682</v>
+        <v>0.0347998211738143</v>
       </c>
       <c r="G149" t="n">
-        <v>0.05947218022751902</v>
+        <v>0.07037015762251139</v>
       </c>
       <c r="J149" t="n">
-        <v>0.03429654570649682</v>
+        <v>0.0347998211738143</v>
       </c>
       <c r="K149" t="n">
-        <v>0.05947218022751902</v>
+        <v>0.07037015762251139</v>
       </c>
       <c r="L149" t="n">
-        <v>0.07127622117949658</v>
+        <v>0.07078958302133267</v>
       </c>
       <c r="M149" t="n">
-        <v>0.05919568350136471</v>
+        <v>0.07010198584999182</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1101520308882019</v>
+        <v>0.1062689851112151</v>
       </c>
       <c r="O149" t="n">
-        <v>0.05915378045886643</v>
+        <v>0.07014456743669834</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.03520723263055614</v>
+        <v>0.03387054723828577</v>
       </c>
       <c r="G150" t="n">
-        <v>0.06018018237308472</v>
+        <v>0.07120789759420797</v>
       </c>
       <c r="J150" t="n">
-        <v>0.03520723263055614</v>
+        <v>0.03387054723828577</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06018018237308472</v>
+        <v>0.07120789759420797</v>
       </c>
       <c r="L150" t="n">
-        <v>0.06992358185361355</v>
+        <v>0.06921181789967235</v>
       </c>
       <c r="M150" t="n">
-        <v>0.05990039401923809</v>
+        <v>0.07093653330058695</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1066548932614938</v>
+        <v>0.1081941397170432</v>
       </c>
       <c r="O150" t="n">
-        <v>0.0598579921309958</v>
+        <v>0.07097962181094475</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.0344504223666998</v>
+        <v>0.03453082560729051</v>
       </c>
       <c r="G151" t="n">
-        <v>0.06088818451865043</v>
+        <v>0.07204563756590453</v>
       </c>
       <c r="J151" t="n">
-        <v>0.0344504223666998</v>
+        <v>0.03453082560729051</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06088818451865043</v>
+        <v>0.07204563756590453</v>
       </c>
       <c r="L151" t="n">
-        <v>0.07173577602009132</v>
+        <v>0.07255046403024965</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06060510453711148</v>
+        <v>0.0717710807511821</v>
       </c>
       <c r="N151" t="n">
-        <v>0.1091411904027709</v>
+        <v>0.1105319805926583</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06056220380312517</v>
+        <v>0.07181467618519116</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.03400170187617763</v>
+        <v>0.03484122993545682</v>
       </c>
       <c r="G152" t="n">
-        <v>0.06159618666421612</v>
+        <v>0.07288337753760109</v>
       </c>
       <c r="J152" t="n">
-        <v>0.03400170187617763</v>
+        <v>0.03484122993545682</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06159618666421612</v>
+        <v>0.07288337753760109</v>
       </c>
       <c r="L152" t="n">
-        <v>0.07170249831312051</v>
+        <v>0.06866565013686601</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06130981505498487</v>
+        <v>0.07260562820177724</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1093983488656046</v>
+        <v>0.1083417672339096</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06126641547525452</v>
+        <v>0.07264973055943756</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.03430184578109161</v>
+        <v>0.03459356130236961</v>
       </c>
       <c r="G153" t="n">
-        <v>0.06230418880978183</v>
+        <v>0.07372111750929766</v>
       </c>
       <c r="J153" t="n">
-        <v>0.03430184578109161</v>
+        <v>0.03459356130236961</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06230418880978183</v>
+        <v>0.07372111750929766</v>
       </c>
       <c r="L153" t="n">
-        <v>0.07163006463416602</v>
+        <v>0.07319700252564587</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06201452557285825</v>
+        <v>0.07344017565237237</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1060379956468157</v>
+        <v>0.1087428587794101</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06197062714738388</v>
+        <v>0.07348478493368397</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.03394768852114578</v>
+        <v>0.03460376052703251</v>
       </c>
       <c r="G154" t="n">
-        <v>0.06301219095534753</v>
+        <v>0.07455885748099422</v>
       </c>
       <c r="J154" t="n">
-        <v>0.03394768852114578</v>
+        <v>0.03460376052703251</v>
       </c>
       <c r="K154" t="n">
-        <v>0.06301219095534753</v>
+        <v>0.07455885748099422</v>
       </c>
       <c r="L154" t="n">
-        <v>0.07090836694849445</v>
+        <v>0.07130843781436472</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06271923609073164</v>
+        <v>0.07427472310296752</v>
       </c>
       <c r="N154" t="n">
-        <v>0.1073753982405434</v>
+        <v>0.1107033456249031</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06267483881951325</v>
+        <v>0.07431983930793039</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.03420930358627383</v>
+        <v>0.03529919130764236</v>
       </c>
       <c r="G155" t="n">
-        <v>0.06372019310091323</v>
+        <v>0.07539659745269078</v>
       </c>
       <c r="J155" t="n">
-        <v>0.03420930358627383</v>
+        <v>0.03529919130764236</v>
       </c>
       <c r="K155" t="n">
-        <v>0.06372019310091323</v>
+        <v>0.07539659745269078</v>
       </c>
       <c r="L155" t="n">
-        <v>0.0707012273274622</v>
+        <v>0.07327528659841523</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06342394660860504</v>
+        <v>0.07510927055356266</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1081964598045079</v>
+        <v>0.1050836483443701</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06337905049164261</v>
+        <v>0.07515489368217679</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.03466123684159805</v>
+        <v>0.03436426481453286</v>
       </c>
       <c r="G156" t="n">
-        <v>0.06442819524647894</v>
+        <v>0.07623433742438734</v>
       </c>
       <c r="J156" t="n">
-        <v>0.03466123684159805</v>
+        <v>0.03436426481453286</v>
       </c>
       <c r="K156" t="n">
-        <v>0.06442819524647894</v>
+        <v>0.07623433742438734</v>
       </c>
       <c r="L156" t="n">
-        <v>0.07025468102957302</v>
+        <v>0.0707652548914034</v>
       </c>
       <c r="M156" t="n">
-        <v>0.06412865712647842</v>
+        <v>0.0759438180041578</v>
       </c>
       <c r="N156" t="n">
-        <v>0.1065564215028881</v>
+        <v>0.1046945943889823</v>
       </c>
       <c r="O156" t="n">
-        <v>0.06408326216377197</v>
+        <v>0.0759899480564232</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.03492979000895841</v>
+        <v>0.03545592431853101</v>
       </c>
       <c r="G157" t="n">
-        <v>0.06513619739204464</v>
+        <v>0.0770720773960839</v>
       </c>
       <c r="J157" t="n">
-        <v>0.03492979000895841</v>
+        <v>0.03545592431853101</v>
       </c>
       <c r="K157" t="n">
-        <v>0.06513619739204464</v>
+        <v>0.0770720773960839</v>
       </c>
       <c r="L157" t="n">
-        <v>0.07200961059017338</v>
+        <v>0.07071813839008811</v>
       </c>
       <c r="M157" t="n">
-        <v>0.06483336764435181</v>
+        <v>0.07677836545475294</v>
       </c>
       <c r="N157" t="n">
-        <v>0.1095359101554205</v>
+        <v>0.1067315445139659</v>
       </c>
       <c r="O157" t="n">
-        <v>0.06478747383590133</v>
+        <v>0.07682500243066961</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.03493632924887161</v>
+        <v>0.03479329466928766</v>
       </c>
       <c r="G158" t="n">
-        <v>0.06584419953761034</v>
+        <v>0.07790981736778047</v>
       </c>
       <c r="J158" t="n">
-        <v>0.03493632924887161</v>
+        <v>0.03479329466928766</v>
       </c>
       <c r="K158" t="n">
-        <v>0.06584419953761034</v>
+        <v>0.07790981736778047</v>
       </c>
       <c r="L158" t="n">
-        <v>0.07006087613079151</v>
+        <v>0.07224515634251022</v>
       </c>
       <c r="M158" t="n">
-        <v>0.06553807816222521</v>
+        <v>0.07761291290534808</v>
       </c>
       <c r="N158" t="n">
-        <v>0.1078471744701584</v>
+        <v>0.1105633482692903</v>
       </c>
       <c r="O158" t="n">
-        <v>0.06549168550803069</v>
+        <v>0.07766005680491601</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.03497584368905016</v>
+        <v>0.03507910637634801</v>
       </c>
       <c r="G159" t="n">
-        <v>0.06655220168317605</v>
+        <v>0.07874755733947703</v>
       </c>
       <c r="J159" t="n">
-        <v>0.03497584368905016</v>
+        <v>0.03507910637634801</v>
       </c>
       <c r="K159" t="n">
-        <v>0.06655220168317605</v>
+        <v>0.07874755733947703</v>
       </c>
       <c r="L159" t="n">
-        <v>0.07218972523584613</v>
+        <v>0.07342933914942096</v>
       </c>
       <c r="M159" t="n">
-        <v>0.06624278868009859</v>
+        <v>0.07844746035594323</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1073120725119258</v>
+        <v>0.1053198924367533</v>
       </c>
       <c r="O159" t="n">
-        <v>0.06619589718016006</v>
+        <v>0.07849511117916243</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.03496758008204291</v>
+        <v>0.03516502502864578</v>
       </c>
       <c r="G160" t="n">
-        <v>0.06726020382874175</v>
+        <v>0.0795852973111736</v>
       </c>
       <c r="J160" t="n">
-        <v>0.03496758008204291</v>
+        <v>0.03516502502864578</v>
       </c>
       <c r="K160" t="n">
-        <v>0.06726020382874175</v>
+        <v>0.0795852973111736</v>
       </c>
       <c r="L160" t="n">
-        <v>0.07088106202225095</v>
+        <v>0.06991706284482155</v>
       </c>
       <c r="M160" t="n">
-        <v>0.06694749919797198</v>
+        <v>0.07928200780653837</v>
       </c>
       <c r="N160" t="n">
-        <v>0.1065742089563308</v>
+        <v>0.1092224130477054</v>
       </c>
       <c r="O160" t="n">
-        <v>0.06690010885228942</v>
+        <v>0.07933016555340884</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.03499754441097834</v>
+        <v>0.03463721361315318</v>
       </c>
       <c r="G161" t="n">
-        <v>0.06796820597430746</v>
+        <v>0.08042303728287016</v>
       </c>
       <c r="J161" t="n">
-        <v>0.03499754441097834</v>
+        <v>0.03463721361315318</v>
       </c>
       <c r="K161" t="n">
-        <v>0.06796820597430746</v>
+        <v>0.08042303728287016</v>
       </c>
       <c r="L161" t="n">
-        <v>0.06980164443067108</v>
+        <v>0.07341812141866488</v>
       </c>
       <c r="M161" t="n">
-        <v>0.06765220971584537</v>
+        <v>0.0801165552571335</v>
       </c>
       <c r="N161" t="n">
-        <v>0.109913709734805</v>
+        <v>0.1102725714829743</v>
       </c>
       <c r="O161" t="n">
-        <v>0.06760432052441878</v>
+        <v>0.08016521992765524</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.03416848547962531</v>
+        <v>0.03462958925534011</v>
       </c>
       <c r="G162" t="n">
-        <v>0.06867620811987316</v>
+        <v>0.08126077725456672</v>
       </c>
       <c r="J162" t="n">
-        <v>0.03416848547962531</v>
+        <v>0.03462958925534011</v>
       </c>
       <c r="K162" t="n">
-        <v>0.06867620811987316</v>
+        <v>0.08126077725456672</v>
       </c>
       <c r="L162" t="n">
-        <v>0.07050645291115187</v>
+        <v>0.07237821081220827</v>
       </c>
       <c r="M162" t="n">
-        <v>0.06835692023371875</v>
+        <v>0.08095110270772865</v>
       </c>
       <c r="N162" t="n">
-        <v>0.1093083656117437</v>
+        <v>0.1093516501465281</v>
       </c>
       <c r="O162" t="n">
-        <v>0.06830853219654814</v>
+        <v>0.08100027430190165</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.03529145525700099</v>
+        <v>0.033963406668906</v>
       </c>
       <c r="G163" t="n">
-        <v>0.06938421026543885</v>
+        <v>0.0820985172262633</v>
       </c>
       <c r="J163" t="n">
-        <v>0.03529145525700099</v>
+        <v>0.033963406668906</v>
       </c>
       <c r="K163" t="n">
-        <v>0.06938421026543885</v>
+        <v>0.0820985172262633</v>
       </c>
       <c r="L163" t="n">
-        <v>0.07184177933442237</v>
+        <v>0.07032625091357839</v>
       </c>
       <c r="M163" t="n">
-        <v>0.06906163075159215</v>
+        <v>0.08178565015832379</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1085031124571867</v>
+        <v>0.1070773982864148</v>
       </c>
       <c r="O163" t="n">
-        <v>0.06901274386867751</v>
+        <v>0.08183532867614807</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.03478634340744559</v>
+        <v>0.03402892277029297</v>
       </c>
       <c r="G164" t="n">
-        <v>0.07009221241100456</v>
+        <v>0.08293625719795986</v>
       </c>
       <c r="J164" t="n">
-        <v>0.03478634340744559</v>
+        <v>0.03402892277029297</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07009221241100456</v>
+        <v>0.08293625719795986</v>
       </c>
       <c r="L164" t="n">
-        <v>0.07221953460390704</v>
+        <v>0.07013604716580932</v>
       </c>
       <c r="M164" t="n">
-        <v>0.06976634126946553</v>
+        <v>0.08262019760891894</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1054233432106608</v>
+        <v>0.1117433519271392</v>
       </c>
       <c r="O164" t="n">
-        <v>0.06971695554080687</v>
+        <v>0.08267038305039448</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.03413923179654785</v>
+        <v>0.03493632924887161</v>
       </c>
       <c r="G165" t="n">
-        <v>0.07080021455657026</v>
+        <v>0.08377399716965642</v>
       </c>
       <c r="J165" t="n">
-        <v>0.03413923179654785</v>
+        <v>0.03493632924887161</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07080021455657026</v>
+        <v>0.08377399716965642</v>
       </c>
       <c r="L165" t="n">
-        <v>0.07098604314131002</v>
+        <v>0.06985452417295113</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07047105178733892</v>
+        <v>0.08345474505951407</v>
       </c>
       <c r="N165" t="n">
-        <v>0.1091140705420559</v>
+        <v>0.1075724215273858</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07042116721293623</v>
+        <v>0.08350543742464088</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.03534600915003198</v>
+        <v>0.03562199707967001</v>
       </c>
       <c r="G166" t="n">
-        <v>0.07150821670213596</v>
+        <v>0.08461173714135299</v>
       </c>
       <c r="J166" t="n">
-        <v>0.03534600915003198</v>
+        <v>0.03562199707967001</v>
       </c>
       <c r="K166" t="n">
-        <v>0.07150821670213596</v>
+        <v>0.08461173714135299</v>
       </c>
       <c r="L166" t="n">
-        <v>0.0720027899428333</v>
+        <v>0.07195836293289379</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07117576230521232</v>
+        <v>0.08428929251010921</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1091601475208963</v>
+        <v>0.1073849603454921</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07112537888506559</v>
+        <v>0.08434049179888729</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.0350718928749307</v>
+        <v>0.03491776050245264</v>
       </c>
       <c r="G167" t="n">
-        <v>0.07221621884770167</v>
+        <v>0.08544947711304955</v>
       </c>
       <c r="J167" t="n">
-        <v>0.0350718928749307</v>
+        <v>0.03491776050245264</v>
       </c>
       <c r="K167" t="n">
-        <v>0.07221621884770167</v>
+        <v>0.08544947711304955</v>
       </c>
       <c r="L167" t="n">
-        <v>0.06964412445532428</v>
+        <v>0.07403854717263517</v>
       </c>
       <c r="M167" t="n">
-        <v>0.0718804728230857</v>
+        <v>0.08512383996070434</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1085907805677501</v>
+        <v>0.1058071925115677</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07182959055719496</v>
+        <v>0.08517554617313371</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.03534945393143725</v>
+        <v>0.03544032932534703</v>
       </c>
       <c r="G168" t="n">
-        <v>0.07292422099326737</v>
+        <v>0.08628721708474611</v>
       </c>
       <c r="J168" t="n">
-        <v>0.03534945393143725</v>
+        <v>0.03544032932534703</v>
       </c>
       <c r="K168" t="n">
-        <v>0.07292422099326737</v>
+        <v>0.08628721708474611</v>
       </c>
       <c r="L168" t="n">
-        <v>0.07140100931967819</v>
+        <v>0.07105434735227723</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07258518334095909</v>
+        <v>0.08595838741129949</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1060636290265595</v>
+        <v>0.1108648854678379</v>
       </c>
       <c r="O168" t="n">
-        <v>0.07253380222932432</v>
+        <v>0.08601060054738011</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.03516807079360436</v>
+        <v>0.03531282888822636</v>
       </c>
       <c r="G169" t="n">
-        <v>0.07363222313883307</v>
+        <v>0.08712495705644267</v>
       </c>
       <c r="J169" t="n">
-        <v>0.03516807079360436</v>
+        <v>0.03531282888822636</v>
       </c>
       <c r="K169" t="n">
-        <v>0.07363222313883307</v>
+        <v>0.08712495705644267</v>
       </c>
       <c r="L169" t="n">
-        <v>0.07058143885103782</v>
+        <v>0.06981227901841489</v>
       </c>
       <c r="M169" t="n">
-        <v>0.07328989385883249</v>
+        <v>0.08679293486189464</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1057173327542866</v>
+        <v>0.112370026206275</v>
       </c>
       <c r="O169" t="n">
-        <v>0.07323801390145368</v>
+        <v>0.08684565492162651</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.03424756760377126</v>
+        <v>0.03416470277647524</v>
       </c>
       <c r="G170" t="n">
-        <v>0.07434022528439878</v>
+        <v>0.08796269702813925</v>
       </c>
       <c r="J170" t="n">
-        <v>0.03424756760377126</v>
+        <v>0.03416470277647524</v>
       </c>
       <c r="K170" t="n">
-        <v>0.07434022528439878</v>
+        <v>0.08796269702813925</v>
       </c>
       <c r="L170" t="n">
-        <v>0.06958236978242516</v>
+        <v>0.07066613586170195</v>
       </c>
       <c r="M170" t="n">
-        <v>0.07399460437670587</v>
+        <v>0.08762748231248978</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1101014159908454</v>
+        <v>0.1048582958665847</v>
       </c>
       <c r="O170" t="n">
-        <v>0.07394222557358304</v>
+        <v>0.08768070929587293</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.03505247132370772</v>
+        <v>0.03384427410841637</v>
       </c>
       <c r="G171" t="n">
-        <v>0.07504822742996448</v>
+        <v>0.08880043699983581</v>
       </c>
       <c r="J171" t="n">
-        <v>0.03505247132370772</v>
+        <v>0.03384427410841637</v>
       </c>
       <c r="K171" t="n">
-        <v>0.07504822742996448</v>
+        <v>0.08880043699983581</v>
       </c>
       <c r="L171" t="n">
-        <v>0.07046822313320855</v>
+        <v>0.07390480981387554</v>
       </c>
       <c r="M171" t="n">
-        <v>0.07469931489457926</v>
+        <v>0.08846202976308491</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1054288028284963</v>
+        <v>0.1116313778771837</v>
       </c>
       <c r="O171" t="n">
-        <v>0.0746464372457124</v>
+        <v>0.08851576367011933</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.03491634058542041</v>
+        <v>0.03415427842550685</v>
       </c>
       <c r="G172" t="n">
-        <v>0.07575622957553019</v>
+        <v>0.08963817697153237</v>
       </c>
       <c r="J172" t="n">
-        <v>0.03491634058542041</v>
+        <v>0.03415427842550685</v>
       </c>
       <c r="K172" t="n">
-        <v>0.07575622957553019</v>
+        <v>0.08963817697153237</v>
       </c>
       <c r="L172" t="n">
-        <v>0.07031062239897298</v>
+        <v>0.07067095435245549</v>
       </c>
       <c r="M172" t="n">
-        <v>0.07540402541245265</v>
+        <v>0.08929657721368005</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1087923291377717</v>
+        <v>0.1072929032061297</v>
       </c>
       <c r="O172" t="n">
-        <v>0.07535064891784177</v>
+        <v>0.08935081804436573</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.0345874142037054</v>
+        <v>0.03451350596980235</v>
       </c>
       <c r="G173" t="n">
-        <v>0.07646423172109588</v>
+        <v>0.09047591694322894</v>
       </c>
       <c r="J173" t="n">
-        <v>0.0345874142037054</v>
+        <v>0.03451350596980235</v>
       </c>
       <c r="K173" t="n">
-        <v>0.07646423172109588</v>
+        <v>0.09047591694322894</v>
       </c>
       <c r="L173" t="n">
-        <v>0.07032946955482886</v>
+        <v>0.07039949069195661</v>
       </c>
       <c r="M173" t="n">
-        <v>0.07610873593032604</v>
+        <v>0.0901311246642752</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1051210231022659</v>
+        <v>0.1063502391897733</v>
       </c>
       <c r="O173" t="n">
-        <v>0.07605486058997113</v>
+        <v>0.09018587241861216</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.0340223635758538</v>
+        <v>0.03466822772210575</v>
       </c>
       <c r="G174" t="n">
-        <v>0.07717223386666158</v>
+        <v>0.0913136569149255</v>
       </c>
       <c r="J174" t="n">
-        <v>0.0340223635758538</v>
+        <v>0.03466822772210575</v>
       </c>
       <c r="K174" t="n">
-        <v>0.07717223386666158</v>
+        <v>0.0913136569149255</v>
       </c>
       <c r="L174" t="n">
-        <v>0.07114508874236786</v>
+        <v>0.07125788702266345</v>
       </c>
       <c r="M174" t="n">
-        <v>0.07681344644819943</v>
+        <v>0.09096567211487033</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1081768613230218</v>
+        <v>0.1106949085255945</v>
       </c>
       <c r="O174" t="n">
-        <v>0.07675907226210049</v>
+        <v>0.09102092679285856</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.03412773855830145</v>
+        <v>0.03480524748915213</v>
       </c>
       <c r="G175" t="n">
-        <v>0.07788023601222729</v>
+        <v>0.09215139688662206</v>
       </c>
       <c r="J175" t="n">
-        <v>0.03412773855830145</v>
+        <v>0.03480524748915213</v>
       </c>
       <c r="K175" t="n">
-        <v>0.07788023601222729</v>
+        <v>0.09215139688662206</v>
       </c>
       <c r="L175" t="n">
-        <v>0.06949895479426654</v>
+        <v>0.07193839157450307</v>
       </c>
       <c r="M175" t="n">
-        <v>0.07751815696607282</v>
+        <v>0.09180021956546548</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1093411452442233</v>
+        <v>0.1054896280272158</v>
       </c>
       <c r="O175" t="n">
-        <v>0.07746328393422985</v>
+        <v>0.09185598116710497</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.03458270521693611</v>
+        <v>0.03467479560754351</v>
       </c>
       <c r="G176" t="n">
-        <v>0.07858823815779299</v>
+        <v>0.09298913685831862</v>
       </c>
       <c r="J176" t="n">
-        <v>0.03458270521693611</v>
+        <v>0.03467479560754351</v>
       </c>
       <c r="K176" t="n">
-        <v>0.07858823815779299</v>
+        <v>0.09298913685831862</v>
       </c>
       <c r="L176" t="n">
-        <v>0.06930435667196547</v>
+        <v>0.07269378826869663</v>
       </c>
       <c r="M176" t="n">
-        <v>0.0782228674839462</v>
+        <v>0.09263476701606062</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1089151380353984</v>
+        <v>0.1080146352709873</v>
       </c>
       <c r="O176" t="n">
-        <v>0.07816749560635922</v>
+        <v>0.09269103554135139</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.03469215253225301</v>
+        <v>0.03417888735084303</v>
       </c>
       <c r="G177" t="n">
-        <v>0.07929624030335869</v>
+        <v>0.09382687683001519</v>
       </c>
       <c r="J177" t="n">
-        <v>0.03469215253225301</v>
+        <v>0.03417888735084303</v>
       </c>
       <c r="K177" t="n">
-        <v>0.07929624030335869</v>
+        <v>0.09382687683001519</v>
       </c>
       <c r="L177" t="n">
-        <v>0.06993008708836235</v>
+        <v>0.07026493877424131</v>
       </c>
       <c r="M177" t="n">
-        <v>0.0789275780018196</v>
+        <v>0.09346931446665575</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1045324287296136</v>
+        <v>0.1063209464535324</v>
       </c>
       <c r="O177" t="n">
-        <v>0.07887170727848858</v>
+        <v>0.09352608991559778</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.03506813634884604</v>
+        <v>0.03389645073796252</v>
       </c>
       <c r="G178" t="n">
-        <v>0.0800042424489244</v>
+        <v>0.09466461680171175</v>
       </c>
       <c r="J178" t="n">
-        <v>0.03506813634884604</v>
+        <v>0.03389645073796252</v>
       </c>
       <c r="K178" t="n">
-        <v>0.0800042424489244</v>
+        <v>0.09466461680171175</v>
       </c>
       <c r="L178" t="n">
-        <v>0.07160807599162411</v>
+        <v>0.06962127628994702</v>
       </c>
       <c r="M178" t="n">
-        <v>0.07963228851969299</v>
+        <v>0.09430386191725089</v>
       </c>
       <c r="N178" t="n">
-        <v>0.1081685950691366</v>
+        <v>0.1099845705648871</v>
       </c>
       <c r="O178" t="n">
-        <v>0.07957591895061794</v>
+        <v>0.0943611442898442</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.03464779385825056</v>
+        <v>0.03403099116401788</v>
       </c>
       <c r="G179" t="n">
-        <v>0.0807122445944901</v>
+        <v>0.09550235677340832</v>
       </c>
       <c r="J179" t="n">
-        <v>0.03464779385825056</v>
+        <v>0.03403099116401788</v>
       </c>
       <c r="K179" t="n">
-        <v>0.0807122445944901</v>
+        <v>0.09550235677340832</v>
       </c>
       <c r="L179" t="n">
-        <v>0.07228805537581315</v>
+        <v>0.071493914764095</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08033699903756637</v>
+        <v>0.09513840936784604</v>
       </c>
       <c r="N179" t="n">
-        <v>0.107907085397526</v>
+        <v>0.108282137974901</v>
       </c>
       <c r="O179" t="n">
-        <v>0.0802801306227473</v>
+        <v>0.09519619866409061</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.03526553339531092</v>
+        <v>0.03441936790876295</v>
       </c>
       <c r="G180" t="n">
-        <v>0.08142024674005581</v>
+        <v>0.09634009674510488</v>
       </c>
       <c r="J180" t="n">
-        <v>0.03526553339531092</v>
+        <v>0.03441936790876295</v>
       </c>
       <c r="K180" t="n">
-        <v>0.08142024674005581</v>
+        <v>0.09634009674510488</v>
       </c>
       <c r="L180" t="n">
-        <v>0.07139437182564826</v>
+        <v>0.07323155083823912</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08104170955543977</v>
+        <v>0.09597295681844119</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1064585338626048</v>
+        <v>0.1055891320829058</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08098434229487667</v>
+        <v>0.09603125303833701</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.03469852877279721</v>
+        <v>0.03437593556083017</v>
       </c>
       <c r="G181" t="n">
-        <v>0.08212824888562151</v>
+        <v>0.09717783671680144</v>
       </c>
       <c r="J181" t="n">
-        <v>0.03469852877279721</v>
+        <v>0.03437593556083017</v>
       </c>
       <c r="K181" t="n">
-        <v>0.08212824888562151</v>
+        <v>0.09717783671680144</v>
       </c>
       <c r="L181" t="n">
-        <v>0.06922551724107201</v>
+        <v>0.06963512465241339</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08174642007331316</v>
+        <v>0.09680750426903632</v>
       </c>
       <c r="N181" t="n">
-        <v>0.1049694779529065</v>
+        <v>0.105141857047898</v>
       </c>
       <c r="O181" t="n">
-        <v>0.08168855396700603</v>
+        <v>0.09686630741258342</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.03449316937845494</v>
+        <v>0.03382536345985809</v>
       </c>
       <c r="G182" t="n">
-        <v>0.08283625103118721</v>
+        <v>0.09801557668849802</v>
       </c>
       <c r="J182" t="n">
-        <v>0.03449316937845494</v>
+        <v>0.03382536345985809</v>
       </c>
       <c r="K182" t="n">
-        <v>0.08283625103118721</v>
+        <v>0.09801557668849802</v>
       </c>
       <c r="L182" t="n">
-        <v>0.07156880722688122</v>
+        <v>0.07258989947856528</v>
       </c>
       <c r="M182" t="n">
-        <v>0.08245113059118654</v>
+        <v>0.09764205171963146</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1049039776149974</v>
+        <v>0.109519772811227</v>
       </c>
       <c r="O182" t="n">
-        <v>0.08239276563913539</v>
+        <v>0.09770136178682982</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.03485900208700166</v>
+        <v>0.03445610247020024</v>
       </c>
       <c r="G183" t="n">
-        <v>0.08354425317675292</v>
+        <v>0.09885331666019458</v>
       </c>
       <c r="J183" t="n">
-        <v>0.03485900208700166</v>
+        <v>0.03445610247020024</v>
       </c>
       <c r="K183" t="n">
-        <v>0.08354425317675292</v>
+        <v>0.09885331666019458</v>
       </c>
       <c r="L183" t="n">
-        <v>0.06923714578681806</v>
+        <v>0.07093206286581757</v>
       </c>
       <c r="M183" t="n">
-        <v>0.08315584110905994</v>
+        <v>0.09847659917022659</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1079955697376461</v>
+        <v>0.1065902979375466</v>
       </c>
       <c r="O183" t="n">
-        <v>0.08309697731126475</v>
+        <v>0.09853641616107624</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.03487303304613755</v>
+        <v>0.03382987784006358</v>
       </c>
       <c r="G184" t="n">
-        <v>0.08425225532231861</v>
+        <v>0.09969105663189114</v>
       </c>
       <c r="J184" t="n">
-        <v>0.03487303304613755</v>
+        <v>0.03382987784006358</v>
       </c>
       <c r="K184" t="n">
-        <v>0.08425225532231861</v>
+        <v>0.09969105663189114</v>
       </c>
       <c r="L184" t="n">
-        <v>0.0698064761335791</v>
+        <v>0.07298640950160268</v>
       </c>
       <c r="M184" t="n">
-        <v>0.08386055162693333</v>
+        <v>0.09931114662082174</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1058712198915212</v>
+        <v>0.10615914034679</v>
       </c>
       <c r="O184" t="n">
-        <v>0.08380118898339411</v>
+        <v>0.09937147053532265</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.03503640431004285</v>
+        <v>0.03466289712937637</v>
       </c>
       <c r="G185" t="n">
-        <v>0.08496025746788431</v>
+        <v>0.1005287966035877</v>
       </c>
       <c r="J185" t="n">
-        <v>0.03503640431004285</v>
+        <v>0.03466289712937637</v>
       </c>
       <c r="K185" t="n">
-        <v>0.08496025746788431</v>
+        <v>0.1005287966035877</v>
       </c>
       <c r="L185" t="n">
-        <v>0.07018976123277346</v>
+        <v>0.07039465793160121</v>
       </c>
       <c r="M185" t="n">
-        <v>0.08456526214480671</v>
+        <v>0.1001456940714169</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1037346653188083</v>
+        <v>0.1049510913465262</v>
       </c>
       <c r="O185" t="n">
-        <v>0.08450540065552348</v>
+        <v>0.1002065249095691</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.03474631719824367</v>
+        <v>0.03491728754961466</v>
       </c>
       <c r="G186" t="n">
-        <v>0.08566825961345002</v>
+        <v>0.1013665365752843</v>
       </c>
       <c r="J186" t="n">
-        <v>0.03474631719824367</v>
+        <v>0.03491728754961466</v>
       </c>
       <c r="K186" t="n">
-        <v>0.08566825961345002</v>
+        <v>0.1013665365752843</v>
       </c>
       <c r="L186" t="n">
-        <v>0.0692216697973192</v>
+        <v>0.07005496701573025</v>
       </c>
       <c r="M186" t="n">
-        <v>0.0852699726626801</v>
+        <v>0.100980241522012</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1091567167186328</v>
+        <v>0.1082382006012932</v>
       </c>
       <c r="O186" t="n">
-        <v>0.08520961232765284</v>
+        <v>0.1010415792838155</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.03396630170291168</v>
+        <v>0.03451884671374703</v>
       </c>
       <c r="G187" t="n">
-        <v>0.08637626175901572</v>
+        <v>0.1022042765469808</v>
       </c>
       <c r="J187" t="n">
-        <v>0.03396630170291168</v>
+        <v>0.03451884671374703</v>
       </c>
       <c r="K187" t="n">
-        <v>0.08637626175901572</v>
+        <v>0.1022042765469808</v>
       </c>
       <c r="L187" t="n">
-        <v>0.07134454053860464</v>
+        <v>0.06992259055359987</v>
       </c>
       <c r="M187" t="n">
-        <v>0.0859746831805535</v>
+        <v>0.1018147889726072</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1063443476693812</v>
+        <v>0.1086499826321162</v>
       </c>
       <c r="O187" t="n">
-        <v>0.0859138239997822</v>
+        <v>0.1018766336580619</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.03445134146985991</v>
+        <v>0.03445384920547348</v>
       </c>
       <c r="G188" t="n">
-        <v>0.08708426390458142</v>
+        <v>0.1030420165186774</v>
       </c>
       <c r="J188" t="n">
-        <v>0.03445134146985991</v>
+        <v>0.03445384920547348</v>
       </c>
       <c r="K188" t="n">
-        <v>0.08708426390458142</v>
+        <v>0.1030420165186774</v>
       </c>
       <c r="L188" t="n">
-        <v>0.07180418846502609</v>
+        <v>0.0720389482786605</v>
       </c>
       <c r="M188" t="n">
-        <v>0.08667939369842688</v>
+        <v>0.1026493364232023</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1058878069606918</v>
+        <v>0.1070233382413944</v>
       </c>
       <c r="O188" t="n">
-        <v>0.08661803567191156</v>
+        <v>0.1027116880323083</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.03425839026661441</v>
+        <v>0.03509823781958468</v>
       </c>
       <c r="G189" t="n">
-        <v>0.08779226605014713</v>
+        <v>0.103879756490374</v>
       </c>
       <c r="J189" t="n">
-        <v>0.03425839026661441</v>
+        <v>0.03509823781958468</v>
       </c>
       <c r="K189" t="n">
-        <v>0.08779226605014713</v>
+        <v>0.103879756490374</v>
       </c>
       <c r="L189" t="n">
-        <v>0.0717125666914975</v>
+        <v>0.0706319532500963</v>
       </c>
       <c r="M189" t="n">
-        <v>0.08738410421630027</v>
+        <v>0.1034838838737974</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1056448768184889</v>
+        <v>0.1059543582273452</v>
       </c>
       <c r="O189" t="n">
-        <v>0.08732224734404093</v>
+        <v>0.1035467424065547</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.03434135103146492</v>
+        <v>0.03424169692537408</v>
       </c>
       <c r="G190" t="n">
-        <v>0.08850026819571283</v>
+        <v>0.1047174964620705</v>
       </c>
       <c r="J190" t="n">
-        <v>0.03434135103146492</v>
+        <v>0.03424169692537408</v>
       </c>
       <c r="K190" t="n">
-        <v>0.08850026819571283</v>
+        <v>0.1047174964620705</v>
       </c>
       <c r="L190" t="n">
-        <v>0.0702433474102396</v>
+        <v>0.07018911423983837</v>
       </c>
       <c r="M190" t="n">
-        <v>0.08808881473417367</v>
+        <v>0.1043184313243926</v>
       </c>
       <c r="N190" t="n">
-        <v>0.1044841313858992</v>
+        <v>0.1045429692205727</v>
       </c>
       <c r="O190" t="n">
-        <v>0.08802645901617029</v>
+        <v>0.1043817967808011</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.03489611166969382</v>
+        <v>0.03417040209771732</v>
       </c>
       <c r="G191" t="n">
-        <v>0.08920827034127854</v>
+        <v>0.1055552364337671</v>
       </c>
       <c r="J191" t="n">
-        <v>0.03489611166969382</v>
+        <v>0.03417040209771732</v>
       </c>
       <c r="K191" t="n">
-        <v>0.08920827034127854</v>
+        <v>0.1055552364337671</v>
       </c>
       <c r="L191" t="n">
-        <v>0.06943190163377752</v>
+        <v>0.0712259727851306</v>
       </c>
       <c r="M191" t="n">
-        <v>0.08879352525204705</v>
+        <v>0.1051529787749877</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1029607309237742</v>
+        <v>0.1059802311946538</v>
       </c>
       <c r="O191" t="n">
-        <v>0.08873067068829965</v>
+        <v>0.1052168511550475</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.03446145884627233</v>
+        <v>0.03370999687118002</v>
       </c>
       <c r="G192" t="n">
-        <v>0.08991627248684424</v>
+        <v>0.1063929764054637</v>
       </c>
       <c r="J192" t="n">
-        <v>0.03446145884627233</v>
+        <v>0.03370999687118002</v>
       </c>
       <c r="K192" t="n">
-        <v>0.08991627248684424</v>
+        <v>0.1063929764054637</v>
       </c>
       <c r="L192" t="n">
-        <v>0.06912499710609527</v>
+        <v>0.06981921695536475</v>
       </c>
       <c r="M192" t="n">
-        <v>0.08949823576992044</v>
+        <v>0.1059875262255829</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1058491491200323</v>
+        <v>0.1055551429142109</v>
       </c>
       <c r="O192" t="n">
-        <v>0.08943488236042901</v>
+        <v>0.1060519055292939</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.03431494672079788</v>
+        <v>0.03349270900667493</v>
       </c>
       <c r="G193" t="n">
-        <v>0.09062427463240993</v>
+        <v>0.1072307163771602</v>
       </c>
       <c r="J193" t="n">
-        <v>0.03431494672079788</v>
+        <v>0.03349270900667493</v>
       </c>
       <c r="K193" t="n">
-        <v>0.09062427463240993</v>
+        <v>0.1072307163771602</v>
       </c>
       <c r="L193" t="n">
-        <v>0.07059020884466549</v>
+        <v>0.07173145548157353</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09020294628779384</v>
+        <v>0.106822073676178</v>
       </c>
       <c r="N193" t="n">
-        <v>0.1033533211612537</v>
+        <v>0.1094820624092253</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09013909403255838</v>
+        <v>0.1068869599035403</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.03422533957793515</v>
+        <v>0.03401206182214382</v>
       </c>
       <c r="G194" t="n">
-        <v>0.09133227677797565</v>
+        <v>0.1080684563488568</v>
       </c>
       <c r="J194" t="n">
-        <v>0.03422533957793515</v>
+        <v>0.03401206182214382</v>
       </c>
       <c r="K194" t="n">
-        <v>0.09133227677797565</v>
+        <v>0.1080684563488568</v>
       </c>
       <c r="L194" t="n">
-        <v>0.07026001486068426</v>
+        <v>0.07058898386287168</v>
       </c>
       <c r="M194" t="n">
-        <v>0.09090765680566722</v>
+        <v>0.1076566211267731</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1020182804287788</v>
+        <v>0.1069706554573236</v>
       </c>
       <c r="O194" t="n">
-        <v>0.09084330570468774</v>
+        <v>0.1077220142777867</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.03339968824473365</v>
+        <v>0.03500382762028949</v>
       </c>
       <c r="G195" t="n">
-        <v>0.09204027892354134</v>
+        <v>0.1089061963205533</v>
       </c>
       <c r="J195" t="n">
-        <v>0.03339968824473365</v>
+        <v>0.03500382762028949</v>
       </c>
       <c r="K195" t="n">
-        <v>0.09204027892354134</v>
+        <v>0.1089061963205533</v>
       </c>
       <c r="L195" t="n">
-        <v>0.07205563254887143</v>
+        <v>0.06998573060047922</v>
       </c>
       <c r="M195" t="n">
-        <v>0.09161236732354061</v>
+        <v>0.1084911685773683</v>
       </c>
       <c r="N195" t="n">
-        <v>0.1019980651631565</v>
+        <v>0.1056900688156561</v>
       </c>
       <c r="O195" t="n">
-        <v>0.0915475173768171</v>
+        <v>0.1085570686520331</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.03346014678952816</v>
+        <v>0.03388615424391773</v>
       </c>
       <c r="G196" t="n">
-        <v>0.09274828106910704</v>
+        <v>0.1097439362922499</v>
       </c>
       <c r="J196" t="n">
-        <v>0.03346014678952816</v>
+        <v>0.03388615424391773</v>
       </c>
       <c r="K196" t="n">
-        <v>0.09274828106910704</v>
+        <v>0.1097439362922499</v>
       </c>
       <c r="L196" t="n">
-        <v>0.07079555778845739</v>
+        <v>0.06985106812234582</v>
       </c>
       <c r="M196" t="n">
-        <v>0.09231707784141401</v>
+        <v>0.1093257160279634</v>
       </c>
       <c r="N196" t="n">
-        <v>0.1051480937328579</v>
+        <v>0.1081257126436191</v>
       </c>
       <c r="O196" t="n">
-        <v>0.09225172904894646</v>
+        <v>0.1093921230262796</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.03399455431974864</v>
+        <v>0.03463878018668616</v>
       </c>
       <c r="G197" t="n">
-        <v>0.09345628321467275</v>
+        <v>0.1105816762639465</v>
       </c>
       <c r="J197" t="n">
-        <v>0.03399455431974864</v>
+        <v>0.03463878018668616</v>
       </c>
       <c r="K197" t="n">
-        <v>0.09345628321467275</v>
+        <v>0.1105816762639465</v>
       </c>
       <c r="L197" t="n">
-        <v>0.06937105737130153</v>
+        <v>0.0687383602218947</v>
       </c>
       <c r="M197" t="n">
-        <v>0.09302178835928739</v>
+        <v>0.1101602634785586</v>
       </c>
       <c r="N197" t="n">
-        <v>0.1008931772493672</v>
+        <v>0.1106735831860481</v>
       </c>
       <c r="O197" t="n">
-        <v>0.09295594072107582</v>
+        <v>0.110227177400526</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.034197910413932</v>
+        <v>0.03496676578874175</v>
       </c>
       <c r="G198" t="n">
-        <v>0.09416428536023845</v>
+        <v>0.111419416235643</v>
       </c>
       <c r="J198" t="n">
-        <v>0.034197910413932</v>
+        <v>0.03496676578874175</v>
       </c>
       <c r="K198" t="n">
-        <v>0.09416428536023845</v>
+        <v>0.111419416235643</v>
       </c>
       <c r="L198" t="n">
-        <v>0.0705219917127454</v>
+        <v>0.07187688008012652</v>
       </c>
       <c r="M198" t="n">
-        <v>0.09372649887716078</v>
+        <v>0.1109948109291537</v>
       </c>
       <c r="N198" t="n">
-        <v>0.1058239205195274</v>
+        <v>0.1042953032538826</v>
       </c>
       <c r="O198" t="n">
-        <v>0.09366015239320519</v>
+        <v>0.1110622317747724</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.03299366521691051</v>
+        <v>0.03492680385778076</v>
       </c>
       <c r="G199" t="n">
-        <v>0.09487228750580416</v>
+        <v>0.1122571562073396</v>
       </c>
       <c r="J199" t="n">
-        <v>0.03299366521691051</v>
+        <v>0.03492680385778076</v>
       </c>
       <c r="K199" t="n">
-        <v>0.09487228750580416</v>
+        <v>0.1122571562073396</v>
       </c>
       <c r="L199" t="n">
-        <v>0.06901954686791467</v>
+        <v>0.07048940205134166</v>
       </c>
       <c r="M199" t="n">
-        <v>0.09443120939503417</v>
+        <v>0.1118293583797489</v>
       </c>
       <c r="N199" t="n">
-        <v>0.1013107624932825</v>
+        <v>0.1097263287833221</v>
       </c>
       <c r="O199" t="n">
-        <v>0.09436436406533455</v>
+        <v>0.1118972861490188</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.03356436179377041</v>
+        <v>0.0342446149501332</v>
       </c>
       <c r="G200" t="n">
-        <v>0.09558028965136986</v>
+        <v>0.1130948961790362</v>
       </c>
       <c r="J200" t="n">
-        <v>0.03356436179377041</v>
+        <v>0.0342446149501332</v>
       </c>
       <c r="K200" t="n">
-        <v>0.09558028965136986</v>
+        <v>0.1130948961790362</v>
       </c>
       <c r="L200" t="n">
-        <v>0.0691877628285863</v>
+        <v>0.07137751065575579</v>
       </c>
       <c r="M200" t="n">
-        <v>0.09513591991290755</v>
+        <v>0.112663905830344</v>
       </c>
       <c r="N200" t="n">
-        <v>0.09996477232808015</v>
+        <v>0.106197494989872</v>
       </c>
       <c r="O200" t="n">
-        <v>0.09506857573746391</v>
+        <v>0.1127323405232652</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.032725083551241</v>
+        <v>0.03449605110107358</v>
       </c>
       <c r="G201" t="n">
-        <v>0.09628829179693556</v>
+        <v>0.1139326361507327</v>
       </c>
       <c r="J201" t="n">
-        <v>0.032725083551241</v>
+        <v>0.03449605110107358</v>
       </c>
       <c r="K201" t="n">
-        <v>0.09628829179693556</v>
+        <v>0.1139326361507327</v>
       </c>
       <c r="L201" t="n">
-        <v>0.06933048733823891</v>
+        <v>0.07212491491223053</v>
       </c>
       <c r="M201" t="n">
-        <v>0.09584063043078095</v>
+        <v>0.1134984532809391</v>
       </c>
       <c r="N201" t="n">
-        <v>0.1032872901260162</v>
+        <v>0.1052161995240294</v>
       </c>
       <c r="O201" t="n">
-        <v>0.09577278740959327</v>
+        <v>0.1135673948975116</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.03274960873294316</v>
+        <v>0.03363246788981206</v>
       </c>
       <c r="G202" t="n">
-        <v>0.09699629394250127</v>
+        <v>0.1147703761224293</v>
       </c>
       <c r="J202" t="n">
-        <v>0.03274960873294316</v>
+        <v>0.03363246788981206</v>
       </c>
       <c r="K202" t="n">
-        <v>0.09699629394250127</v>
+        <v>0.1147703761224293</v>
       </c>
       <c r="L202" t="n">
-        <v>0.0701846105601118</v>
+        <v>0.06891348247935775</v>
       </c>
       <c r="M202" t="n">
-        <v>0.09654534094865434</v>
+        <v>0.1143330007315343</v>
       </c>
       <c r="N202" t="n">
-        <v>0.1008652037348557</v>
+        <v>0.1038343058659129</v>
       </c>
       <c r="O202" t="n">
-        <v>0.09647699908172264</v>
+        <v>0.114402449271758</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.03259579331059181</v>
+        <v>0.03488593098451351</v>
       </c>
       <c r="G203" t="n">
-        <v>0.09770429608806697</v>
+        <v>0.1156081160941259</v>
       </c>
       <c r="J203" t="n">
-        <v>0.03259579331059181</v>
+        <v>0.03488593098451351</v>
       </c>
       <c r="K203" t="n">
-        <v>0.09770429608806697</v>
+        <v>0.1156081160941259</v>
       </c>
       <c r="L203" t="n">
-        <v>0.07089441205034766</v>
+        <v>0.06957030188984933</v>
       </c>
       <c r="M203" t="n">
-        <v>0.09725005146652772</v>
+        <v>0.1151675481821294</v>
       </c>
       <c r="N203" t="n">
-        <v>0.09981018022682386</v>
+        <v>0.1040465502458804</v>
       </c>
       <c r="O203" t="n">
-        <v>0.097181210753852</v>
+        <v>0.1152375036460044</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.03230653440239399</v>
+        <v>0.03414337602478787</v>
       </c>
       <c r="G204" t="n">
-        <v>0.09841229823363266</v>
+        <v>0.1164458560658224</v>
       </c>
       <c r="J204" t="n">
-        <v>0.03230653440239399</v>
+        <v>0.03414337602478787</v>
       </c>
       <c r="K204" t="n">
-        <v>0.09841229823363266</v>
+        <v>0.1164458560658224</v>
       </c>
       <c r="L204" t="n">
-        <v>0.06909389682660702</v>
+        <v>0.06883595844277365</v>
       </c>
       <c r="M204" t="n">
-        <v>0.09795476198440112</v>
+        <v>0.1160020956327246</v>
       </c>
       <c r="N204" t="n">
-        <v>0.09905895922503621</v>
+        <v>0.1037883052563633</v>
       </c>
       <c r="O204" t="n">
-        <v>0.09788542242598136</v>
+        <v>0.1160725580202508</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.03306467041072969</v>
+        <v>0.03402048314359814</v>
       </c>
       <c r="G205" t="n">
-        <v>0.09912030037919838</v>
+        <v>0.117283596037519</v>
       </c>
       <c r="J205" t="n">
-        <v>0.03306467041072969</v>
+        <v>0.03402048314359814</v>
       </c>
       <c r="K205" t="n">
-        <v>0.09912030037919838</v>
+        <v>0.117283596037519</v>
       </c>
       <c r="L205" t="n">
-        <v>0.07115804178736143</v>
+        <v>0.06951688090989672</v>
       </c>
       <c r="M205" t="n">
-        <v>0.09865947250227451</v>
+        <v>0.1168366430833197</v>
       </c>
       <c r="N205" t="n">
-        <v>0.09890257894584009</v>
+        <v>0.1031503707196421</v>
       </c>
       <c r="O205" t="n">
-        <v>0.09858963409811072</v>
+        <v>0.1169076123944972</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.03212737462898228</v>
+        <v>0.03426433959192653</v>
       </c>
       <c r="G206" t="n">
-        <v>0.09982830252476407</v>
+        <v>0.1181213360092156</v>
       </c>
       <c r="J206" t="n">
-        <v>0.03212737462898228</v>
+        <v>0.03426433959192653</v>
       </c>
       <c r="K206" t="n">
-        <v>0.09982830252476407</v>
+        <v>0.1181213360092156</v>
       </c>
       <c r="L206" t="n">
-        <v>0.06897351604707702</v>
+        <v>0.06936394714827768</v>
       </c>
       <c r="M206" t="n">
-        <v>0.09936418302014789</v>
+        <v>0.1176711905339148</v>
       </c>
       <c r="N206" t="n">
-        <v>0.1034700461036199</v>
+        <v>0.1065296178807008</v>
       </c>
       <c r="O206" t="n">
-        <v>0.09929384577024009</v>
+        <v>0.1177426667687436</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.03224786168342914</v>
+        <v>0.03347639515526933</v>
       </c>
       <c r="G207" t="n">
-        <v>0.1005363046703298</v>
+        <v>0.1189590759809121</v>
       </c>
       <c r="J207" t="n">
-        <v>0.03224786168342914</v>
+        <v>0.03347639515526933</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1005363046703298</v>
+        <v>0.1189590759809121</v>
       </c>
       <c r="L207" t="n">
-        <v>0.06967207783581816</v>
+        <v>0.07099173474232118</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1000688935380213</v>
+        <v>0.11850573798451</v>
       </c>
       <c r="N207" t="n">
-        <v>0.1026650828466246</v>
+        <v>0.1066417077149517</v>
       </c>
       <c r="O207" t="n">
-        <v>0.09999805744236945</v>
+        <v>0.1185777211429901</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.03253710473186706</v>
+        <v>0.03440466960048158</v>
       </c>
       <c r="G208" t="n">
-        <v>0.1012443068158955</v>
+        <v>0.1197968159526087</v>
       </c>
       <c r="J208" t="n">
-        <v>0.03253710473186706</v>
+        <v>0.03440466960048158</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1012443068158955</v>
+        <v>0.1197968159526087</v>
       </c>
       <c r="L208" t="n">
-        <v>0.06994089135159279</v>
+        <v>0.0704708094064605</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1007736040558947</v>
+        <v>0.1193402854351051</v>
       </c>
       <c r="N208" t="n">
-        <v>0.1020331695245257</v>
+        <v>0.1077476775422468</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1007022691144988</v>
+        <v>0.1194127755172365</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.03318062849185768</v>
+        <v>0.0336244284806005</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1019523089614612</v>
+        <v>0.1206345559243052</v>
       </c>
       <c r="J209" t="n">
-        <v>0.03318062849185768</v>
+        <v>0.0336244284806005</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1019523089614612</v>
+        <v>0.1206345559243052</v>
       </c>
       <c r="L209" t="n">
-        <v>0.07030738052749963</v>
+        <v>0.06864137667770975</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1014783145737681</v>
+        <v>0.1201748328857003</v>
       </c>
       <c r="N209" t="n">
-        <v>0.09919020274866919</v>
+        <v>0.1075243693483352</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1014064807866282</v>
+        <v>0.1202478298914829</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.03221258175148517</v>
+        <v>0.03356363195879894</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1026603111070269</v>
+        <v>0.1214722958960018</v>
       </c>
       <c r="J210" t="n">
-        <v>0.03221258175148517</v>
+        <v>0.03356363195879894</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1026603111070269</v>
+        <v>0.1214722958960018</v>
       </c>
       <c r="L210" t="n">
-        <v>0.06886425068682858</v>
+        <v>0.07237732991614929</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1021830250916415</v>
+        <v>0.1210093803362954</v>
       </c>
       <c r="N210" t="n">
-        <v>0.1028440960516227</v>
+        <v>0.1097728423419693</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1021106924587575</v>
+        <v>0.1210828842657293</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.0323880986453608</v>
+        <v>0.03349648007348813</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1033683132525926</v>
+        <v>0.1223100358676984</v>
       </c>
       <c r="J211" t="n">
-        <v>0.0323880986453608</v>
+        <v>0.03349648007348813</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1033683132525926</v>
+        <v>0.1223100358676984</v>
       </c>
       <c r="L211" t="n">
-        <v>0.0699364060332465</v>
+        <v>0.06821102713544344</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1028877356095148</v>
+        <v>0.1218439277868905</v>
       </c>
       <c r="N211" t="n">
-        <v>0.1003902827272233</v>
+        <v>0.1048423107967875</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1028149041308869</v>
+        <v>0.1219179386399757</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.03177727918292574</v>
+        <v>0.03463761177667364</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1040763153981583</v>
+        <v>0.1231477758393949</v>
       </c>
       <c r="J212" t="n">
-        <v>0.03177727918292574</v>
+        <v>0.03463761177667364</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1040763153981583</v>
+        <v>0.1231477758393949</v>
       </c>
       <c r="L212" t="n">
-        <v>0.0691536795481808</v>
+        <v>0.06894451521748293</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1035924461273882</v>
+        <v>0.1226784752374857</v>
       </c>
       <c r="N212" t="n">
-        <v>0.1022326471749076</v>
+        <v>0.1082940849821962</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1035191158030163</v>
+        <v>0.1227529930142221</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.03312200177496583</v>
+        <v>0.03339573263020165</v>
       </c>
       <c r="G213" t="n">
-        <v>0.104784317543724</v>
+        <v>0.1239855158110915</v>
       </c>
       <c r="J213" t="n">
-        <v>0.03312200177496583</v>
+        <v>0.03339573263020165</v>
       </c>
       <c r="K213" t="n">
-        <v>0.104784317543724</v>
+        <v>0.1239855158110915</v>
       </c>
       <c r="L213" t="n">
-        <v>0.07015099481836551</v>
+        <v>0.06838244912589508</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1042971566452616</v>
+        <v>0.1235130226880808</v>
       </c>
       <c r="N213" t="n">
-        <v>0.09847249300477007</v>
+        <v>0.1079808846071684</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1042233274751456</v>
+        <v>0.1235880473884685</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.03282928260076373</v>
+        <v>0.03434477778291617</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1054923196892897</v>
+        <v>0.1248232557827881</v>
       </c>
       <c r="J214" t="n">
-        <v>0.03282928260076373</v>
+        <v>0.03434477778291617</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1054923196892897</v>
+        <v>0.1248232557827881</v>
       </c>
       <c r="L214" t="n">
-        <v>0.06961443110724222</v>
+        <v>0.07007038982999553</v>
       </c>
       <c r="M214" t="n">
-        <v>0.105001867163135</v>
+        <v>0.124347570138676</v>
       </c>
       <c r="N214" t="n">
-        <v>0.1024311934938757</v>
+        <v>0.1085720891270196</v>
       </c>
       <c r="O214" t="n">
-        <v>0.104927539147275</v>
+        <v>0.1244231017627149</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.03297149231831756</v>
+        <v>0.0346527585838259</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1062003218348554</v>
+        <v>0.1256609957544846</v>
       </c>
       <c r="J215" t="n">
-        <v>0.03297149231831756</v>
+        <v>0.0346527585838259</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1062003218348554</v>
+        <v>0.1256609957544846</v>
       </c>
       <c r="L215" t="n">
-        <v>0.07009434390498157</v>
+        <v>0.06830627836354913</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1057065776810084</v>
+        <v>0.1251821175892711</v>
       </c>
       <c r="N215" t="n">
-        <v>0.0997098966338546</v>
+        <v>0.1057291650898107</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1056317508194043</v>
+        <v>0.1252581561369613</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.0329745417905844</v>
+        <v>0.03460332402907823</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1069083239804211</v>
+        <v>0.1264987357261812</v>
       </c>
       <c r="J216" t="n">
-        <v>0.0329745417905844</v>
+        <v>0.03460332402907823</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1069083239804211</v>
+        <v>0.1264987357261812</v>
       </c>
       <c r="L216" t="n">
-        <v>0.06792333181548113</v>
+        <v>0.07020609965485988</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1064112881988818</v>
+        <v>0.1260166650398662</v>
       </c>
       <c r="N216" t="n">
-        <v>0.100341307476721</v>
+        <v>0.1094281620999105</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1063359624915337</v>
+        <v>0.1260932105112077</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.03322966158160985</v>
+        <v>0.03363907857274143</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1076163261259868</v>
+        <v>0.1273364756978778</v>
       </c>
       <c r="J217" t="n">
-        <v>0.03322966158160985</v>
+        <v>0.03363907857274143</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1076163261259868</v>
+        <v>0.1273364756978778</v>
       </c>
       <c r="L217" t="n">
-        <v>0.06996063602355754</v>
+        <v>0.0702445888745194</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1071159987167552</v>
+        <v>0.1268512124904614</v>
       </c>
       <c r="N217" t="n">
-        <v>0.1018747814859267</v>
+        <v>0.1037421307496152</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1070401741636631</v>
+        <v>0.1269282648854541</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.03323502048442317</v>
+        <v>0.03417883533777284</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1083243282715525</v>
+        <v>0.1281742156695743</v>
       </c>
       <c r="J218" t="n">
-        <v>0.03323502048442317</v>
+        <v>0.03417883533777284</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1083243282715525</v>
+        <v>0.1281742156695743</v>
       </c>
       <c r="L218" t="n">
-        <v>0.06959125008078182</v>
+        <v>0.0681288151833972</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1078207092346286</v>
+        <v>0.1276857599410565</v>
       </c>
       <c r="N218" t="n">
-        <v>0.1030229556562648</v>
+        <v>0.1032145895915815</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1077443858357924</v>
+        <v>0.1277633192597005</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.03254839497803842</v>
+        <v>0.03297105083429309</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1090323304171182</v>
+        <v>0.1290119556412709</v>
       </c>
       <c r="J219" t="n">
-        <v>0.03254839497803842</v>
+        <v>0.03297105083429309</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1090323304171182</v>
+        <v>0.1290119556412709</v>
       </c>
       <c r="L219" t="n">
-        <v>0.06918661973944365</v>
+        <v>0.07162252938737845</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1085254197525019</v>
+        <v>0.1285203073916517</v>
       </c>
       <c r="N219" t="n">
-        <v>0.0981098972012277</v>
+        <v>0.1063292534560663</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1084485975079218</v>
+        <v>0.128598373633947</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.0327657977139612</v>
+        <v>0.03311528942081028</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1097403325626839</v>
+        <v>0.1298496956129674</v>
       </c>
       <c r="J220" t="n">
-        <v>0.0327657977139612</v>
+        <v>0.03311528942081028</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1097403325626839</v>
+        <v>0.1298496956129674</v>
       </c>
       <c r="L220" t="n">
-        <v>0.07019445031607274</v>
+        <v>0.07161142498875045</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1092301302703754</v>
+        <v>0.1293548548422468</v>
       </c>
       <c r="N220" t="n">
-        <v>0.09970600300579441</v>
+        <v>0.1098756929817827</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1091528091800512</v>
+        <v>0.1294334280081934</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.03283005169265651</v>
+        <v>0.03403893061307263</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1104483347082496</v>
+        <v>0.130687435584664</v>
       </c>
       <c r="J221" t="n">
-        <v>0.03283005169265651</v>
+        <v>0.03403893061307263</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1104483347082496</v>
+        <v>0.130687435584664</v>
       </c>
       <c r="L221" t="n">
-        <v>0.07150204075189617</v>
+        <v>0.07063164283823345</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1099348407882487</v>
+        <v>0.130189402292842</v>
       </c>
       <c r="N221" t="n">
-        <v>0.09862874061379928</v>
+        <v>0.1020266068582732</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1098570208521805</v>
+        <v>0.1302684823824398</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.03275556069651801</v>
+        <v>0.0336606947632121</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1111563368538153</v>
+        <v>0.1315251755563606</v>
       </c>
       <c r="J222" t="n">
-        <v>0.03275556069651801</v>
+        <v>0.0336606947632121</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1111563368538153</v>
+        <v>0.1315251755563606</v>
       </c>
       <c r="L222" t="n">
-        <v>0.0704684199908612</v>
+        <v>0.06874010772076386</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1106395513061221</v>
+        <v>0.1310239497434371</v>
       </c>
       <c r="N222" t="n">
-        <v>0.1019817756220993</v>
+        <v>0.1051839236520163</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1105612325243099</v>
+        <v>0.1311035367566862</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.0329928608946885</v>
+        <v>0.0344919242851954</v>
       </c>
       <c r="G223" t="n">
-        <v>0.111864338999381</v>
+        <v>0.1323629155280572</v>
       </c>
       <c r="J223" t="n">
-        <v>0.0329928608946885</v>
+        <v>0.0344919242851954</v>
       </c>
       <c r="K223" t="n">
-        <v>0.111864338999381</v>
+        <v>0.1323629155280572</v>
       </c>
       <c r="L223" t="n">
-        <v>0.0687535639744298</v>
+        <v>0.06891738177613305</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1113442618239955</v>
+        <v>0.1318584971940322</v>
       </c>
       <c r="N223" t="n">
-        <v>0.1032058753514233</v>
+        <v>0.1036361395649825</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1112654441964392</v>
+        <v>0.1319385911309326</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.03297922357628134</v>
+        <v>0.0337783237741405</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1125723411449467</v>
+        <v>0.1332006554997537</v>
       </c>
       <c r="J224" t="n">
-        <v>0.03297922357628134</v>
+        <v>0.0337783237741405</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1125723411449467</v>
+        <v>0.1332006554997537</v>
       </c>
       <c r="L224" t="n">
-        <v>0.07089798560500427</v>
+        <v>0.0708678209307132</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1120489723418689</v>
+        <v>0.1326930446446274</v>
       </c>
       <c r="N224" t="n">
-        <v>0.100537869479199</v>
+        <v>0.1064268862568352</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1119696558685686</v>
+        <v>0.132773645505179</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.03296516733065853</v>
+        <v>0.03423769224865622</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1132803432905124</v>
+        <v>0.1340383954714503</v>
       </c>
       <c r="J225" t="n">
-        <v>0.03296516733065853</v>
+        <v>0.03423769224865622</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1132803432905124</v>
+        <v>0.1340383954714503</v>
       </c>
       <c r="L225" t="n">
-        <v>0.06907982958829767</v>
+        <v>0.06892027062577696</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1127536828597423</v>
+        <v>0.1335275920952225</v>
       </c>
       <c r="N225" t="n">
-        <v>0.103427913014948</v>
+        <v>0.1078945831517691</v>
       </c>
       <c r="O225" t="n">
-        <v>0.112673867540698</v>
+        <v>0.1336086998794254</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.03339627806027431</v>
+        <v>0.03320159788502243</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1139883454360781</v>
+        <v>0.1348761354431468</v>
       </c>
       <c r="J226" t="n">
-        <v>0.03339627806027431</v>
+        <v>0.03320159788502243</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1139883454360781</v>
+        <v>0.1348761354431468</v>
       </c>
       <c r="L226" t="n">
-        <v>0.07074898268402011</v>
+        <v>0.06754245888689697</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1134583933776157</v>
+        <v>0.1343621395458177</v>
       </c>
       <c r="N226" t="n">
-        <v>0.1002299688176893</v>
+        <v>0.1090055032263312</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1133780792128273</v>
+        <v>0.1344437542536718</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.03342691476480686</v>
+        <v>0.0342899423909695</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1146963475816438</v>
+        <v>0.1357138754148434</v>
       </c>
       <c r="J227" t="n">
-        <v>0.03342691476480686</v>
+        <v>0.0342899423909695</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1146963475816438</v>
+        <v>0.1357138754148434</v>
       </c>
       <c r="L227" t="n">
-        <v>0.06880401503134831</v>
+        <v>0.06933691208481352</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1141631038954891</v>
+        <v>0.1351966869964128</v>
       </c>
       <c r="N227" t="n">
-        <v>0.09994607959304969</v>
+        <v>0.1038694237951064</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1140822908849567</v>
+        <v>0.1352788086279182</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.03333775673833092</v>
+        <v>0.03392599584819153</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1154043497272095</v>
+        <v>0.13655161538654</v>
       </c>
       <c r="J228" t="n">
-        <v>0.03333775673833092</v>
+        <v>0.03392599584819153</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1154043497272095</v>
+        <v>0.13655161538654</v>
       </c>
       <c r="L228" t="n">
-        <v>0.07022193699976922</v>
+        <v>0.06715412360355394</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1148678144133625</v>
+        <v>0.1360312344470079</v>
       </c>
       <c r="N228" t="n">
-        <v>0.1022493413991641</v>
+        <v>0.1081797343398603</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1147865025570861</v>
+        <v>0.1361138630021646</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.03384044077219367</v>
+        <v>0.03423318235179652</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1161123518727752</v>
+        <v>0.1373893553582365</v>
       </c>
       <c r="J229" t="n">
-        <v>0.03384044077219367</v>
+        <v>0.03423318235179652</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1161123518727752</v>
+        <v>0.1373893553582365</v>
       </c>
       <c r="L229" t="n">
-        <v>0.06924219958829059</v>
+        <v>0.06909313999000985</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1155725249312359</v>
+        <v>0.1368657818976031</v>
       </c>
       <c r="N229" t="n">
-        <v>0.1031756850882565</v>
+        <v>0.1087737093976331</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1154907142292154</v>
+        <v>0.136948917376411</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.03453118638086818</v>
+        <v>0.03391037146747831</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1168203540183409</v>
+        <v>0.1382270953299331</v>
       </c>
       <c r="J230" t="n">
-        <v>0.03453118638086818</v>
+        <v>0.03391037146747831</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1168203540183409</v>
+        <v>0.1382270953299331</v>
       </c>
       <c r="L230" t="n">
-        <v>0.06866045452888975</v>
+        <v>0.06787066495846666</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1162772354491092</v>
+        <v>0.1377003293481982</v>
       </c>
       <c r="N230" t="n">
-        <v>0.1005214577003247</v>
+        <v>0.1024273540554418</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1161949259013448</v>
+        <v>0.1377839717506575</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.03354767499516227</v>
+        <v>0.03338620251533619</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1175283561639066</v>
+        <v>0.1390648353016297</v>
       </c>
       <c r="J231" t="n">
-        <v>0.03354767499516227</v>
+        <v>0.03338620251533619</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1175283561639066</v>
+        <v>0.1390648353016297</v>
       </c>
       <c r="L231" t="n">
-        <v>0.07060351141287455</v>
+        <v>0.06863697076847272</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1169819459669826</v>
+        <v>0.1385348767987934</v>
       </c>
       <c r="N231" t="n">
-        <v>0.1019693841227723</v>
+        <v>0.1034173314243039</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1168991375734741</v>
+        <v>0.1386190261249039</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.03410691286808265</v>
+        <v>0.03345711131121666</v>
       </c>
       <c r="G232" t="n">
-        <v>0.1182363583094724</v>
+        <v>0.1399025752733262</v>
       </c>
       <c r="J232" t="n">
-        <v>0.03410691286808265</v>
+        <v>0.03345711131121666</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1182363583094724</v>
+        <v>0.1399025752733262</v>
       </c>
       <c r="L232" t="n">
-        <v>0.06795032767339912</v>
+        <v>0.07061718597664429</v>
       </c>
       <c r="M232" t="n">
-        <v>0.117686656484856</v>
+        <v>0.1393694242493885</v>
       </c>
       <c r="N232" t="n">
-        <v>0.1018111498795313</v>
+        <v>0.1081018584725085</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1176033492456035</v>
+        <v>0.1394540804991503</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.03339569194007727</v>
+        <v>0.03416374004203258</v>
       </c>
       <c r="G233" t="n">
-        <v>0.118944360455038</v>
+        <v>0.1407403152450228</v>
       </c>
       <c r="J233" t="n">
-        <v>0.03339569194007727</v>
+        <v>0.03416374004203258</v>
       </c>
       <c r="K233" t="n">
-        <v>0.118944360455038</v>
+        <v>0.1407403152450228</v>
       </c>
       <c r="L233" t="n">
-        <v>0.06879201395164561</v>
+        <v>0.06905118812047528</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1183913670027294</v>
+        <v>0.1402039716999836</v>
       </c>
       <c r="N233" t="n">
-        <v>0.1025325390628784</v>
+        <v>0.1052628165750782</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1183075609177329</v>
+        <v>0.1402891348733967</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.03352762153358971</v>
+        <v>0.03403190115147565</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1196523626006037</v>
+        <v>0.1415780552167193</v>
       </c>
       <c r="J234" t="n">
-        <v>0.03352762153358971</v>
+        <v>0.03403190115147565</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1196523626006037</v>
+        <v>0.1415780552167193</v>
       </c>
       <c r="L234" t="n">
-        <v>0.06877504724351163</v>
+        <v>0.06975536767906101</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1190960775206028</v>
+        <v>0.1410385191505788</v>
       </c>
       <c r="N234" t="n">
-        <v>0.1020237333242768</v>
+        <v>0.1037000653010138</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1190117725898622</v>
+        <v>0.1411241892476431</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.03455520415513703</v>
+        <v>0.03352200811161857</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1203603647461694</v>
+        <v>0.1424157951884159</v>
       </c>
       <c r="J235" t="n">
-        <v>0.03455520415513703</v>
+        <v>0.03352200811161857</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1203603647461694</v>
+        <v>0.1424157951884159</v>
       </c>
       <c r="L235" t="n">
-        <v>0.06996563131164371</v>
+        <v>0.06771574151651541</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1198007880384762</v>
+        <v>0.1418730666011739</v>
       </c>
       <c r="N235" t="n">
-        <v>0.104330473928378</v>
+        <v>0.1071793950070187</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1197159842619916</v>
+        <v>0.1419592436218895</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.03369683525013542</v>
+        <v>0.03351513763181861</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1210683668917352</v>
+        <v>0.1432535351601125</v>
       </c>
       <c r="J236" t="n">
-        <v>0.03369683525013542</v>
+        <v>0.03351513763181861</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1210683668917352</v>
+        <v>0.1432535351601125</v>
       </c>
       <c r="L236" t="n">
-        <v>0.07076946113049751</v>
+        <v>0.0675942343132262</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1205054985563496</v>
+        <v>0.142707614051769</v>
       </c>
       <c r="N236" t="n">
-        <v>0.1010888775725167</v>
+        <v>0.1022663137871835</v>
       </c>
       <c r="O236" t="n">
-        <v>0.120420195934121</v>
+        <v>0.1427942979961359</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.03407816233957157</v>
+        <v>0.03323257647965326</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1217763690373009</v>
+        <v>0.1440912751318091</v>
       </c>
       <c r="J237" t="n">
-        <v>0.03407816233957157</v>
+        <v>0.03323257647965326</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1217763690373009</v>
+        <v>0.1440912751318091</v>
       </c>
       <c r="L237" t="n">
-        <v>0.06944724803594551</v>
+        <v>0.06743063502997021</v>
       </c>
       <c r="M237" t="n">
-        <v>0.121210209074223</v>
+        <v>0.1435421615023642</v>
       </c>
       <c r="N237" t="n">
-        <v>0.1039693266432257</v>
+        <v>0.1037790437729346</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1211244076062503</v>
+        <v>0.1436293523703823</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.03420725893979977</v>
+        <v>0.03294850886299666</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1224843711828666</v>
+        <v>0.1449290151035056</v>
       </c>
       <c r="J238" t="n">
-        <v>0.03420725893979977</v>
+        <v>0.03294850886299666</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1224843711828666</v>
+        <v>0.1449290151035056</v>
       </c>
       <c r="L238" t="n">
-        <v>0.06991034259705686</v>
+        <v>0.06802802928629401</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1219149195920963</v>
+        <v>0.1443767089529593</v>
       </c>
       <c r="N238" t="n">
-        <v>0.1024378317889423</v>
+        <v>0.1022833206933166</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1218286192783797</v>
+        <v>0.1444644067446287</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.03449939179583374</v>
+        <v>0.03341666621966807</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1231923733284322</v>
+        <v>0.1457667550752022</v>
       </c>
       <c r="J239" t="n">
-        <v>0.03449939179583374</v>
+        <v>0.03341666621966807</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1231923733284322</v>
+        <v>0.1457667550752022</v>
       </c>
       <c r="L239" t="n">
-        <v>0.06879785407004799</v>
+        <v>0.0668613954127027</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1226196301099697</v>
+        <v>0.1452112564035545</v>
       </c>
       <c r="N239" t="n">
-        <v>0.1035400115881149</v>
+        <v>0.1017834990179083</v>
       </c>
       <c r="O239" t="n">
-        <v>0.122532830950509</v>
+        <v>0.1452994611188751</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.03422850670762964</v>
+        <v>0.03272376139837682</v>
       </c>
       <c r="G240" t="n">
-        <v>0.123900375473998</v>
+        <v>0.1466044950468987</v>
       </c>
       <c r="J240" t="n">
-        <v>0.03422850670762964</v>
+        <v>0.03272376139837682</v>
       </c>
       <c r="K240" t="n">
-        <v>0.123900375473998</v>
+        <v>0.1466044950468987</v>
       </c>
       <c r="L240" t="n">
-        <v>0.0698934954430106</v>
+        <v>0.06680500408057377</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1233243406278431</v>
+        <v>0.1460458038541496</v>
       </c>
       <c r="N240" t="n">
-        <v>0.1039280123227387</v>
+        <v>0.1060445235553452</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1232370426226384</v>
+        <v>0.1461345154931215</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.03448662052548626</v>
+        <v>0.03284012764230461</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1246083776195637</v>
+        <v>0.1474422350185953</v>
       </c>
       <c r="J241" t="n">
-        <v>0.03448662052548626</v>
+        <v>0.03284012764230461</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1246083776195637</v>
+        <v>0.1474422350185953</v>
       </c>
       <c r="L241" t="n">
-        <v>0.06782780696681792</v>
+        <v>0.07007354389742806</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1240290511457165</v>
+        <v>0.1468803513047447</v>
       </c>
       <c r="N241" t="n">
-        <v>0.1032066499545952</v>
+        <v>0.1028826192298596</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1239412542947678</v>
+        <v>0.1469695698673679</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.03371749121481298</v>
+        <v>0.03296419971076425</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1253163797651294</v>
+        <v>0.1482799749902919</v>
       </c>
       <c r="J242" t="n">
-        <v>0.03371749121481298</v>
+        <v>0.03296419971076425</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1253163797651294</v>
+        <v>0.1482799749902919</v>
       </c>
       <c r="L242" t="n">
-        <v>0.06903142255012282</v>
+        <v>0.06791289758546976</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1247337616635899</v>
+        <v>0.1477148987553399</v>
       </c>
       <c r="N242" t="n">
-        <v>0.1044452957846538</v>
+        <v>0.1034223434546377</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1246454659668971</v>
+        <v>0.1478046242416144</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.03384535447704964</v>
+        <v>0.03297941809706958</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1260243819106951</v>
+        <v>0.1491177149619884</v>
       </c>
       <c r="J243" t="n">
-        <v>0.03384535447704964</v>
+        <v>0.03297941809706958</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1260243819106951</v>
+        <v>0.1491177149619884</v>
       </c>
       <c r="L243" t="n">
-        <v>0.06987625245453413</v>
+        <v>0.0664999916811255</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1254384721814633</v>
+        <v>0.148549446205935</v>
       </c>
       <c r="N243" t="n">
-        <v>0.1018405264367884</v>
+        <v>0.1002438975110688</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1253496776390265</v>
+        <v>0.1486396786158608</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.034462628079467</v>
+        <v>0.03291930412063863</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1267323840562608</v>
+        <v>0.149955454933685</v>
       </c>
       <c r="J244" t="n">
-        <v>0.034462628079467</v>
+        <v>0.03291930412063863</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1267323840562608</v>
+        <v>0.149955454933685</v>
       </c>
       <c r="L244" t="n">
-        <v>0.06869939605269981</v>
+        <v>0.06632507543191044</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1261431826993367</v>
+        <v>0.1493839936565302</v>
       </c>
       <c r="N244" t="n">
-        <v>0.1047912612042615</v>
+        <v>0.1021184056738995</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1260538893111559</v>
+        <v>0.1494747329901072</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.03454134920754152</v>
+        <v>0.03345875042040834</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1274403862018265</v>
+        <v>0.1507931949053816</v>
       </c>
       <c r="J245" t="n">
-        <v>0.03454134920754152</v>
+        <v>0.03345875042040834</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1274403862018265</v>
+        <v>0.1507931949053816</v>
       </c>
       <c r="L245" t="n">
-        <v>0.06830643600150463</v>
+        <v>0.06764909893576324</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1268478932172101</v>
+        <v>0.1502185411071253</v>
       </c>
       <c r="N245" t="n">
-        <v>0.1015962231073524</v>
+        <v>0.106448443501709</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1267581009832852</v>
+        <v>0.1503097873643536</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.03373469505992872</v>
+        <v>0.03261462442673253</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1281483883473922</v>
+        <v>0.1516309348770781</v>
       </c>
       <c r="J246" t="n">
-        <v>0.03373469505992872</v>
+        <v>0.03261462442673253</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1281483883473922</v>
+        <v>0.1516309348770781</v>
       </c>
       <c r="L246" t="n">
-        <v>0.0691448927603133</v>
+        <v>0.06767216418395808</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1275526037350835</v>
+        <v>0.1510530885577205</v>
       </c>
       <c r="N246" t="n">
-        <v>0.1023536131955002</v>
+        <v>0.1027081902052563</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1274623126554146</v>
+        <v>0.1511448417386</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.03444598073427586</v>
+        <v>0.0326950432117606</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1288563904929579</v>
+        <v>0.1524686748487747</v>
       </c>
       <c r="J247" t="n">
-        <v>0.03444598073427586</v>
+        <v>0.0326950432117606</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1288563904929579</v>
+        <v>0.1524686748487747</v>
       </c>
       <c r="L247" t="n">
-        <v>0.06998086874069273</v>
+        <v>0.06974211380611001</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1282573142529568</v>
+        <v>0.1518876360083156</v>
       </c>
       <c r="N247" t="n">
-        <v>0.1015235464072907</v>
+        <v>0.1002427929452277</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1281665243275439</v>
+        <v>0.1519798961128464</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.03447670231157984</v>
+        <v>0.03384872172019887</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1295643926385236</v>
+        <v>0.1533064148204712</v>
       </c>
       <c r="J248" t="n">
-        <v>0.03447670231157984</v>
+        <v>0.03384872172019887</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1295643926385236</v>
+        <v>0.1533064148204712</v>
       </c>
       <c r="L248" t="n">
-        <v>0.06908393265301849</v>
+        <v>0.06698884940381267</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1289620247708302</v>
+        <v>0.1527221834589108</v>
       </c>
       <c r="N248" t="n">
-        <v>0.1049231345913193</v>
+        <v>0.1021517032600838</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1288707359996733</v>
+        <v>0.1528149504870928</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.03443850697842113</v>
+        <v>0.03348638187373805</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1302723947840893</v>
+        <v>0.1541441547921678</v>
       </c>
       <c r="J249" t="n">
-        <v>0.03443850697842113</v>
+        <v>0.03348638187373805</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1302723947840893</v>
+        <v>0.1541441547921678</v>
       </c>
       <c r="L249" t="n">
-        <v>0.06769692256936771</v>
+        <v>0.06596368576531322</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1296667352887036</v>
+        <v>0.1535567309095059</v>
       </c>
       <c r="N249" t="n">
-        <v>0.1008733372495985</v>
+        <v>0.103314390472486</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1295749476718027</v>
+        <v>0.1536500048613392</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.03428800832077324</v>
+        <v>0.03244264542641216</v>
       </c>
       <c r="G250" t="n">
-        <v>0.130980396929655</v>
+        <v>0.1549818947638644</v>
       </c>
       <c r="J250" t="n">
-        <v>0.03428800832077324</v>
+        <v>0.03244264542641216</v>
       </c>
       <c r="K250" t="n">
-        <v>0.130980396929655</v>
+        <v>0.1549818947638644</v>
       </c>
       <c r="L250" t="n">
-        <v>0.07035334588279302</v>
+        <v>0.06630570528310736</v>
       </c>
       <c r="M250" t="n">
-        <v>0.130371445806577</v>
+        <v>0.154391278360101</v>
       </c>
       <c r="N250" t="n">
-        <v>0.1017748030743241</v>
+        <v>0.1012767688658951</v>
       </c>
       <c r="O250" t="n">
-        <v>0.130279159343932</v>
+        <v>0.1544850592355856</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.03394558613015332</v>
+        <v>0.03261307640641795</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1316883990752207</v>
+        <v>0.1558196347355609</v>
       </c>
       <c r="J251" t="n">
-        <v>0.03394558613015332</v>
+        <v>0.03261307640641795</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1316883990752207</v>
+        <v>0.1558196347355609</v>
       </c>
       <c r="L251" t="n">
-        <v>0.06884878638922914</v>
+        <v>0.06739087470435437</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1310761563244504</v>
+        <v>0.1552258258106962</v>
       </c>
       <c r="N251" t="n">
-        <v>0.09931391474888457</v>
+        <v>0.1020026982955575</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1309833710160614</v>
+        <v>0.155320113609832</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.03392668685335871</v>
+        <v>0.03350543098499216</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1323964012207864</v>
+        <v>0.1566573747072575</v>
       </c>
       <c r="J252" t="n">
-        <v>0.03392668685335871</v>
+        <v>0.03350543098499216</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1323964012207864</v>
+        <v>0.1566573747072575</v>
       </c>
       <c r="L252" t="n">
-        <v>0.06806406760841008</v>
+        <v>0.0696724532061716</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1317808668423238</v>
+        <v>0.1560603732612913</v>
       </c>
       <c r="N252" t="n">
-        <v>0.1018428264718145</v>
+        <v>0.1008299139787662</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1316875826881908</v>
+        <v>0.1561551679840785</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.03369805573567335</v>
+        <v>0.03237977071126753</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1331044033663521</v>
+        <v>0.1574951146789541</v>
       </c>
       <c r="J253" t="n">
-        <v>0.03369805573567335</v>
+        <v>0.03237977071126753</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1331044033663521</v>
+        <v>0.1574951146789541</v>
       </c>
       <c r="L253" t="n">
-        <v>0.06819516221776456</v>
+        <v>0.06786614724900311</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1324855773601972</v>
+        <v>0.1568949207118865</v>
       </c>
       <c r="N253" t="n">
-        <v>0.1020789385998265</v>
+        <v>0.09904005104950281</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1323917943603201</v>
+        <v>0.1569902223583249</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.03399948068550693</v>
+        <v>0.03381851375418757</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1338124055119178</v>
+        <v>0.1583328546506506</v>
       </c>
       <c r="J254" t="n">
-        <v>0.03399948068550693</v>
+        <v>0.03381851375418757</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1338124055119178</v>
+        <v>0.1583328546506506</v>
       </c>
       <c r="L254" t="n">
-        <v>0.06683245132187088</v>
+        <v>0.06685271419506247</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1331902878780706</v>
+        <v>0.1577294681624816</v>
       </c>
       <c r="N254" t="n">
-        <v>0.1009544489782633</v>
+        <v>0.105321735981185</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1330960060324495</v>
+        <v>0.1578252767325713</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.03306296283713746</v>
+        <v>0.03212789924800356</v>
       </c>
       <c r="G255" t="n">
-        <v>0.1345204076574835</v>
+        <v>0.1591705946223472</v>
       </c>
       <c r="J255" t="n">
-        <v>0.03306296283713746</v>
+        <v>0.03212789924800356</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1345204076574835</v>
+        <v>0.1591705946223472</v>
       </c>
       <c r="L255" t="n">
-        <v>0.06835759878031558</v>
+        <v>0.06678939350775076</v>
       </c>
       <c r="M255" t="n">
-        <v>0.133894998395944</v>
+        <v>0.1585640156130767</v>
       </c>
       <c r="N255" t="n">
-        <v>0.1028094519761649</v>
+        <v>0.1036229001394712</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1338002177045788</v>
+        <v>0.1586603311068177</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.03399440378592085</v>
+        <v>0.03309936003528033</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1352284098030492</v>
+        <v>0.1600083345940438</v>
       </c>
       <c r="J256" t="n">
-        <v>0.03399440378592085</v>
+        <v>0.03309936003528033</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1352284098030492</v>
+        <v>0.1600083345940438</v>
       </c>
       <c r="L256" t="n">
-        <v>0.06734731677809136</v>
+        <v>0.0684219661935187</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1345997089138173</v>
+        <v>0.1593985630636719</v>
       </c>
       <c r="N256" t="n">
-        <v>0.1009464574818786</v>
+        <v>0.09999555917104591</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1345044293767082</v>
+        <v>0.1594953854810641</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.03338626481672935</v>
+        <v>0.03238103126888139</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1359364119486149</v>
+        <v>0.1608460745657403</v>
       </c>
       <c r="J257" t="n">
-        <v>0.03338626481672935</v>
+        <v>0.03238103126888139</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1359364119486149</v>
+        <v>0.1608460745657403</v>
       </c>
       <c r="L257" t="n">
-        <v>0.06756302347389267</v>
+        <v>0.06883116015099008</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1353044194316907</v>
+        <v>0.160233110514267</v>
       </c>
       <c r="N257" t="n">
-        <v>0.1028249888282503</v>
+        <v>0.1033583398134898</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1352086410488376</v>
+        <v>0.1603304398553105</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.03270809411076016</v>
+        <v>0.0322246958578508</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1366444140941806</v>
+        <v>0.1616838145374369</v>
       </c>
       <c r="J258" t="n">
-        <v>0.03270809411076016</v>
+        <v>0.0322246958578508</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1366444140941806</v>
+        <v>0.1616838145374369</v>
       </c>
       <c r="L258" t="n">
-        <v>0.06944964888270394</v>
+        <v>0.06628070187087806</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1360091299495641</v>
+        <v>0.1610676579648621</v>
       </c>
       <c r="N258" t="n">
-        <v>0.09851087008131587</v>
+        <v>0.1034385729887938</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1359128527209669</v>
+        <v>0.1611654942295569</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.0329119159770635</v>
+        <v>0.03252344152918957</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1373524162397463</v>
+        <v>0.1625215545091334</v>
       </c>
       <c r="J259" t="n">
-        <v>0.0329119159770635</v>
+        <v>0.03252344152918957</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1373524162397463</v>
+        <v>0.1625215545091334</v>
       </c>
       <c r="L259" t="n">
-        <v>0.06876049873056975</v>
+        <v>0.06850034072875755</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1367138404674375</v>
+        <v>0.1619022054154573</v>
       </c>
       <c r="N259" t="n">
-        <v>0.100579792658352</v>
+        <v>0.09902555701384352</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1366170643930963</v>
+        <v>0.1620005486038033</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.03363716317346116</v>
+        <v>0.0330456074309091</v>
       </c>
       <c r="G260" t="n">
-        <v>0.138060418385312</v>
+        <v>0.16335929448083</v>
       </c>
       <c r="J260" t="n">
-        <v>0.03363716317346116</v>
+        <v>0.0330456074309091</v>
       </c>
       <c r="K260" t="n">
-        <v>0.138060418385312</v>
+        <v>0.16335929448083</v>
       </c>
       <c r="L260" t="n">
-        <v>0.06780829982748832</v>
+        <v>0.06632886908641003</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1374185509853109</v>
+        <v>0.1627367528660524</v>
       </c>
       <c r="N260" t="n">
-        <v>0.1017449240957712</v>
+        <v>0.1044892230433621</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1373212760652257</v>
+        <v>0.1628356029780497</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.03290406140795277</v>
+        <v>0.0324195410486513</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1387684205308777</v>
+        <v>0.1641970344525266</v>
       </c>
       <c r="J261" t="n">
-        <v>0.03290406140795277</v>
+        <v>0.0324195410486513</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1387684205308777</v>
+        <v>0.1641970344525266</v>
       </c>
       <c r="L261" t="n">
-        <v>0.06794369295860336</v>
+        <v>0.06678890406186533</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1381232615031843</v>
+        <v>0.1635713003166476</v>
       </c>
       <c r="N261" t="n">
-        <v>0.1023356464821997</v>
+        <v>0.1019903399137944</v>
       </c>
       <c r="O261" t="n">
-        <v>0.138025487737355</v>
+        <v>0.1636706573522961</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.03339307910017154</v>
+        <v>0.03325491624590415</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1394764226764434</v>
+        <v>0.1650347744242232</v>
       </c>
       <c r="J262" t="n">
-        <v>0.03339307910017154</v>
+        <v>0.03325491624590415</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1394764226764434</v>
+        <v>0.1650347744242232</v>
       </c>
       <c r="L262" t="n">
-        <v>0.06902831936841364</v>
+        <v>0.06526153923549827</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1388279720210577</v>
+        <v>0.1644058477672427</v>
       </c>
       <c r="N262" t="n">
-        <v>0.1014857109275936</v>
+        <v>0.0982012110430423</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1387296994094844</v>
+        <v>0.1645057117265425</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.03282706992276611</v>
+        <v>0.03287454860208314</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1401844248220091</v>
+        <v>0.1658725143959197</v>
       </c>
       <c r="J263" t="n">
-        <v>0.03282706992276611</v>
+        <v>0.03287454860208314</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1401844248220091</v>
+        <v>0.1658725143959197</v>
       </c>
       <c r="L263" t="n">
-        <v>0.06812819695486425</v>
+        <v>0.06622872084933576</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1395326825389311</v>
+        <v>0.1652403952178379</v>
       </c>
       <c r="N263" t="n">
-        <v>0.09906159175450646</v>
+        <v>0.1016279123758849</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1394339110816137</v>
+        <v>0.165340766100789</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.03304699090567824</v>
+        <v>0.03219606639040606</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1408924269675748</v>
+        <v>0.1667102543676163</v>
       </c>
       <c r="J264" t="n">
-        <v>0.03304699090567824</v>
+        <v>0.03219606639040606</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1408924269675748</v>
+        <v>0.1667102543676163</v>
       </c>
       <c r="L264" t="n">
-        <v>0.06721349148964018</v>
+        <v>0.06633041929619102</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1402373930568045</v>
+        <v>0.166074942668433</v>
       </c>
       <c r="N264" t="n">
-        <v>0.0993515603099574</v>
+        <v>0.1015003394558566</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1401381227537431</v>
+        <v>0.1661758204750353</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1"/>

--- a/prot/356379915/ООО Регионстрой/Трехосные_КД_ПП/1064.xlsx
+++ b/prot/356379915/ООО Регионстрой/Трехосные_КД_ПП/1064.xlsx
@@ -4882,7 +4882,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A65" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="S81" sqref="S81"/>
@@ -8809,7 +8809,7 @@
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
       <c r="J51" s="144" t="n">
-        <v>0.06746816462443581</v>
+        <v>0.1006139320975862</v>
       </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
@@ -9256,10 +9256,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.0174681646244358</v>
+        <v>0.05061393209758616</v>
       </c>
       <c r="B65" t="n">
-        <v>0.001746803361320112</v>
+        <v>0.005061355249309544</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9274,29 +9274,29 @@
         <v/>
       </c>
       <c r="F65" s="170" t="n">
-        <v>-0.0004249999999999948</v>
+        <v>0</v>
       </c>
       <c r="G65" s="171" t="n">
         <v>0</v>
       </c>
       <c r="H65" s="171" t="n"/>
       <c r="J65" s="170" t="n">
-        <v>-0.0004249999999999948</v>
+        <v>-1.500000000000112e-05</v>
       </c>
       <c r="K65" s="171" t="n">
         <v>0</v>
       </c>
       <c r="L65" s="172" t="n">
-        <v>0.01656579597595667</v>
+        <v>-0.000120000000000009</v>
       </c>
       <c r="M65" s="170" t="n">
-        <v>0.000340857443055285</v>
+        <v>0</v>
       </c>
       <c r="N65" s="171" t="n">
-        <v>-0.002024999999999999</v>
+        <v>0.02618737693009343</v>
       </c>
       <c r="O65" s="172" t="n">
-        <v>0</v>
+        <v>0.0003263200065391459</v>
       </c>
       <c r="Q65" s="151" t="inlineStr">
         <is>
@@ -9316,29 +9316,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.00698726584977432</v>
+        <v>0.009534698318798336</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0004658142296853631</v>
+        <v>0.0005561715176697933</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.00698726584977432</v>
+        <v>0.008908763958462261</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0004658142296853631</v>
+        <v>0.0005939131428488382</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.03601259994773187</v>
+        <v>0.01800629997386594</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.001111491662136798</v>
+        <v>0.00043025483695618</v>
       </c>
       <c r="N66" s="171" t="n">
         <v>0.05455703527102795</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.001212369468739187</v>
+        <v>0.00101975002043483</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9356,10 +9356,10 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.0174681646244358</v>
+        <v>0.01816121240506933</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001746803361320112</v>
+        <v>0.001112343035339587</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
@@ -9369,16 +9369,16 @@
         <v>0.001746803361320112</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.03631487312928858</v>
+        <v>0.03601259994773187</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001669094901190281</v>
+        <v>0.00129076451086854</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.05545666794946019</v>
+        <v>0.05443608685903922</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001670108748492818</v>
+        <v>0.001668172874640513</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9398,29 +9398,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.0178940440402925</v>
+        <v>0.02530696604879308</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002513219915089693</v>
+        <v>0.001687118416436514</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.0178940440402925</v>
+        <v>0.01863371456604891</v>
       </c>
       <c r="K68" s="171" t="n">
         <v>0.002513219915089693</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.03799017567575694</v>
+        <v>0.03739582085396786</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002503642351785422</v>
+        <v>0.002506344957545197</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.05730702653858843</v>
+        <v>0.06174360030843379</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002505163122739226</v>
+        <v>0.002502259311960769</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9445,29 +9445,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.01966851512556532</v>
+        <v>0.0308831288469745</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003350959886786257</v>
+        <v>0.002224686070679173</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.01966851512556532</v>
+        <v>0.01986464625796766</v>
       </c>
       <c r="K69" s="171" t="n">
         <v>0.003350959886786257</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.04289477888759383</v>
+        <v>0.04248367559119798</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003338189802380563</v>
+        <v>0.003341793276726929</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.0611894006977805</v>
+        <v>0.06123006095612732</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003340217496985635</v>
+        <v>0.003336345749281025</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9482,62 +9482,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.0004658142296853631</v>
+        <v>0.001687118416436514</v>
       </c>
       <c r="B70" t="n">
-        <v>0.00698726584977432</v>
+        <v>0.02530696604879308</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.02120281874444475</v>
+        <v>0.03644359093644176</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.004188699858482821</v>
+        <v>0.002780857588348967</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.02120281874444475</v>
+        <v>0.01984892222635146</v>
       </c>
       <c r="K70" s="171" t="n">
         <v>0.004188699858482821</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.04476165243905306</v>
+        <v>0.04145428111612073</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.004172737252975703</v>
+        <v>0.004177241595908661</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.06434317871328338</v>
+        <v>0.06858796079572788</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.004175271871232044</v>
+        <v>0.004170432186601281</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.02139461315076521</v>
+        <v>0.04149206577244127</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.005026439830179385</v>
+        <v>0.00333702910601876</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.02139461315076521</v>
+        <v>0.02172139808924169</v>
       </c>
       <c r="K71" s="171" t="n">
         <v>0.005026439830179385</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.0462403008514034</v>
+        <v>0.04353433672654558</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.005007284703570844</v>
+        <v>0.005012689915090393</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.06919137923328023</v>
+        <v>0.06823091711182488</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.005010326245478453</v>
+        <v>0.005004518623921538</v>
       </c>
     </row>
     <row r="72">
@@ -9552,29 +9552,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.02244939683003268</v>
+        <v>0.04572541325551524</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005864179801875949</v>
+        <v>0.003893200623688553</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.02244939683003268</v>
+        <v>0.02163014378387643</v>
       </c>
       <c r="K72" s="171" t="n">
         <v>0.005864179801875949</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.04801613991476125</v>
+        <v>0.04532793990763967</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005841832154165985</v>
+        <v>0.005848138234272125</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.07322191187516303</v>
+        <v>0.0698341908607597</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005845380619724862</v>
+        <v>0.005838605061241795</v>
       </c>
     </row>
     <row r="73">
@@ -9598,29 +9598,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.02217618238353206</v>
+        <v>0.04884049328620589</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.006701919773572514</v>
+        <v>0.004449372141358346</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.02217618238353206</v>
+        <v>0.0229868983936201</v>
       </c>
       <c r="K73" s="171" t="n">
         <v>0.006701919773572514</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.04948898353957992</v>
+        <v>0.04816771002239911</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006676379604761125</v>
+        <v>0.006683586553453857</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.07244373399277526</v>
+        <v>0.07190055344474466</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006680434993971271</v>
+        <v>0.006672691498562051</v>
       </c>
     </row>
     <row r="74">
@@ -9635,29 +9635,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.02398068548000692</v>
+        <v>0.05061393209758616</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.007539659745269077</v>
+        <v>0.005061355249309544</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.02398068548000692</v>
+        <v>0.02346912005155205</v>
       </c>
       <c r="K74" s="171" t="n">
         <v>0.007539659745269077</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.05033454741846743</v>
+        <v>0.04891438514663143</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.007510927055356267</v>
+        <v>0.00751903487263559</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.0732331244648699</v>
+        <v>0.07729659187674609</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.00751548936821768</v>
+        <v>0.007506777935882307</v>
       </c>
     </row>
     <row r="75">
@@ -9679,29 +9679,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.02469603581605902</v>
+        <v>0.05124516877195633</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.008377399716965642</v>
+        <v>0.005561715176697933</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.02469603581605902</v>
+        <v>0.02465846082359537</v>
       </c>
       <c r="K75" s="171" t="n">
         <v>0.008377399716965642</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.05088027703281978</v>
+        <v>0.0513298705685428</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.008345474505951406</v>
+        <v>0.008354483191817322</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.0757695666075906</v>
+        <v>0.07612416645844206</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.008350543742464089</v>
+        <v>0.008340864373202563</v>
       </c>
     </row>
     <row r="76">
@@ -9721,29 +9721,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.02509303817234759</v>
+        <v>0.05193486225656946</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.009215139688662208</v>
+        <v>0.006117886694367726</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.02509303817234759</v>
+        <v>0.02518492383519359</v>
       </c>
       <c r="K76" s="171" t="n">
         <v>0.009215139688662208</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.05059016443609865</v>
+        <v>0.0534953677369685</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.009180021956546547</v>
+        <v>0.009189931510999054</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.079573624300598</v>
+        <v>0.07652134965314084</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.009185598116710497</v>
+        <v>0.00917495081052282</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9758,28 +9758,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.02499769242270408</v>
+        <v>0.05261207473045341</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01005287966035877</v>
+        <v>0.00667405821203752</v>
       </c>
       <c r="J77" t="n">
-        <v>0.02499769242270408</v>
+        <v>0.02528846947169665</v>
       </c>
       <c r="K77" t="n">
         <v>0.01005287966035877</v>
       </c>
       <c r="L77" t="n">
-        <v>0.05145228351970663</v>
+        <v>0.05119359282267477</v>
       </c>
       <c r="M77" t="n">
-        <v>0.01001456940714169</v>
+        <v>0.01002537983018079</v>
       </c>
       <c r="N77" t="n">
-        <v>0.07892544165351928</v>
+        <v>0.08037531732663694</v>
       </c>
       <c r="O77" t="n">
-        <v>0.01002065249095691</v>
+        <v>0.01000903724784308</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9798,28 +9798,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.02560808248723052</v>
+        <v>0.05327691334593873</v>
       </c>
       <c r="G78" t="n">
-        <v>0.01089061963205533</v>
+        <v>0.007230229729707312</v>
       </c>
       <c r="J78" t="n">
-        <v>0.02560808248723052</v>
+        <v>0.02607203955760368</v>
       </c>
       <c r="K78" t="n">
         <v>0.01089061963205533</v>
       </c>
       <c r="L78" t="n">
-        <v>0.05548925099457949</v>
+        <v>0.05402453876860747</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01084911685773683</v>
+        <v>0.01086082814936252</v>
       </c>
       <c r="N78" t="n">
-        <v>0.08194990712479772</v>
+        <v>0.08465358176919108</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01085570686520331</v>
+        <v>0.01084312368516333</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9840,28 +9840,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.02549826369532376</v>
+        <v>0.05392948525535586</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0117283596037519</v>
+        <v>0.007786401247377107</v>
       </c>
       <c r="J79" t="n">
-        <v>0.02549826369532376</v>
+        <v>0.02581526488346465</v>
       </c>
       <c r="K79" t="n">
         <v>0.0117283596037519</v>
       </c>
       <c r="L79" t="n">
-        <v>0.0543207125394152</v>
+        <v>0.05344044110474608</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01168366430833197</v>
+        <v>0.01169627646854425</v>
       </c>
       <c r="N79" t="n">
-        <v>0.08158621296657781</v>
+        <v>0.08157193297742826</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01169076123944972</v>
+        <v>0.01167721012248359</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9871,28 +9871,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.02682757126108172</v>
+        <v>0.05456989761103528</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01256609957544846</v>
+        <v>0.0083425727650469</v>
       </c>
       <c r="J80" t="n">
-        <v>0.02682757126108172</v>
+        <v>0.02635939909896867</v>
       </c>
       <c r="K80" t="n">
         <v>0.01256609957544846</v>
       </c>
       <c r="L80" t="n">
-        <v>0.0572614029395167</v>
+        <v>0.05446187521890439</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01251821175892711</v>
+        <v>0.01253172478772598</v>
       </c>
       <c r="N80" t="n">
-        <v>0.08201627569574022</v>
+        <v>0.0806425145822105</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01252581561369613</v>
+        <v>0.01251129655980385</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9908,28 +9908,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.02630509379556879</v>
+        <v>0.0551982575653075</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01340383954714503</v>
+        <v>0.008898744282716692</v>
       </c>
       <c r="J81" t="n">
-        <v>0.02630509379556879</v>
+        <v>0.02636702556645497</v>
       </c>
       <c r="K81" t="n">
         <v>0.01340383954714503</v>
       </c>
       <c r="L81" t="n">
-        <v>0.05539633438200559</v>
+        <v>0.05555318849595017</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01335275920952225</v>
+        <v>0.01336717310690771</v>
       </c>
       <c r="N81" t="n">
-        <v>0.08594107423287373</v>
+        <v>0.08541966471156853</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01336086998794254</v>
+        <v>0.0133453829971241</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9942,28 +9942,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.02676052696367032</v>
+        <v>0.05581467227050298</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01424157951884159</v>
+        <v>0.009454915800386486</v>
       </c>
       <c r="J82" t="n">
-        <v>0.02676052696367032</v>
+        <v>0.02738801468820891</v>
       </c>
       <c r="K82" t="n">
         <v>0.01424157951884159</v>
       </c>
       <c r="L82" t="n">
-        <v>0.0568064545012647</v>
+        <v>0.05678993799082108</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01418730666011739</v>
+        <v>0.01420262142608945</v>
       </c>
       <c r="N82" t="n">
-        <v>0.08628922356128504</v>
+        <v>0.08779510893909848</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01419592436218895</v>
+        <v>0.01417946943444436</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9973,28 +9973,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.02712368144121299</v>
+        <v>0.05641924887895221</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01507931949053815</v>
+        <v>0.01001108731805628</v>
       </c>
       <c r="J83" t="n">
-        <v>0.02712368144121299</v>
+        <v>0.02715332937255108</v>
       </c>
       <c r="K83" t="n">
         <v>0.01507931949053815</v>
       </c>
       <c r="L83" t="n">
-        <v>0.05557213692223736</v>
+        <v>0.05675359173715533</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01502185411071253</v>
+        <v>0.01503806974527118</v>
       </c>
       <c r="N83" t="n">
-        <v>0.08472626865800809</v>
+        <v>0.08614462656073874</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01503097873643536</v>
+        <v>0.01501355587176461</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10009,28 +10009,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.02763084885420017</v>
+        <v>0.05701209454298568</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01591705946223472</v>
+        <v>0.01056725883572607</v>
       </c>
       <c r="J84" t="n">
-        <v>0.02763084885420017</v>
+        <v>0.0277811555161479</v>
       </c>
       <c r="K84" t="n">
         <v>0.01591705946223472</v>
       </c>
       <c r="L84" t="n">
-        <v>0.05751122490872909</v>
+        <v>0.05708160096486517</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01585640156130767</v>
+        <v>0.01587351806445291</v>
       </c>
       <c r="N84" t="n">
-        <v>0.08937188468490909</v>
+        <v>0.0885389366031768</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01586603311068177</v>
+        <v>0.01584764230908487</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10049,28 +10049,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.02831197516742562</v>
+        <v>0.05759331641493387</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01675479943393128</v>
+        <v>0.01112343035339587</v>
       </c>
       <c r="J85" t="n">
-        <v>0.02831197516742562</v>
+        <v>0.02815830802076577</v>
       </c>
       <c r="K85" t="n">
         <v>0.01675479943393128</v>
       </c>
       <c r="L85" t="n">
-        <v>0.05560113444309789</v>
+        <v>0.05836303644670301</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01669094901190281</v>
+        <v>0.01670896638363464</v>
       </c>
       <c r="N85" t="n">
-        <v>0.0903035782083807</v>
+        <v>0.08957916791290027</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01670108748492818</v>
+        <v>0.01668172874640513</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10091,28 +10091,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.02868721671544358</v>
+        <v>0.05816302164712729</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01759253940562785</v>
+        <v>0.01167960187106566</v>
       </c>
       <c r="J86" t="n">
-        <v>0.02868721671544358</v>
+        <v>0.02849327831797417</v>
       </c>
       <c r="K86" t="n">
         <v>0.01759253940562785</v>
       </c>
       <c r="L86" t="n">
-        <v>0.05775736754873592</v>
+        <v>0.0565338119684248</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01752549646249795</v>
+        <v>0.01754441470281638</v>
       </c>
       <c r="N86" t="n">
-        <v>0.08796269130045697</v>
+        <v>0.08592408148106856</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01753614185917458</v>
+        <v>0.01751581518372539</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10122,28 +10122,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02795538652087912</v>
+        <v>0.0587213173918964</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01843027937732442</v>
+        <v>0.01223577338873545</v>
       </c>
       <c r="J87" t="n">
-        <v>0.02795538652087912</v>
+        <v>0.02817537672169798</v>
       </c>
       <c r="K87" t="n">
         <v>0.01843027937732442</v>
       </c>
       <c r="L87" t="n">
-        <v>0.05716825759930239</v>
+        <v>0.05892613937064448</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01836004391309309</v>
+        <v>0.01837986302199811</v>
       </c>
       <c r="N87" t="n">
-        <v>0.08749701487014649</v>
+        <v>0.09162816716228533</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01837119623342099</v>
+        <v>0.01834990162104564</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10157,28 +10157,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.02855825699962594</v>
+        <v>0.0592683108015717</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01926801934902098</v>
+        <v>0.01279194490640525</v>
       </c>
       <c r="J88" t="n">
-        <v>0.02855825699962594</v>
+        <v>0.02876920861673428</v>
       </c>
       <c r="K88" t="n">
         <v>0.01926801934902098</v>
       </c>
       <c r="L88" t="n">
-        <v>0.06038242463194393</v>
+        <v>0.05743643351275857</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01919459136368824</v>
+        <v>0.01921531134117984</v>
       </c>
       <c r="N88" t="n">
-        <v>0.09129509018216675</v>
+        <v>0.08757226578751293</v>
       </c>
       <c r="O88" t="n">
-        <v>0.0192062506076674</v>
+        <v>0.0191839880583659</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10191,4780 +10191,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.02814699749344349</v>
+        <v>0.05980410902848367</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02010575932071754</v>
+        <v>0.01334811642407504</v>
       </c>
       <c r="J89" t="n">
-        <v>0.02814699749344349</v>
+        <v>0.02835412698078041</v>
       </c>
       <c r="K89" t="n">
         <v>0.02010575932071754</v>
       </c>
       <c r="L89" t="n">
-        <v>0.05745100599419073</v>
+        <v>0.06035264185641387</v>
       </c>
       <c r="M89" t="n">
-        <v>0.02002913881428338</v>
+        <v>0.02005075966036157</v>
       </c>
       <c r="N89" t="n">
-        <v>0.0877822518318308</v>
+        <v>0.0925900530288794</v>
       </c>
       <c r="O89" t="n">
-        <v>0.02004130498191381</v>
+        <v>0.02001807449568615</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.0290463110239728</v>
+        <v>0.06032881922496279</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0209434992924141</v>
+        <v>0.01390428794174483</v>
       </c>
       <c r="J90" t="n">
-        <v>0.0290463110239728</v>
+        <v>0.02798626537358249</v>
       </c>
       <c r="K90" t="n">
         <v>0.0209434992924141</v>
       </c>
       <c r="L90" t="n">
-        <v>0.06102085579945984</v>
+        <v>0.05808768112602927</v>
       </c>
       <c r="M90" t="n">
-        <v>0.02086368626487852</v>
+        <v>0.0208862079795433</v>
       </c>
       <c r="N90" t="n">
-        <v>0.09257549357667133</v>
+        <v>0.0896486647511926</v>
       </c>
       <c r="O90" t="n">
-        <v>0.02087635935616022</v>
+        <v>0.02085216093300641</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.02876660500391125</v>
+        <v>0.06084254854333954</v>
       </c>
       <c r="G91" t="n">
-        <v>0.02178123926411067</v>
+        <v>0.01446045945941462</v>
       </c>
       <c r="J91" t="n">
-        <v>0.02876660500391125</v>
+        <v>0.02947648803723751</v>
       </c>
       <c r="K91" t="n">
         <v>0.02178123926411067</v>
       </c>
       <c r="L91" t="n">
-        <v>0.05957607712328947</v>
+        <v>0.05845935734756175</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02169823371547366</v>
+        <v>0.02172165629872504</v>
       </c>
       <c r="N91" t="n">
-        <v>0.09040560977019874</v>
+        <v>0.08801657337056801</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02171141373040663</v>
+        <v>0.02168624737032666</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.0292148247169223</v>
+        <v>0.06134540413594443</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02261897923580724</v>
+        <v>0.01501663097708442</v>
       </c>
       <c r="J92" t="n">
-        <v>0.0292148247169223</v>
+        <v>0.02810476755175295</v>
       </c>
       <c r="K92" t="n">
         <v>0.02261897923580724</v>
       </c>
       <c r="L92" t="n">
-        <v>0.05932164755355782</v>
+        <v>0.0584726185194846</v>
       </c>
       <c r="M92" t="n">
-        <v>0.0225327811660688</v>
+        <v>0.02255710461790677</v>
       </c>
       <c r="N92" t="n">
-        <v>0.09241439223138742</v>
+        <v>0.09165102567594563</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02254646810465304</v>
+        <v>0.02252033380764692</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02852498543375101</v>
+        <v>0.06183749315510791</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0234567192075038</v>
+        <v>0.01557280249475421</v>
       </c>
       <c r="J93" t="n">
-        <v>0.02852498543375101</v>
+        <v>0.02869141267839456</v>
       </c>
       <c r="K93" t="n">
         <v>0.0234567192075038</v>
       </c>
       <c r="L93" t="n">
-        <v>0.06163217094366322</v>
+        <v>0.06189356463006182</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02336732861666394</v>
+        <v>0.0233925529370885</v>
       </c>
       <c r="N93" t="n">
-        <v>0.08928378163642686</v>
+        <v>0.0902969186710616</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02338152247889945</v>
+        <v>0.02335442024496718</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02916155339782724</v>
+        <v>0.06231892275316048</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02429445917920036</v>
+        <v>0.01612897401242401</v>
       </c>
       <c r="J94" t="n">
-        <v>0.02916155339782724</v>
+        <v>0.02911565809325611</v>
       </c>
       <c r="K94" t="n">
         <v>0.02429445917920036</v>
       </c>
       <c r="L94" t="n">
-        <v>0.06036043775321231</v>
+        <v>0.06020366360482107</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02420187606725908</v>
+        <v>0.02422800125627023</v>
       </c>
       <c r="N94" t="n">
-        <v>0.09239150725338197</v>
+        <v>0.09544690304015913</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02421657685314586</v>
+        <v>0.02418850668228744</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.0299588320312474</v>
+        <v>0.06278980008243265</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02513219915089693</v>
+        <v>0.0166851455300938</v>
       </c>
       <c r="J95" t="n">
-        <v>0.0299588320312474</v>
+        <v>0.02872911384100223</v>
       </c>
       <c r="K95" t="n">
         <v>0.02513219915089693</v>
       </c>
       <c r="L95" t="n">
-        <v>0.06066056158064623</v>
+        <v>0.05908715347939714</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02503642351785422</v>
+        <v>0.02506344957545197</v>
       </c>
       <c r="N95" t="n">
-        <v>0.09460908449838329</v>
+        <v>0.09345767324845411</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02505163122739226</v>
+        <v>0.02502259311960769</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02953293674227679</v>
+        <v>0.06325023229525488</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02596993912259349</v>
+        <v>0.01724131704776359</v>
       </c>
       <c r="J96" t="n">
-        <v>0.02953293674227679</v>
+        <v>0.02920977378458151</v>
       </c>
       <c r="K96" t="n">
         <v>0.02596993912259349</v>
       </c>
       <c r="L96" t="n">
-        <v>0.06272545711201655</v>
+        <v>0.05945890867103046</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02587097096844936</v>
+        <v>0.0258988978946337</v>
       </c>
       <c r="N96" t="n">
-        <v>0.09015237245526869</v>
+        <v>0.09439152349023849</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02588668560163868</v>
+        <v>0.02585667955692795</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02983411747290472</v>
+        <v>0.06370032654395764</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02680767909429006</v>
+        <v>0.01779748856543338</v>
       </c>
       <c r="J97" t="n">
-        <v>0.02983411747290472</v>
+        <v>0.02907984753986428</v>
       </c>
       <c r="K97" t="n">
         <v>0.02680767909429006</v>
       </c>
       <c r="L97" t="n">
-        <v>0.06211799524844561</v>
+        <v>0.06283707025292132</v>
       </c>
       <c r="M97" t="n">
-        <v>0.0267055184190445</v>
+        <v>0.02673434621381543</v>
       </c>
       <c r="N97" t="n">
-        <v>0.09383484457255536</v>
+        <v>0.09516247032066344</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02672173997588508</v>
+        <v>0.0266907659942482</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02949777001440719</v>
+        <v>0.06414018998087144</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02764541906598662</v>
+        <v>0.01835366008310318</v>
       </c>
       <c r="J98" t="n">
-        <v>0.02949777001440719</v>
+        <v>0.02952572148141808</v>
       </c>
       <c r="K98" t="n">
         <v>0.02764541906598662</v>
       </c>
       <c r="L98" t="n">
-        <v>0.0619505964086097</v>
+        <v>0.06131164147556303</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02754006586963964</v>
+        <v>0.02756979453299716</v>
       </c>
       <c r="N98" t="n">
-        <v>0.09115972191528032</v>
+        <v>0.0926220115049437</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02755679435013149</v>
+        <v>0.02752485243156846</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02973521397067183</v>
+        <v>0.06456992975832677</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02848315903768318</v>
+        <v>0.01890983160077297</v>
       </c>
       <c r="J99" t="n">
-        <v>0.02973521397067183</v>
+        <v>0.03002768145409497</v>
       </c>
       <c r="K99" t="n">
         <v>0.02848315903768318</v>
       </c>
       <c r="L99" t="n">
-        <v>0.05970161036770191</v>
+        <v>0.05990659346609578</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02837461332023479</v>
+        <v>0.02840524285217889</v>
       </c>
       <c r="N99" t="n">
-        <v>0.09240587852672222</v>
+        <v>0.09305715656134467</v>
       </c>
       <c r="O99" t="n">
-        <v>0.0283918487243779</v>
+        <v>0.02835893886888871</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02999976434527016</v>
+        <v>0.06498965302865412</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02932089900937975</v>
+        <v>0.01946600311844277</v>
       </c>
       <c r="J100" t="n">
-        <v>0.02999976434527016</v>
+        <v>0.03064897286730808</v>
       </c>
       <c r="K100" t="n">
         <v>0.02932089900937975</v>
       </c>
       <c r="L100" t="n">
-        <v>0.06080472709852711</v>
+        <v>0.06122776595255069</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02920916077082992</v>
+        <v>0.02924069117136063</v>
       </c>
       <c r="N100" t="n">
-        <v>0.09371083092492916</v>
+        <v>0.09359615012708783</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02922690309862431</v>
+        <v>0.02919302530620897</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.03051314431805056</v>
+        <v>0.06539946694418394</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03015863898107631</v>
+        <v>0.02002217463611256</v>
       </c>
       <c r="J101" t="n">
-        <v>0.03051314431805056</v>
+        <v>0.02987326977677701</v>
       </c>
       <c r="K101" t="n">
         <v>0.03015863898107631</v>
       </c>
       <c r="L101" t="n">
-        <v>0.06122948794940594</v>
+        <v>0.06029666559584526</v>
       </c>
       <c r="M101" t="n">
-        <v>0.03004370822142507</v>
+        <v>0.03007613949054236</v>
       </c>
       <c r="N101" t="n">
-        <v>0.09710714300455853</v>
+        <v>0.09385011755674011</v>
       </c>
       <c r="O101" t="n">
-        <v>0.03006195747287072</v>
+        <v>0.03002711174352923</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.0298188654052165</v>
+        <v>0.06579947865724674</v>
       </c>
       <c r="G102" t="n">
-        <v>0.03099637895277288</v>
+        <v>0.02057834615378235</v>
       </c>
       <c r="J102" t="n">
-        <v>0.0298188654052165</v>
+        <v>0.03026933913070136</v>
       </c>
       <c r="K102" t="n">
         <v>0.03099637895277288</v>
       </c>
       <c r="L102" t="n">
-        <v>0.06212680327505504</v>
+        <v>0.06046269307771499</v>
       </c>
       <c r="M102" t="n">
-        <v>0.03087825567202021</v>
+        <v>0.03091158780972409</v>
       </c>
       <c r="N102" t="n">
-        <v>0.09310016225627615</v>
+        <v>0.09836506050321603</v>
       </c>
       <c r="O102" t="n">
-        <v>0.03089701184711713</v>
+        <v>0.03086119818084948</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.03039949908224293</v>
+        <v>0.06618979532017299</v>
       </c>
       <c r="G103" t="n">
-        <v>0.03183411892446944</v>
+        <v>0.02113451767145215</v>
       </c>
       <c r="J103" t="n">
-        <v>0.03039949908224293</v>
+        <v>0.03043308778280178</v>
       </c>
       <c r="K103" t="n">
         <v>0.03183411892446944</v>
       </c>
       <c r="L103" t="n">
-        <v>0.06400762967054033</v>
+        <v>0.06326794977449895</v>
       </c>
       <c r="M103" t="n">
-        <v>0.03171280312261535</v>
+        <v>0.03174703612890582</v>
       </c>
       <c r="N103" t="n">
-        <v>0.09228547834856338</v>
+        <v>0.09201446665214186</v>
       </c>
       <c r="O103" t="n">
-        <v>0.03173206622136353</v>
+        <v>0.03169528461816974</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.03080457167868991</v>
+        <v>0.06657052408529321</v>
       </c>
       <c r="G104" t="n">
-        <v>0.032671858896166</v>
+        <v>0.02169068918912194</v>
       </c>
       <c r="J104" t="n">
-        <v>0.03080457167868991</v>
+        <v>0.0311658711045734</v>
       </c>
       <c r="K104" t="n">
         <v>0.032671858896166</v>
       </c>
       <c r="L104" t="n">
-        <v>0.06128545917247535</v>
+        <v>0.06133497533489268</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03254735057321049</v>
+        <v>0.03258248444808756</v>
       </c>
       <c r="N104" t="n">
-        <v>0.09342415857687159</v>
+        <v>0.0930304905090979</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03256712059560994</v>
+        <v>0.03252937105549</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.03059425391307856</v>
+        <v>0.06694177210493786</v>
       </c>
       <c r="G105" t="n">
-        <v>0.03350959886786257</v>
+        <v>0.02224686070679173</v>
       </c>
       <c r="J105" t="n">
-        <v>0.03059425391307856</v>
+        <v>0.03078804833186564</v>
       </c>
       <c r="K105" t="n">
         <v>0.03350959886786257</v>
       </c>
       <c r="L105" t="n">
-        <v>0.06230391871455834</v>
+        <v>0.06272811480903667</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03338189802380562</v>
+        <v>0.03341793276726929</v>
       </c>
       <c r="N105" t="n">
-        <v>0.0932063717474072</v>
+        <v>0.09779179531036569</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03340217496985635</v>
+        <v>0.03336345749281025</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.03005483779453713</v>
+        <v>0.06730364653143742</v>
       </c>
       <c r="G106" t="n">
-        <v>0.03434733883955914</v>
+        <v>0.02280303222446153</v>
       </c>
       <c r="J106" t="n">
-        <v>0.03005483779453713</v>
+        <v>0.02987100619348712</v>
       </c>
       <c r="K106" t="n">
         <v>0.03434733883955914</v>
       </c>
       <c r="L106" t="n">
-        <v>0.06453139329875898</v>
+        <v>0.06250376753611256</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03421644547440077</v>
+        <v>0.03425338108645102</v>
       </c>
       <c r="N106" t="n">
-        <v>0.09797334098467964</v>
+        <v>0.09374422556103607</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03423722934410276</v>
+        <v>0.03419754393013051</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.03080579568042811</v>
+        <v>0.06765625451712236</v>
       </c>
       <c r="G107" t="n">
-        <v>0.0351850788112557</v>
+        <v>0.02335920374213132</v>
       </c>
       <c r="J107" t="n">
-        <v>0.03080579568042811</v>
+        <v>0.03037685101352207</v>
       </c>
       <c r="K107" t="n">
         <v>0.0351850788112557</v>
       </c>
       <c r="L107" t="n">
-        <v>0.0644717138955718</v>
+        <v>0.06434791185775965</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03505099292499591</v>
+        <v>0.03508882940563275</v>
       </c>
       <c r="N107" t="n">
-        <v>0.09336787451171608</v>
+        <v>0.09855779006696058</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03507228371834917</v>
+        <v>0.03503163036745077</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.03130163856820069</v>
+        <v>0.06799970321432322</v>
       </c>
       <c r="G108" t="n">
-        <v>0.03602281878295226</v>
+        <v>0.02391537525980111</v>
       </c>
       <c r="J108" t="n">
-        <v>0.03130163856820069</v>
+        <v>0.03093981977668209</v>
       </c>
       <c r="K108" t="n">
         <v>0.03602281878295226</v>
       </c>
       <c r="L108" t="n">
-        <v>0.06405057423330693</v>
+        <v>0.06456321877224316</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03588554037559105</v>
+        <v>0.03592427772481448</v>
       </c>
       <c r="N108" t="n">
-        <v>0.09289588133313204</v>
+        <v>0.09960864123518481</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03590733809259558</v>
+        <v>0.03586571680477103</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.03106814271587227</v>
+        <v>0.06833409977537044</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03686055875464883</v>
+        <v>0.0244715467774709</v>
       </c>
       <c r="J109" t="n">
-        <v>0.03106814271587227</v>
+        <v>0.0316736723701431</v>
       </c>
       <c r="K109" t="n">
         <v>0.03686055875464883</v>
       </c>
       <c r="L109" t="n">
-        <v>0.06405808704875632</v>
+        <v>0.06537928939143006</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03672008782618619</v>
+        <v>0.03675972604399622</v>
       </c>
       <c r="N109" t="n">
-        <v>0.09916781200794827</v>
+        <v>0.09421267616854667</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03674239246684199</v>
+        <v>0.03669980324209128</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.03072316075229513</v>
+        <v>0.06865955135259451</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03769829872634539</v>
+        <v>0.0250277182951407</v>
       </c>
       <c r="J110" t="n">
-        <v>0.03072316075229513</v>
+        <v>0.03101543938484988</v>
       </c>
       <c r="K110" t="n">
         <v>0.03769829872634539</v>
       </c>
       <c r="L110" t="n">
-        <v>0.0658901096230555</v>
+        <v>0.06549804054155733</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03755463527678133</v>
+        <v>0.03759517436317795</v>
       </c>
       <c r="N110" t="n">
-        <v>0.09510859642168701</v>
+        <v>0.09892447082368006</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03757744684108839</v>
+        <v>0.03753388967941153</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.03131018669764195</v>
+        <v>0.06897616509832592</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03853603869804195</v>
+        <v>0.02558388981281049</v>
       </c>
       <c r="J111" t="n">
-        <v>0.03131018669764195</v>
+        <v>0.03164021686963581</v>
       </c>
       <c r="K111" t="n">
         <v>0.03853603869804195</v>
       </c>
       <c r="L111" t="n">
-        <v>0.0633578365073848</v>
+        <v>0.06447599247572824</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03838918272737647</v>
+        <v>0.03843062268235968</v>
       </c>
       <c r="N111" t="n">
-        <v>0.09835431768571568</v>
+        <v>0.09974545921516687</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03841250121533481</v>
+        <v>0.0383679761167318</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.03123098907435201</v>
+        <v>0.06928404816489518</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03937377866973851</v>
+        <v>0.02614006133048028</v>
       </c>
       <c r="J112" t="n">
-        <v>0.03123098907435201</v>
+        <v>0.03144249194651975</v>
       </c>
       <c r="K112" t="n">
         <v>0.03937377866973851</v>
       </c>
       <c r="L112" t="n">
-        <v>0.06340816327740167</v>
+        <v>0.06397061770382409</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03922373017797161</v>
+        <v>0.03926607100154141</v>
       </c>
       <c r="N112" t="n">
-        <v>0.09412016498127174</v>
+        <v>0.09578886260423913</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03924755558958121</v>
+        <v>0.03920206255405205</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.03113671925784714</v>
+        <v>0.06958330770463274</v>
       </c>
       <c r="G113" t="n">
-        <v>0.04021151864143508</v>
+        <v>0.02669623284815008</v>
       </c>
       <c r="J113" t="n">
-        <v>0.03113671925784714</v>
+        <v>0.03057031128284432</v>
       </c>
       <c r="K113" t="n">
         <v>0.04021151864143508</v>
       </c>
       <c r="L113" t="n">
-        <v>0.06596968561415281</v>
+        <v>0.06532948443750772</v>
       </c>
       <c r="M113" t="n">
-        <v>0.04005827762856675</v>
+        <v>0.04010151932072314</v>
       </c>
       <c r="N113" t="n">
-        <v>0.1005233378485343</v>
+        <v>0.09641095884200429</v>
       </c>
       <c r="O113" t="n">
-        <v>0.04008260996382762</v>
+        <v>0.0400361489913723</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.03132004900093933</v>
+        <v>0.0698740508698691</v>
       </c>
       <c r="G114" t="n">
-        <v>0.04104925861313165</v>
+        <v>0.02725240436581987</v>
       </c>
       <c r="J114" t="n">
-        <v>0.03132004900093933</v>
+        <v>0.03085550271981551</v>
       </c>
       <c r="K114" t="n">
         <v>0.04104925861313165</v>
       </c>
       <c r="L114" t="n">
-        <v>0.06513680852652232</v>
+        <v>0.06591404269344511</v>
       </c>
       <c r="M114" t="n">
-        <v>0.04089282507916189</v>
+        <v>0.04093696763990488</v>
       </c>
       <c r="N114" t="n">
-        <v>0.09753845017608681</v>
+        <v>0.09571765336267263</v>
       </c>
       <c r="O114" t="n">
-        <v>0.04091766433807403</v>
+        <v>0.04087023542869256</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.03063943779818058</v>
+        <v>0.07015638481293474</v>
       </c>
       <c r="G115" t="n">
-        <v>0.04188699858482821</v>
+        <v>0.02780857588348966</v>
       </c>
       <c r="J115" t="n">
-        <v>0.03063943779818058</v>
+        <v>0.03199567124126028</v>
       </c>
       <c r="K115" t="n">
         <v>0.04188699858482821</v>
       </c>
       <c r="L115" t="n">
-        <v>0.06405341862127448</v>
+        <v>0.06320653483314786</v>
       </c>
       <c r="M115" t="n">
-        <v>0.04172737252975704</v>
+        <v>0.04177241595908661</v>
       </c>
       <c r="N115" t="n">
-        <v>0.09631514568101296</v>
+        <v>0.09430804664837944</v>
       </c>
       <c r="O115" t="n">
-        <v>0.04175271871232044</v>
+        <v>0.04170432186601282</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.03178583461956913</v>
+        <v>0.07043041668616015</v>
       </c>
       <c r="G116" t="n">
-        <v>0.04272473855652478</v>
+        <v>0.02836474740115946</v>
       </c>
       <c r="J116" t="n">
-        <v>0.03178583461956913</v>
+        <v>0.03142254055024783</v>
       </c>
       <c r="K116" t="n">
         <v>0.04272473855652478</v>
       </c>
       <c r="L116" t="n">
-        <v>0.06678684111902541</v>
+        <v>0.06601059956767394</v>
       </c>
       <c r="M116" t="n">
-        <v>0.04256191998035217</v>
+        <v>0.04260786427826834</v>
       </c>
       <c r="N116" t="n">
-        <v>0.09623918571212803</v>
+        <v>0.1011308665674402</v>
       </c>
       <c r="O116" t="n">
-        <v>0.04258777308656685</v>
+        <v>0.04253840830333307</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.0320982087060229</v>
+        <v>0.07069625364187583</v>
       </c>
       <c r="G117" t="n">
-        <v>0.04356247852822134</v>
+        <v>0.02892091891882925</v>
       </c>
       <c r="J117" t="n">
-        <v>0.0320982087060229</v>
+        <v>0.03131133359366535</v>
       </c>
       <c r="K117" t="n">
         <v>0.04356247852822134</v>
       </c>
       <c r="L117" t="n">
-        <v>0.06507042195129231</v>
+        <v>0.0659963982506882</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04339646743094732</v>
+        <v>0.04344331259745007</v>
       </c>
       <c r="N117" t="n">
-        <v>0.09638995421465119</v>
+        <v>0.100299784332616</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04342282746081325</v>
+        <v>0.04337249474065333</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.03094641694167119</v>
+        <v>0.07095400283241224</v>
       </c>
       <c r="G118" t="n">
-        <v>0.0444002184999179</v>
+        <v>0.02947709043649904</v>
       </c>
       <c r="J118" t="n">
-        <v>0.03094641694167119</v>
+        <v>0.03202792788139507</v>
       </c>
       <c r="K118" t="n">
         <v>0.0444002184999179</v>
       </c>
       <c r="L118" t="n">
-        <v>0.06546638589243556</v>
+        <v>0.06685799231794332</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04423101488154246</v>
+        <v>0.04427876091663181</v>
       </c>
       <c r="N118" t="n">
-        <v>0.101671507439061</v>
+        <v>0.0988796575480933</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04425788183505967</v>
+        <v>0.04420658117797358</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.03267571812013205</v>
+        <v>0.07120377141009987</v>
       </c>
       <c r="G119" t="n">
-        <v>0.04523795847161447</v>
+        <v>0.03003326195416884</v>
       </c>
       <c r="J119" t="n">
-        <v>0.03267571812013205</v>
+        <v>0.03091209180456166</v>
       </c>
       <c r="K119" t="n">
         <v>0.04523795847161447</v>
       </c>
       <c r="L119" t="n">
-        <v>0.06313486268828761</v>
+        <v>0.06726778330035146</v>
       </c>
       <c r="M119" t="n">
-        <v>0.0450655623321376</v>
+        <v>0.04511420923581354</v>
       </c>
       <c r="N119" t="n">
-        <v>0.09779959805556232</v>
+        <v>0.1019882108141492</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04509293620930608</v>
+        <v>0.04504066761529384</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.03101885464355512</v>
+        <v>0.07144566652726921</v>
       </c>
       <c r="G120" t="n">
-        <v>0.04607569844331103</v>
+        <v>0.03058943347183863</v>
       </c>
       <c r="J120" t="n">
-        <v>0.03101885464355512</v>
+        <v>0.03183823701369204</v>
       </c>
       <c r="K120" t="n">
         <v>0.04607569844331103</v>
       </c>
       <c r="L120" t="n">
-        <v>0.06738998732988233</v>
+        <v>0.06514251767464604</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04590010978273274</v>
+        <v>0.04594965755499527</v>
       </c>
       <c r="N120" t="n">
-        <v>0.100415631138866</v>
+        <v>0.1027684969927163</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04592799058355249</v>
+        <v>0.0458747540526141</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.03203324719276034</v>
+        <v>0.07167979533625077</v>
       </c>
       <c r="G121" t="n">
-        <v>0.04691343841500759</v>
+        <v>0.03114560498950843</v>
       </c>
       <c r="J121" t="n">
-        <v>0.03203324719276034</v>
+        <v>0.03222848972780966</v>
       </c>
       <c r="K121" t="n">
         <v>0.04691343841500759</v>
       </c>
       <c r="L121" t="n">
-        <v>0.06431807010330384</v>
+        <v>0.06660394748772633</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04673465723332788</v>
+        <v>0.046785105874177</v>
       </c>
       <c r="N121" t="n">
-        <v>0.1013468423024145</v>
+        <v>0.09996509465166692</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04676304495779889</v>
+        <v>0.04670884048993436</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.03209819709305758</v>
+        <v>0.07190626498937497</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04775117838670416</v>
+        <v>0.03170177650717822</v>
       </c>
       <c r="J122" t="n">
-        <v>0.03209819709305758</v>
+        <v>0.03139375165421321</v>
       </c>
       <c r="K122" t="n">
         <v>0.04775117838670416</v>
       </c>
       <c r="L122" t="n">
-        <v>0.06744440749334543</v>
+        <v>0.06665562597257488</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04756920468392302</v>
+        <v>0.04762055419335873</v>
       </c>
       <c r="N122" t="n">
-        <v>0.09823369647458863</v>
+        <v>0.102126283727464</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04759809933204531</v>
+        <v>0.04754292692725461</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.03225085358805399</v>
+        <v>0.07212518263897234</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04858891835840072</v>
+        <v>0.03225794802484801</v>
       </c>
       <c r="J123" t="n">
-        <v>0.03225085358805399</v>
+        <v>0.03174144992423483</v>
       </c>
       <c r="K123" t="n">
         <v>0.04858891835840072</v>
       </c>
       <c r="L123" t="n">
-        <v>0.06761323876216363</v>
+        <v>0.06761354423395274</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04840375213451816</v>
+        <v>0.04845600251254047</v>
       </c>
       <c r="N123" t="n">
-        <v>0.09789388946292504</v>
+        <v>0.09713170393058757</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04843315370629171</v>
+        <v>0.04837701336457487</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.03248171053943516</v>
+        <v>0.0723366554373734</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04942665833009729</v>
+        <v>0.0328141195425178</v>
       </c>
       <c r="J124" t="n">
-        <v>0.03248171053943516</v>
+        <v>0.03267086008666414</v>
       </c>
       <c r="K124" t="n">
         <v>0.04942665833009729</v>
       </c>
       <c r="L124" t="n">
-        <v>0.06731975217567843</v>
+        <v>0.06658578910087434</v>
       </c>
       <c r="M124" t="n">
-        <v>0.0492382995851133</v>
+        <v>0.0492914508317222</v>
       </c>
       <c r="N124" t="n">
-        <v>0.09761900081286623</v>
+        <v>0.09945666622571409</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04926820808053812</v>
+        <v>0.04921109980189513</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.03177197415638629</v>
+        <v>0.07254079053690855</v>
       </c>
       <c r="G125" t="n">
-        <v>0.05026439830179386</v>
+        <v>0.0333702910601876</v>
       </c>
       <c r="J125" t="n">
-        <v>0.03177197415638629</v>
+        <v>0.03261039603365364</v>
       </c>
       <c r="K125" t="n">
         <v>0.05026439830179386</v>
       </c>
       <c r="L125" t="n">
-        <v>0.06521895283238802</v>
+        <v>0.06802791648292114</v>
       </c>
       <c r="M125" t="n">
-        <v>0.05007284703570844</v>
+        <v>0.05012689915090393</v>
       </c>
       <c r="N125" t="n">
-        <v>0.1035203936551158</v>
+        <v>0.09850244317819307</v>
       </c>
       <c r="O125" t="n">
-        <v>0.05010326245478453</v>
+        <v>0.05004518623921538</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.03269289612193366</v>
+        <v>0.07273769508990836</v>
       </c>
       <c r="G126" t="n">
-        <v>0.05110213827349042</v>
+        <v>0.03392646257785739</v>
       </c>
       <c r="J126" t="n">
-        <v>0.03269289612193366</v>
+        <v>0.03180411406083704</v>
       </c>
       <c r="K126" t="n">
         <v>0.05110213827349042</v>
       </c>
       <c r="L126" t="n">
-        <v>0.06820564322609354</v>
+        <v>0.06720425568285457</v>
       </c>
       <c r="M126" t="n">
-        <v>0.05090739448630358</v>
+        <v>0.05096234747008566</v>
       </c>
       <c r="N126" t="n">
-        <v>0.09999377052642416</v>
+        <v>0.09928371186871204</v>
       </c>
       <c r="O126" t="n">
-        <v>0.05093831682903094</v>
+        <v>0.05087927267653564</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.03185365884179933</v>
+        <v>0.07292747624870324</v>
       </c>
       <c r="G127" t="n">
-        <v>0.05193987824518698</v>
+        <v>0.03448263409552719</v>
       </c>
       <c r="J127" t="n">
-        <v>0.03185365884179933</v>
+        <v>0.03299088195233374</v>
       </c>
       <c r="K127" t="n">
         <v>0.05193987824518698</v>
       </c>
       <c r="L127" t="n">
-        <v>0.06504536946808648</v>
+        <v>0.06616920801129036</v>
       </c>
       <c r="M127" t="n">
-        <v>0.05174194193689872</v>
+        <v>0.0517977957892674</v>
       </c>
       <c r="N127" t="n">
-        <v>0.1039592710852748</v>
+        <v>0.09837918090365311</v>
       </c>
       <c r="O127" t="n">
-        <v>0.05177337120327735</v>
+        <v>0.0517133591138559</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.03210148818503966</v>
+        <v>0.07311024116562373</v>
       </c>
       <c r="G128" t="n">
-        <v>0.05277761821688355</v>
+        <v>0.03503880561319698</v>
       </c>
       <c r="J128" t="n">
-        <v>0.03210148818503966</v>
+        <v>0.03190424834789922</v>
       </c>
       <c r="K128" t="n">
         <v>0.05277761821688355</v>
       </c>
       <c r="L128" t="n">
-        <v>0.06927416190666985</v>
+        <v>0.06487738989608149</v>
       </c>
       <c r="M128" t="n">
-        <v>0.05257648938749387</v>
+        <v>0.05263324410844913</v>
       </c>
       <c r="N128" t="n">
-        <v>0.1025342555252454</v>
+        <v>0.1038419250854607</v>
       </c>
       <c r="O128" t="n">
-        <v>0.05260842557752375</v>
+        <v>0.05254744555117615</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.03318993515587183</v>
+        <v>0.07328609699300032</v>
       </c>
       <c r="G129" t="n">
-        <v>0.05361535818858011</v>
+        <v>0.03559497713086677</v>
       </c>
       <c r="J129" t="n">
-        <v>0.03318993515587183</v>
+        <v>0.03228156241705907</v>
       </c>
       <c r="K129" t="n">
         <v>0.05361535818858011</v>
       </c>
       <c r="L129" t="n">
-        <v>0.0656078533391263</v>
+        <v>0.06661198430017418</v>
       </c>
       <c r="M129" t="n">
-        <v>0.053411036838089</v>
+        <v>0.05346869242763086</v>
       </c>
       <c r="N129" t="n">
-        <v>0.09926670687226935</v>
+        <v>0.09864613213918066</v>
       </c>
       <c r="O129" t="n">
-        <v>0.05344347995177016</v>
+        <v>0.05338153198849641</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.03303839352717466</v>
+        <v>0.07345515088316344</v>
       </c>
       <c r="G130" t="n">
-        <v>0.05445309816027667</v>
+        <v>0.03615114864853657</v>
       </c>
       <c r="J130" t="n">
-        <v>0.03303839352717466</v>
+        <v>0.03327007096442723</v>
       </c>
       <c r="K130" t="n">
         <v>0.05445309816027667</v>
       </c>
       <c r="L130" t="n">
-        <v>0.06743892274176383</v>
+        <v>0.06595875091032122</v>
       </c>
       <c r="M130" t="n">
-        <v>0.05424558428868415</v>
+        <v>0.05430414074681259</v>
       </c>
       <c r="N130" t="n">
-        <v>0.1018804591725168</v>
+        <v>0.09979214313672968</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05427853432601657</v>
+        <v>0.05421561842581667</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.0334612142947406</v>
+        <v>0.07361750998844363</v>
       </c>
       <c r="G131" t="n">
-        <v>0.05529083813197324</v>
+        <v>0.03670732016620636</v>
       </c>
       <c r="J131" t="n">
-        <v>0.0334612142947406</v>
+        <v>0.033286063802768</v>
       </c>
       <c r="K131" t="n">
         <v>0.05529083813197324</v>
       </c>
       <c r="L131" t="n">
-        <v>0.06565155136040307</v>
+        <v>0.06867842632652635</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05508013173927928</v>
+        <v>0.05513958906599432</v>
       </c>
       <c r="N131" t="n">
-        <v>0.1013681418557347</v>
+        <v>0.1038510777443076</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05511358870026298</v>
+        <v>0.05504970486313692</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.03282300672445265</v>
+        <v>0.07377328146117133</v>
       </c>
       <c r="G132" t="n">
-        <v>0.0561285781036698</v>
+        <v>0.03726349168387615</v>
       </c>
       <c r="J132" t="n">
-        <v>0.03282300672445265</v>
+        <v>0.03311323552254594</v>
       </c>
       <c r="K132" t="n">
         <v>0.0561285781036698</v>
       </c>
       <c r="L132" t="n">
-        <v>0.06748116453636055</v>
+        <v>0.06715310195577187</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05591467918987443</v>
+        <v>0.05597503738517606</v>
       </c>
       <c r="N132" t="n">
-        <v>0.1054865321884912</v>
+        <v>0.09990626115508711</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05594864307450939</v>
+        <v>0.05588379130045718</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.03257303466793753</v>
+        <v>0.07392257245367706</v>
       </c>
       <c r="G133" t="n">
-        <v>0.05696631807536636</v>
+        <v>0.03781966320154594</v>
       </c>
       <c r="J133" t="n">
-        <v>0.03257303466793753</v>
+        <v>0.03230815537900589</v>
       </c>
       <c r="K133" t="n">
         <v>0.05696631807536636</v>
       </c>
       <c r="L133" t="n">
-        <v>0.06679733696556162</v>
+        <v>0.06990269041213446</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05674922664046957</v>
+        <v>0.05681048570435779</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1000469249002492</v>
+        <v>0.1054659588542258</v>
       </c>
       <c r="O133" t="n">
-        <v>0.0567836974487558</v>
+        <v>0.05671787773777743</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.03243267793777632</v>
+        <v>0.07406549011829129</v>
       </c>
       <c r="G134" t="n">
-        <v>0.05780405804706294</v>
+        <v>0.03837583471921574</v>
       </c>
       <c r="J134" t="n">
-        <v>0.03243267793777632</v>
+        <v>0.03324766518180686</v>
       </c>
       <c r="K134" t="n">
         <v>0.05780405804706294</v>
       </c>
       <c r="L134" t="n">
-        <v>0.06662081310876455</v>
+        <v>0.06946479531024338</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05758377409106471</v>
+        <v>0.05764593402353952</v>
       </c>
       <c r="N134" t="n">
-        <v>0.104445321141492</v>
+        <v>0.1042878911944868</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05761875182300221</v>
+        <v>0.05755196417509769</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.03375621810286371</v>
+        <v>0.07420214160734452</v>
       </c>
       <c r="G135" t="n">
-        <v>0.0586417980187595</v>
+        <v>0.03893200623688553</v>
       </c>
       <c r="J135" t="n">
-        <v>0.03375621810286371</v>
+        <v>0.03343990084215585</v>
       </c>
       <c r="K135" t="n">
         <v>0.0586417980187595</v>
       </c>
       <c r="L135" t="n">
-        <v>0.06716051573431719</v>
+        <v>0.06806375682814836</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05841832154165984</v>
+        <v>0.05848138234272125</v>
       </c>
       <c r="N135" t="n">
-        <v>0.1040335524486382</v>
+        <v>0.1029383368684065</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05845380619724862</v>
+        <v>0.05838605061241794</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.03326656338477411</v>
+        <v>0.07433263407316722</v>
       </c>
       <c r="G136" t="n">
-        <v>0.05947953799045606</v>
+        <v>0.03948817775455532</v>
       </c>
       <c r="J136" t="n">
-        <v>0.03326656338477411</v>
+        <v>0.03271688889741152</v>
       </c>
       <c r="K136" t="n">
         <v>0.05947953799045606</v>
       </c>
       <c r="L136" t="n">
-        <v>0.06909933757907447</v>
+        <v>0.06685163228307589</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05925286899225499</v>
+        <v>0.05931683066190298</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1063410861767522</v>
+        <v>0.1029782155519934</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05928886057149503</v>
+        <v>0.05922013704973821</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.03306742697435626</v>
+        <v>0.07445707466808987</v>
       </c>
       <c r="G137" t="n">
-        <v>0.06031727796215262</v>
+        <v>0.04004434927222512</v>
       </c>
       <c r="J137" t="n">
-        <v>0.03306742697435626</v>
+        <v>0.03317570446018163</v>
       </c>
       <c r="K137" t="n">
         <v>0.06031727796215262</v>
       </c>
       <c r="L137" t="n">
-        <v>0.06866741446663485</v>
+        <v>0.06761263625125624</v>
       </c>
       <c r="M137" t="n">
-        <v>0.06008741644285014</v>
+        <v>0.06015227898108472</v>
       </c>
       <c r="N137" t="n">
-        <v>0.1030202810982596</v>
+        <v>0.1016889670738302</v>
       </c>
       <c r="O137" t="n">
-        <v>0.06012391494574144</v>
+        <v>0.06005422348705845</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.03297552508056956</v>
+        <v>0.07457557054444297</v>
       </c>
       <c r="G138" t="n">
-        <v>0.06115501793384919</v>
+        <v>0.04060052078989491</v>
       </c>
       <c r="J138" t="n">
-        <v>0.03297552508056956</v>
+        <v>0.03244144878392671</v>
       </c>
       <c r="K138" t="n">
         <v>0.06115501793384919</v>
       </c>
       <c r="L138" t="n">
-        <v>0.06888663611673013</v>
+        <v>0.06821338981958766</v>
       </c>
       <c r="M138" t="n">
-        <v>0.06092196389344527</v>
+        <v>0.06098772730026645</v>
       </c>
       <c r="N138" t="n">
-        <v>0.1059910804658001</v>
+        <v>0.1070842256214196</v>
       </c>
       <c r="O138" t="n">
-        <v>0.06095896931998784</v>
+        <v>0.06088830992437871</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.03422786280771782</v>
+        <v>0.074688228854557</v>
       </c>
       <c r="G139" t="n">
-        <v>0.06199275790554575</v>
+        <v>0.0411566923075647</v>
       </c>
       <c r="J139" t="n">
-        <v>0.03422786280771782</v>
+        <v>0.03345152704226094</v>
       </c>
       <c r="K139" t="n">
         <v>0.06199275790554575</v>
       </c>
       <c r="L139" t="n">
-        <v>0.06947523196102878</v>
+        <v>0.06712049093123648</v>
       </c>
       <c r="M139" t="n">
-        <v>0.06175651134404041</v>
+        <v>0.06182317561944819</v>
       </c>
       <c r="N139" t="n">
-        <v>0.1022364587991332</v>
+        <v>0.1019706166893177</v>
       </c>
       <c r="O139" t="n">
-        <v>0.06179402369423426</v>
+        <v>0.06172239636169897</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.03449484409553305</v>
+        <v>0.07479515675076247</v>
       </c>
       <c r="G140" t="n">
-        <v>0.06283049787724231</v>
+        <v>0.0417128638252345</v>
       </c>
       <c r="J140" t="n">
-        <v>0.03449484409553305</v>
+        <v>0.0337419197422065</v>
       </c>
       <c r="K140" t="n">
         <v>0.06283049787724231</v>
       </c>
       <c r="L140" t="n">
-        <v>0.07038491528858562</v>
+        <v>0.07034070026195979</v>
       </c>
       <c r="M140" t="n">
-        <v>0.06259105879463556</v>
+        <v>0.06265862393862992</v>
       </c>
       <c r="N140" t="n">
-        <v>0.1047246584357102</v>
+        <v>0.1020291432119612</v>
       </c>
       <c r="O140" t="n">
-        <v>0.06262907806848066</v>
+        <v>0.06255648279901922</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.03296198003980369</v>
+        <v>0.0748964613853898</v>
       </c>
       <c r="G141" t="n">
-        <v>0.06366823784893888</v>
+        <v>0.04226903534290429</v>
       </c>
       <c r="J141" t="n">
-        <v>0.03296198003980369</v>
+        <v>0.03301173140972534</v>
       </c>
       <c r="K141" t="n">
         <v>0.06366823784893888</v>
       </c>
       <c r="L141" t="n">
-        <v>0.07109555918820532</v>
+        <v>0.06977079951371684</v>
       </c>
       <c r="M141" t="n">
-        <v>0.06342560624523069</v>
+        <v>0.06349407225781165</v>
       </c>
       <c r="N141" t="n">
-        <v>0.1049841816312226</v>
+        <v>0.1080432028554934</v>
       </c>
       <c r="O141" t="n">
-        <v>0.06346413244272707</v>
+        <v>0.06339056923633948</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.03368670445304478</v>
+        <v>0.07499224991076951</v>
       </c>
       <c r="G142" t="n">
-        <v>0.06450597782063544</v>
+        <v>0.04282520686057409</v>
       </c>
       <c r="J142" t="n">
-        <v>0.03368670445304478</v>
+        <v>0.03361903285301872</v>
       </c>
       <c r="K142" t="n">
         <v>0.06450597782063544</v>
       </c>
       <c r="L142" t="n">
-        <v>0.06819649155241198</v>
+        <v>0.06839299320091724</v>
       </c>
       <c r="M142" t="n">
-        <v>0.06426015369582583</v>
+        <v>0.06432952057699338</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1066860591100459</v>
+        <v>0.1041488725827981</v>
       </c>
       <c r="O142" t="n">
-        <v>0.06429918681697348</v>
+        <v>0.06422465567365974</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.03355512922765963</v>
+        <v>0.07508262947923214</v>
       </c>
       <c r="G143" t="n">
-        <v>0.065343717792332</v>
+        <v>0.04338137837824388</v>
       </c>
       <c r="J143" t="n">
-        <v>0.03355512922765963</v>
+        <v>0.03350477586743486</v>
       </c>
       <c r="K143" t="n">
         <v>0.065343717792332</v>
       </c>
       <c r="L143" t="n">
-        <v>0.06955350087504633</v>
+        <v>0.06794484051755345</v>
       </c>
       <c r="M143" t="n">
-        <v>0.06509470114642098</v>
+        <v>0.06516496889617511</v>
       </c>
       <c r="N143" t="n">
-        <v>0.1091140705420559</v>
+        <v>0.1047544876087174</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06513424119121988</v>
+        <v>0.06505874211097999</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.03389847310784767</v>
+        <v>0.0751677072431081</v>
       </c>
       <c r="G144" t="n">
-        <v>0.06618145776402858</v>
+        <v>0.04393754989591368</v>
       </c>
       <c r="J144" t="n">
-        <v>0.03389847310784767</v>
+        <v>0.03390606554667293</v>
       </c>
       <c r="K144" t="n">
         <v>0.06618145776402858</v>
       </c>
       <c r="L144" t="n">
-        <v>0.06780385523168034</v>
+        <v>0.06907091207353971</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06592924859701611</v>
+        <v>0.06600041721535685</v>
       </c>
       <c r="N144" t="n">
-        <v>0.103337617248893</v>
+        <v>0.1074493366291081</v>
       </c>
       <c r="O144" t="n">
-        <v>0.0659692955654663</v>
+        <v>0.06589282854830025</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.03310825224088776</v>
+        <v>0.07524759035472789</v>
       </c>
       <c r="G145" t="n">
-        <v>0.06701919773572514</v>
+        <v>0.04449372141358347</v>
       </c>
       <c r="J145" t="n">
-        <v>0.03310825224088776</v>
+        <v>0.03399028343943625</v>
       </c>
       <c r="K145" t="n">
         <v>0.06701919773572514</v>
       </c>
       <c r="L145" t="n">
-        <v>0.07070556535964517</v>
+        <v>0.07044362498483389</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06676379604761125</v>
+        <v>0.06683586553453857</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1051373735180289</v>
+        <v>0.1024407115841412</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06680434993971271</v>
+        <v>0.0667269149856205</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.03454087950157243</v>
+        <v>0.075322385966422</v>
       </c>
       <c r="G146" t="n">
-        <v>0.0678569377074217</v>
+        <v>0.04504989293125326</v>
       </c>
       <c r="J146" t="n">
-        <v>0.03454087950157243</v>
+        <v>0.03448095739432006</v>
       </c>
       <c r="K146" t="n">
         <v>0.0678569377074217</v>
       </c>
       <c r="L146" t="n">
-        <v>0.07202519989546374</v>
+        <v>0.0697012391507256</v>
       </c>
       <c r="M146" t="n">
-        <v>0.0675983434982064</v>
+        <v>0.0676713138537203</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1067972612958595</v>
+        <v>0.1030835092612403</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06763940431395911</v>
+        <v>0.06756100142294076</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.03421448921610101</v>
+        <v>0.07539220123052096</v>
       </c>
       <c r="G147" t="n">
-        <v>0.06869467767911827</v>
+        <v>0.04560606444892305</v>
       </c>
       <c r="J147" t="n">
-        <v>0.03421448921610101</v>
+        <v>0.03463462816396391</v>
       </c>
       <c r="K147" t="n">
         <v>0.06869467767911827</v>
       </c>
       <c r="L147" t="n">
-        <v>0.07265976220768341</v>
+        <v>0.07191054231096025</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06843289094880153</v>
+        <v>0.06850676217290204</v>
       </c>
       <c r="N147" t="n">
-        <v>0.1058717749666233</v>
+        <v>0.1099168593743368</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06847445868820552</v>
+        <v>0.06839508786026102</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.03505541613339314</v>
+        <v>0.07545714329935518</v>
       </c>
       <c r="G148" t="n">
-        <v>0.06953241765081483</v>
+        <v>0.04616223596659284</v>
       </c>
       <c r="J148" t="n">
-        <v>0.03505541613339314</v>
+        <v>0.03368097052719277</v>
       </c>
       <c r="K148" t="n">
         <v>0.06953241765081483</v>
       </c>
       <c r="L148" t="n">
-        <v>0.07142064442847576</v>
+        <v>0.07158529218221524</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06926743839939668</v>
+        <v>0.06934221049208376</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1047570577217618</v>
+        <v>0.106451715474165</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06930951306245194</v>
+        <v>0.06922917429758128</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.0347998211738143</v>
+        <v>0.07551731932525522</v>
       </c>
       <c r="G149" t="n">
-        <v>0.07037015762251139</v>
+        <v>0.04671840748426264</v>
       </c>
       <c r="J149" t="n">
-        <v>0.0347998211738143</v>
+        <v>0.03403056853157745</v>
       </c>
       <c r="K149" t="n">
         <v>0.07037015762251139</v>
       </c>
       <c r="L149" t="n">
-        <v>0.07078958302133267</v>
+        <v>0.07220936280162116</v>
       </c>
       <c r="M149" t="n">
-        <v>0.07010198584999182</v>
+        <v>0.0701776588112655</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1062689851112151</v>
+        <v>0.1100586506731409</v>
       </c>
       <c r="O149" t="n">
-        <v>0.07014456743669834</v>
+        <v>0.07006326073490154</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.03387054723828577</v>
+        <v>0.0755728364605515</v>
       </c>
       <c r="G150" t="n">
-        <v>0.07120789759420797</v>
+        <v>0.04727457900193243</v>
       </c>
       <c r="J150" t="n">
-        <v>0.03387054723828577</v>
+        <v>0.03495436628966737</v>
       </c>
       <c r="K150" t="n">
         <v>0.07120789759420797</v>
       </c>
       <c r="L150" t="n">
-        <v>0.06921181789967235</v>
+        <v>0.07133250237592856</v>
       </c>
       <c r="M150" t="n">
-        <v>0.07093653330058695</v>
+        <v>0.07101310713044723</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1081941397170432</v>
+        <v>0.1103453869632111</v>
       </c>
       <c r="O150" t="n">
-        <v>0.07097962181094475</v>
+        <v>0.07089734717222179</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.03453082560729051</v>
+        <v>0.0756238018575745</v>
       </c>
       <c r="G151" t="n">
-        <v>0.07204563756590453</v>
+        <v>0.04783075051960223</v>
       </c>
       <c r="J151" t="n">
-        <v>0.03453082560729051</v>
+        <v>0.03379401295931105</v>
       </c>
       <c r="K151" t="n">
         <v>0.07204563756590453</v>
       </c>
       <c r="L151" t="n">
-        <v>0.07255046403024965</v>
+        <v>0.07155187919539679</v>
       </c>
       <c r="M151" t="n">
-        <v>0.0717710807511821</v>
+        <v>0.07184855544962897</v>
       </c>
       <c r="N151" t="n">
-        <v>0.1105319805926583</v>
+        <v>0.1068915080177439</v>
       </c>
       <c r="O151" t="n">
-        <v>0.07181467618519116</v>
+        <v>0.07173143360954205</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.03484122993545682</v>
+        <v>0.0756703226686548</v>
       </c>
       <c r="G152" t="n">
-        <v>0.07288337753760109</v>
+        <v>0.04838692203727202</v>
       </c>
       <c r="J152" t="n">
-        <v>0.03484122993545682</v>
+        <v>0.03396453019519395</v>
       </c>
       <c r="K152" t="n">
         <v>0.07288337753760109</v>
       </c>
       <c r="L152" t="n">
-        <v>0.06866565013686601</v>
+        <v>0.07232502692645626</v>
       </c>
       <c r="M152" t="n">
-        <v>0.07260562820177724</v>
+        <v>0.07268400376881069</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1083417672339096</v>
+        <v>0.1112001051495613</v>
       </c>
       <c r="O152" t="n">
-        <v>0.07264973055943756</v>
+        <v>0.0725655200468623</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.03459356130236961</v>
+        <v>0.07571250604612279</v>
       </c>
       <c r="G153" t="n">
-        <v>0.07372111750929766</v>
+        <v>0.04894309355494181</v>
       </c>
       <c r="J153" t="n">
-        <v>0.03459356130236961</v>
+        <v>0.03493632924887161</v>
       </c>
       <c r="K153" t="n">
         <v>0.07372111750929766</v>
       </c>
       <c r="L153" t="n">
-        <v>0.07319700252564587</v>
+        <v>0.07131145352693277</v>
       </c>
       <c r="M153" t="n">
-        <v>0.07344017565237237</v>
+        <v>0.07351945208799243</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1087428587794101</v>
+        <v>0.1062935470253109</v>
       </c>
       <c r="O153" t="n">
-        <v>0.07348478493368397</v>
+        <v>0.07339960648418256</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.03460376052703251</v>
+        <v>0.07575045914230902</v>
       </c>
       <c r="G154" t="n">
-        <v>0.07455885748099422</v>
+        <v>0.0494992650726116</v>
       </c>
       <c r="J154" t="n">
-        <v>0.03460376052703251</v>
+        <v>0.03423956374030088</v>
       </c>
       <c r="K154" t="n">
         <v>0.07455885748099422</v>
       </c>
       <c r="L154" t="n">
-        <v>0.07130843781436472</v>
+        <v>0.07120617066963866</v>
       </c>
       <c r="M154" t="n">
-        <v>0.07427472310296752</v>
+        <v>0.07435490040717416</v>
       </c>
       <c r="N154" t="n">
-        <v>0.1107033456249031</v>
+        <v>0.1053611987224862</v>
       </c>
       <c r="O154" t="n">
-        <v>0.07431983930793039</v>
+        <v>0.07423369292150281</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.03529919130764236</v>
+        <v>0.07578428910954389</v>
       </c>
       <c r="G155" t="n">
-        <v>0.07539659745269078</v>
+        <v>0.05005543659028139</v>
       </c>
       <c r="J155" t="n">
-        <v>0.03529919130764236</v>
+        <v>0.03514326247079819</v>
       </c>
       <c r="K155" t="n">
         <v>0.07539659745269078</v>
       </c>
       <c r="L155" t="n">
-        <v>0.07327528659841523</v>
+        <v>0.06874172879264581</v>
       </c>
       <c r="M155" t="n">
-        <v>0.07510927055356266</v>
+        <v>0.0751903487263559</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1050836483443701</v>
+        <v>0.1098112720496024</v>
       </c>
       <c r="O155" t="n">
-        <v>0.07515489368217679</v>
+        <v>0.07506777935882307</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.03436426481453286</v>
+        <v>0.07581410310015796</v>
       </c>
       <c r="G156" t="n">
-        <v>0.07623433742438734</v>
+        <v>0.05061160810795119</v>
       </c>
       <c r="J156" t="n">
-        <v>0.03436426481453286</v>
+        <v>0.03396251896752037</v>
       </c>
       <c r="K156" t="n">
         <v>0.07623433742438734</v>
       </c>
       <c r="L156" t="n">
-        <v>0.0707652548914034</v>
+        <v>0.07006895858001344</v>
       </c>
       <c r="M156" t="n">
-        <v>0.0759438180041578</v>
+        <v>0.07602579704553762</v>
       </c>
       <c r="N156" t="n">
-        <v>0.1046945943889823</v>
+        <v>0.1062085025947588</v>
       </c>
       <c r="O156" t="n">
-        <v>0.0759899480564232</v>
+        <v>0.07590186579614333</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.03545592431853101</v>
+        <v>0.07584000826648171</v>
       </c>
       <c r="G157" t="n">
-        <v>0.0770720773960839</v>
+        <v>0.05116777962562098</v>
       </c>
       <c r="J157" t="n">
-        <v>0.03545592431853101</v>
+        <v>0.03516082355912924</v>
       </c>
       <c r="K157" t="n">
         <v>0.0770720773960839</v>
       </c>
       <c r="L157" t="n">
-        <v>0.07071813839008811</v>
+        <v>0.07272908617375981</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07677836545475294</v>
+        <v>0.07686124536471936</v>
       </c>
       <c r="N157" t="n">
-        <v>0.1067315445139659</v>
+        <v>0.1100279344782544</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07682500243066961</v>
+        <v>0.07673595223346359</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.03479329466928766</v>
+        <v>0.07586211176084559</v>
       </c>
       <c r="G158" t="n">
-        <v>0.07790981736778047</v>
+        <v>0.05172395114329078</v>
       </c>
       <c r="J158" t="n">
-        <v>0.03479329466928766</v>
+        <v>0.03487815402021657</v>
       </c>
       <c r="K158" t="n">
         <v>0.07790981736778047</v>
       </c>
       <c r="L158" t="n">
-        <v>0.07224515634251022</v>
+        <v>0.07014213917494189</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07761291290534808</v>
+        <v>0.07769669368390109</v>
       </c>
       <c r="N158" t="n">
-        <v>0.1105633482692903</v>
+        <v>0.1054928535739432</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07766005680491601</v>
+        <v>0.07757003867078384</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.03507910637634801</v>
+        <v>0.07588052073558013</v>
       </c>
       <c r="G159" t="n">
-        <v>0.07874755733947703</v>
+        <v>0.05228012266096057</v>
       </c>
       <c r="J159" t="n">
-        <v>0.03507910637634801</v>
+        <v>0.03504142343952776</v>
       </c>
       <c r="K159" t="n">
         <v>0.07874755733947703</v>
       </c>
       <c r="L159" t="n">
-        <v>0.07342933914942096</v>
+        <v>0.07170390852475647</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07844746035594323</v>
+        <v>0.07853214200308282</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1053198924367533</v>
+        <v>0.109941280281201</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07849511117916243</v>
+        <v>0.0784041251081041</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.03516502502864578</v>
+        <v>0.07589534234301576</v>
       </c>
       <c r="G160" t="n">
-        <v>0.0795852973111736</v>
+        <v>0.05283629417863037</v>
       </c>
       <c r="J160" t="n">
-        <v>0.03516502502864578</v>
+        <v>0.03553202128203908</v>
       </c>
       <c r="K160" t="n">
         <v>0.0795852973111736</v>
       </c>
       <c r="L160" t="n">
-        <v>0.06991706284482155</v>
+        <v>0.07171128164121834</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07928200780653837</v>
+        <v>0.07936759032226455</v>
       </c>
       <c r="N160" t="n">
-        <v>0.1092224130477054</v>
+        <v>0.1064893702423912</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07933016555340884</v>
+        <v>0.07923821154542435</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.03463721361315318</v>
+        <v>0.075906683735483</v>
       </c>
       <c r="G161" t="n">
-        <v>0.08042303728287016</v>
+        <v>0.05339246569630016</v>
       </c>
       <c r="J161" t="n">
-        <v>0.03463721361315318</v>
+        <v>0.03459007689688107</v>
       </c>
       <c r="K161" t="n">
         <v>0.08042303728287016</v>
       </c>
       <c r="L161" t="n">
-        <v>0.07341812141866488</v>
+        <v>0.07070723636756282</v>
       </c>
       <c r="M161" t="n">
-        <v>0.0801165552571335</v>
+        <v>0.08020303864144629</v>
       </c>
       <c r="N161" t="n">
-        <v>0.1102725714829743</v>
+        <v>0.1067626966339269</v>
       </c>
       <c r="O161" t="n">
-        <v>0.08016521992765524</v>
+        <v>0.08007229798274461</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.03462958925534011</v>
+        <v>0.07591465206531234</v>
       </c>
       <c r="G162" t="n">
-        <v>0.08126077725456672</v>
+        <v>0.05394863721396995</v>
       </c>
       <c r="J162" t="n">
-        <v>0.03462958925534011</v>
+        <v>0.03478904265598039</v>
       </c>
       <c r="K162" t="n">
         <v>0.08126077725456672</v>
       </c>
       <c r="L162" t="n">
-        <v>0.07237821081220827</v>
+        <v>0.07343200162490365</v>
       </c>
       <c r="M162" t="n">
-        <v>0.08095110270772865</v>
+        <v>0.08103848696062803</v>
       </c>
       <c r="N162" t="n">
-        <v>0.1093516501465281</v>
+        <v>0.1080679288716643</v>
       </c>
       <c r="O162" t="n">
-        <v>0.08100027430190165</v>
+        <v>0.08090638442006487</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.033963406668906</v>
+        <v>0.07591935448483428</v>
       </c>
       <c r="G163" t="n">
-        <v>0.0820985172262633</v>
+        <v>0.05450480873163974</v>
       </c>
       <c r="J163" t="n">
-        <v>0.033963406668906</v>
+        <v>0.03438151826511181</v>
       </c>
       <c r="K163" t="n">
         <v>0.0820985172262633</v>
       </c>
       <c r="L163" t="n">
-        <v>0.07032625091357839</v>
+        <v>0.07055972387515264</v>
       </c>
       <c r="M163" t="n">
-        <v>0.08178565015832379</v>
+        <v>0.08187393527980975</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1070773982864148</v>
+        <v>0.105756263406527</v>
       </c>
       <c r="O163" t="n">
-        <v>0.08183532867614807</v>
+        <v>0.08174047085738512</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.03402892277029297</v>
+        <v>0.07592089814637923</v>
       </c>
       <c r="G164" t="n">
-        <v>0.08293625719795986</v>
+        <v>0.05506098024930954</v>
       </c>
       <c r="J164" t="n">
-        <v>0.03402892277029297</v>
+        <v>0.03485280015633219</v>
       </c>
       <c r="K164" t="n">
         <v>0.08293625719795986</v>
       </c>
       <c r="L164" t="n">
-        <v>0.07013604716580932</v>
+        <v>0.07315548535535954</v>
       </c>
       <c r="M164" t="n">
-        <v>0.08262019760891894</v>
+        <v>0.08270938359899149</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1117433519271392</v>
+        <v>0.1085186137509813</v>
       </c>
       <c r="O164" t="n">
-        <v>0.08267038305039448</v>
+        <v>0.08257455729470538</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.03493632924887161</v>
+        <v>0.07542089814637924</v>
       </c>
       <c r="G165" t="n">
-        <v>0.08377399716965642</v>
+        <v>0.05506098024930954</v>
       </c>
       <c r="J165" t="n">
-        <v>0.03493632924887161</v>
+        <v>0.0353251042639991</v>
       </c>
       <c r="K165" t="n">
         <v>0.08377399716965642</v>
       </c>
       <c r="L165" t="n">
-        <v>0.06985452417295113</v>
+        <v>0.07202519989546374</v>
       </c>
       <c r="M165" t="n">
-        <v>0.08345474505951407</v>
+        <v>0.08354483191817322</v>
       </c>
       <c r="N165" t="n">
-        <v>0.1075724215273858</v>
+        <v>0.1075561848940481</v>
       </c>
       <c r="O165" t="n">
-        <v>0.08350543742464088</v>
+        <v>0.08340864373202564</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.03562199707967001</v>
+        <v>0.07479456727029606</v>
       </c>
       <c r="G166" t="n">
-        <v>0.08461173714135299</v>
+        <v>0.05509510386061089</v>
       </c>
       <c r="J166" t="n">
-        <v>0.03562199707967001</v>
+        <v>0.03445842692214351</v>
       </c>
       <c r="K166" t="n">
         <v>0.08461173714135299</v>
       </c>
       <c r="L166" t="n">
-        <v>0.07195836293289379</v>
+        <v>0.07355751884048772</v>
       </c>
       <c r="M166" t="n">
-        <v>0.08428929251010921</v>
+        <v>0.08438028023735496</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1073849603454921</v>
+        <v>0.1066502435947992</v>
       </c>
       <c r="O166" t="n">
-        <v>0.08434049179888729</v>
+        <v>0.0842427301693459</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.03491776050245264</v>
+        <v>0.07416650187732679</v>
       </c>
       <c r="G167" t="n">
-        <v>0.08544947711304955</v>
+        <v>0.05512834131127913</v>
       </c>
       <c r="J167" t="n">
-        <v>0.03491776050245264</v>
+        <v>0.034557229089939</v>
       </c>
       <c r="K167" t="n">
         <v>0.08544947711304955</v>
       </c>
       <c r="L167" t="n">
-        <v>0.07403854717263517</v>
+        <v>0.07108666554814125</v>
       </c>
       <c r="M167" t="n">
-        <v>0.08512383996070434</v>
+        <v>0.08521572855653668</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1058071925115677</v>
+        <v>0.1101021620037598</v>
       </c>
       <c r="O167" t="n">
-        <v>0.08517554617313371</v>
+        <v>0.08507681660666615</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.03544032932534703</v>
+        <v>0.07353670196747153</v>
       </c>
       <c r="G168" t="n">
-        <v>0.08628721708474611</v>
+        <v>0.05516069260131431</v>
       </c>
       <c r="J168" t="n">
-        <v>0.03544032932534703</v>
+        <v>0.03461273623418547</v>
       </c>
       <c r="K168" t="n">
         <v>0.08628721708474611</v>
       </c>
       <c r="L168" t="n">
-        <v>0.07105434735227723</v>
+        <v>0.07093352847348022</v>
       </c>
       <c r="M168" t="n">
-        <v>0.08595838741129949</v>
+        <v>0.08605117687571842</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1108648854678379</v>
+        <v>0.1054003366492239</v>
       </c>
       <c r="O168" t="n">
-        <v>0.08601060054738011</v>
+        <v>0.08591090304398641</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.03531282888822636</v>
+        <v>0.0729051675407302</v>
       </c>
       <c r="G169" t="n">
-        <v>0.08712495705644267</v>
+        <v>0.05519215773071638</v>
       </c>
       <c r="J169" t="n">
-        <v>0.03531282888822636</v>
+        <v>0.03450608612183328</v>
       </c>
       <c r="K169" t="n">
         <v>0.08712495705644267</v>
       </c>
       <c r="L169" t="n">
-        <v>0.06981227901841489</v>
+        <v>0.07043518586730271</v>
       </c>
       <c r="M169" t="n">
-        <v>0.08679293486189464</v>
+        <v>0.08688662519490015</v>
       </c>
       <c r="N169" t="n">
-        <v>0.112370026206275</v>
+        <v>0.1049537783203552</v>
       </c>
       <c r="O169" t="n">
-        <v>0.08684565492162651</v>
+        <v>0.08674498948130666</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.03416470277647524</v>
+        <v>0.07227189859710287</v>
       </c>
       <c r="G170" t="n">
-        <v>0.08796269702813925</v>
+        <v>0.05522273669948537</v>
       </c>
       <c r="J170" t="n">
-        <v>0.03416470277647524</v>
+        <v>0.03476569980711884</v>
       </c>
       <c r="K170" t="n">
         <v>0.08796269702813925</v>
       </c>
       <c r="L170" t="n">
-        <v>0.07066613586170195</v>
+        <v>0.07001291037675766</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08762748231248978</v>
+        <v>0.08772207351408189</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1048582958665847</v>
+        <v>0.1094801054687867</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08768070929587293</v>
+        <v>0.08757907591862692</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.03384427410841637</v>
+        <v>0.07163689513658951</v>
       </c>
       <c r="G171" t="n">
-        <v>0.08880043699983581</v>
+        <v>0.05525242950762128</v>
       </c>
       <c r="J171" t="n">
-        <v>0.03384427410841637</v>
+        <v>0.03423107269876803</v>
       </c>
       <c r="K171" t="n">
         <v>0.08880043699983581</v>
       </c>
       <c r="L171" t="n">
-        <v>0.07390480981387554</v>
+        <v>0.07042140747120967</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08846202976308491</v>
+        <v>0.08855752183326361</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1116313778771837</v>
+        <v>0.1091140705420559</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08851576367011933</v>
+        <v>0.08841316235594716</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.03415427842550685</v>
+        <v>0.0710001571591901</v>
       </c>
       <c r="G172" t="n">
-        <v>0.08963817697153237</v>
+        <v>0.05528123615512407</v>
       </c>
       <c r="J172" t="n">
-        <v>0.03415427842550685</v>
+        <v>0.03467594041765455</v>
       </c>
       <c r="K172" t="n">
         <v>0.08963817697153237</v>
       </c>
       <c r="L172" t="n">
-        <v>0.07067095435245549</v>
+        <v>0.07089420599789426</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08929657721368005</v>
+        <v>0.08939297015244535</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1072929032061297</v>
+        <v>0.1091930472652479</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08935081804436573</v>
+        <v>0.08924724879326744</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.03451350596980235</v>
+        <v>0.07036168466490468</v>
       </c>
       <c r="G173" t="n">
-        <v>0.09047591694322894</v>
+        <v>0.0553091566419938</v>
       </c>
       <c r="J173" t="n">
-        <v>0.03451350596980235</v>
+        <v>0.03433335690819871</v>
       </c>
       <c r="K173" t="n">
         <v>0.09047591694322894</v>
       </c>
       <c r="L173" t="n">
-        <v>0.07039949069195661</v>
+        <v>0.07368602809617764</v>
       </c>
       <c r="M173" t="n">
-        <v>0.0901311246642752</v>
+        <v>0.09022841847162708</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1063502391897733</v>
+        <v>0.1079013503387016</v>
       </c>
       <c r="O173" t="n">
-        <v>0.09018587241861216</v>
+        <v>0.09008133523058769</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.03466822772210575</v>
+        <v>0.06972147765373318</v>
       </c>
       <c r="G174" t="n">
-        <v>0.0913136569149255</v>
+        <v>0.05533619096823043</v>
       </c>
       <c r="J174" t="n">
-        <v>0.03466822772210575</v>
+        <v>0.03454938843543745</v>
       </c>
       <c r="K174" t="n">
         <v>0.0913136569149255</v>
       </c>
       <c r="L174" t="n">
-        <v>0.07125788702266345</v>
+        <v>0.07001723115299507</v>
       </c>
       <c r="M174" t="n">
-        <v>0.09096567211487033</v>
+        <v>0.09106386679080881</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1106949085255945</v>
+        <v>0.1105458607264786</v>
       </c>
       <c r="O174" t="n">
-        <v>0.09102092679285856</v>
+        <v>0.09091542166790795</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.03480524748915213</v>
+        <v>0.0690795361256757</v>
       </c>
       <c r="G175" t="n">
-        <v>0.09215139688662206</v>
+        <v>0.05536233913383397</v>
       </c>
       <c r="J175" t="n">
-        <v>0.03480524748915213</v>
+        <v>0.03488827227273862</v>
       </c>
       <c r="K175" t="n">
         <v>0.09215139688662206</v>
       </c>
       <c r="L175" t="n">
-        <v>0.07193839157450307</v>
+        <v>0.07014234963211063</v>
       </c>
       <c r="M175" t="n">
-        <v>0.09180021956546548</v>
+        <v>0.09189931510999054</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1054896280272158</v>
+        <v>0.1064068547638641</v>
       </c>
       <c r="O175" t="n">
-        <v>0.09185598116710497</v>
+        <v>0.09174950810522819</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.03467479560754351</v>
+        <v>0.06843586008073217</v>
       </c>
       <c r="G176" t="n">
-        <v>0.09298913685831862</v>
+        <v>0.05538760113880441</v>
       </c>
       <c r="J176" t="n">
-        <v>0.03467479560754351</v>
+        <v>0.03472755496370147</v>
       </c>
       <c r="K176" t="n">
         <v>0.09298913685831862</v>
       </c>
       <c r="L176" t="n">
-        <v>0.07269378826869663</v>
+        <v>0.07084329786035354</v>
       </c>
       <c r="M176" t="n">
-        <v>0.09263476701606062</v>
+        <v>0.09273476342917228</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1080146352709873</v>
+        <v>0.1075242588984944</v>
       </c>
       <c r="O176" t="n">
-        <v>0.09269103554135139</v>
+        <v>0.09258359454254846</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.03417888735084303</v>
+        <v>0.0677904495189026</v>
       </c>
       <c r="G177" t="n">
-        <v>0.09382687683001519</v>
+        <v>0.05541197698314178</v>
       </c>
       <c r="J177" t="n">
-        <v>0.03417888735084303</v>
+        <v>0.03414677207686062</v>
       </c>
       <c r="K177" t="n">
         <v>0.09382687683001519</v>
       </c>
       <c r="L177" t="n">
-        <v>0.07026493877424131</v>
+        <v>0.07352828244389822</v>
       </c>
       <c r="M177" t="n">
-        <v>0.09346931446665575</v>
+        <v>0.093570211748354</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1063209464535324</v>
+        <v>0.1087065299875813</v>
       </c>
       <c r="O177" t="n">
-        <v>0.09352608991559778</v>
+        <v>0.09341768097986872</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.03389645073796252</v>
+        <v>0.06714330444018703</v>
       </c>
       <c r="G178" t="n">
-        <v>0.09466461680171175</v>
+        <v>0.05543546666684606</v>
       </c>
       <c r="J178" t="n">
-        <v>0.03389645073796252</v>
+        <v>0.03461581850603032</v>
       </c>
       <c r="K178" t="n">
         <v>0.09466461680171175</v>
       </c>
       <c r="L178" t="n">
-        <v>0.06962127628994702</v>
+        <v>0.0725625311475476</v>
       </c>
       <c r="M178" t="n">
-        <v>0.09430386191725089</v>
+        <v>0.09440566006753573</v>
       </c>
       <c r="N178" t="n">
-        <v>0.1099845705648871</v>
+        <v>0.1067722415102851</v>
       </c>
       <c r="O178" t="n">
-        <v>0.0943611442898442</v>
+        <v>0.09425176741718896</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.03403099116401788</v>
+        <v>0.06649442484458537</v>
       </c>
       <c r="G179" t="n">
-        <v>0.09550235677340832</v>
+        <v>0.05545807018991724</v>
       </c>
       <c r="J179" t="n">
-        <v>0.03403099116401788</v>
+        <v>0.03418369111778485</v>
       </c>
       <c r="K179" t="n">
         <v>0.09550235677340832</v>
       </c>
       <c r="L179" t="n">
-        <v>0.071493914764095</v>
+        <v>0.07219468656057421</v>
       </c>
       <c r="M179" t="n">
-        <v>0.09513840936784604</v>
+        <v>0.09524110838671747</v>
       </c>
       <c r="N179" t="n">
-        <v>0.108282137974901</v>
+        <v>0.1110921787245164</v>
       </c>
       <c r="O179" t="n">
-        <v>0.09519619866409061</v>
+        <v>0.09508585385450923</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.03441936790876295</v>
+        <v>0.06584381073209773</v>
       </c>
       <c r="G180" t="n">
-        <v>0.09634009674510488</v>
+        <v>0.05547978755235534</v>
       </c>
       <c r="J180" t="n">
-        <v>0.03441936790876295</v>
+        <v>0.03419704752625062</v>
       </c>
       <c r="K180" t="n">
         <v>0.09634009674510488</v>
       </c>
       <c r="L180" t="n">
-        <v>0.07323155083823912</v>
+        <v>0.07395529676585375</v>
       </c>
       <c r="M180" t="n">
-        <v>0.09597295681844119</v>
+        <v>0.09607655670589919</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1055891320829058</v>
+        <v>0.1052288373740744</v>
       </c>
       <c r="O180" t="n">
-        <v>0.09603125303833701</v>
+        <v>0.09591994029182949</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.03437593556083017</v>
+        <v>0.06519146210272403</v>
       </c>
       <c r="G181" t="n">
-        <v>0.09717783671680144</v>
+        <v>0.05550061875416033</v>
       </c>
       <c r="J181" t="n">
-        <v>0.03437593556083017</v>
+        <v>0.03398264625625995</v>
       </c>
       <c r="K181" t="n">
         <v>0.09717783671680144</v>
       </c>
       <c r="L181" t="n">
-        <v>0.06963512465241339</v>
+        <v>0.07278560054202471</v>
       </c>
       <c r="M181" t="n">
-        <v>0.09680750426903632</v>
+        <v>0.09691200502508093</v>
       </c>
       <c r="N181" t="n">
-        <v>0.105141857047898</v>
+        <v>0.1112108471871874</v>
       </c>
       <c r="O181" t="n">
-        <v>0.09686630741258342</v>
+        <v>0.09675402672914975</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.03382536345985809</v>
+        <v>0.06453737895646432</v>
       </c>
       <c r="G182" t="n">
-        <v>0.09801557668849802</v>
+        <v>0.05552056379533226</v>
       </c>
       <c r="J182" t="n">
-        <v>0.03382536345985809</v>
+        <v>0.03482243877134147</v>
       </c>
       <c r="K182" t="n">
         <v>0.09801557668849802</v>
       </c>
       <c r="L182" t="n">
-        <v>0.07258989947856528</v>
+        <v>0.07293494988330626</v>
       </c>
       <c r="M182" t="n">
-        <v>0.09764205171963146</v>
+        <v>0.09774745334426266</v>
       </c>
       <c r="N182" t="n">
-        <v>0.109519772811227</v>
+        <v>0.1090473461722833</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09770136178682982</v>
+        <v>0.09758811316646999</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.03445610247020024</v>
+        <v>0.06388156129331854</v>
       </c>
       <c r="G183" t="n">
-        <v>0.09885331666019458</v>
+        <v>0.05553962267587108</v>
       </c>
       <c r="J183" t="n">
-        <v>0.03445610247020024</v>
+        <v>0.03466284277957583</v>
       </c>
       <c r="K183" t="n">
         <v>0.09885331666019458</v>
       </c>
       <c r="L183" t="n">
-        <v>0.07093206286581757</v>
+        <v>0.069460044701774</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09847659917022659</v>
+        <v>0.0985829016634444</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1065902979375466</v>
+        <v>0.1050724311874978</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09853641616107624</v>
+        <v>0.09842219960379026</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.03382987784006358</v>
+        <v>0.06322400911328677</v>
       </c>
       <c r="G184" t="n">
-        <v>0.09969105663189114</v>
+        <v>0.05555779539577682</v>
       </c>
       <c r="J184" t="n">
-        <v>0.03382987784006358</v>
+        <v>0.03495728364584674</v>
       </c>
       <c r="K184" t="n">
         <v>0.09969105663189114</v>
       </c>
       <c r="L184" t="n">
-        <v>0.07298640950160268</v>
+        <v>0.07164665589130137</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09931114662082174</v>
+        <v>0.09941834998262612</v>
       </c>
       <c r="N184" t="n">
-        <v>0.10615914034679</v>
+        <v>0.106745818989206</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09937147053532265</v>
+        <v>0.0992562860411105</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.03466289712937637</v>
+        <v>0.06256472241636896</v>
       </c>
       <c r="G185" t="n">
-        <v>0.1005287966035877</v>
+        <v>0.05557508195504948</v>
       </c>
       <c r="J185" t="n">
-        <v>0.03466289712937637</v>
+        <v>0.03401030119619332</v>
       </c>
       <c r="K185" t="n">
         <v>0.1005287966035877</v>
       </c>
       <c r="L185" t="n">
-        <v>0.07039465793160121</v>
+        <v>0.06992205508330146</v>
       </c>
       <c r="M185" t="n">
-        <v>0.1001456940714169</v>
+        <v>0.1002537983018079</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1049510913465262</v>
+        <v>0.1059299928500508</v>
       </c>
       <c r="O185" t="n">
-        <v>0.1002065249095691</v>
+        <v>0.1000903724784308</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.03491728754961466</v>
+        <v>0.0619037012025651</v>
       </c>
       <c r="G186" t="n">
-        <v>0.1013665365752843</v>
+        <v>0.05559148235368903</v>
       </c>
       <c r="J186" t="n">
-        <v>0.03491728754961466</v>
+        <v>0.0338411193527841</v>
       </c>
       <c r="K186" t="n">
         <v>0.1013665365752843</v>
       </c>
       <c r="L186" t="n">
-        <v>0.07005496701573025</v>
+        <v>0.06899222872681954</v>
       </c>
       <c r="M186" t="n">
-        <v>0.100980241522012</v>
+        <v>0.1010892466209896</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1082382006012932</v>
+        <v>0.1060547016718615</v>
       </c>
       <c r="O186" t="n">
-        <v>0.1010415792838155</v>
+        <v>0.100924458915751</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.03451884671374703</v>
+        <v>0.06124094547187522</v>
       </c>
       <c r="G187" t="n">
-        <v>0.1022042765469808</v>
+        <v>0.0556069965916955</v>
       </c>
       <c r="J187" t="n">
-        <v>0.03451884671374703</v>
+        <v>0.03453231877954582</v>
       </c>
       <c r="K187" t="n">
         <v>0.1022042765469808</v>
       </c>
       <c r="L187" t="n">
-        <v>0.06992259055359987</v>
+        <v>0.07117688459517252</v>
       </c>
       <c r="M187" t="n">
-        <v>0.1018147889726072</v>
+        <v>0.1019246949401713</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1086499826321162</v>
+        <v>0.1076552453094043</v>
       </c>
       <c r="O187" t="n">
-        <v>0.1018766336580619</v>
+        <v>0.1017585453530713</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.03445384920547348</v>
+        <v>0.0605764552242993</v>
       </c>
       <c r="G188" t="n">
-        <v>0.1030420165186774</v>
+        <v>0.05562162466906889</v>
       </c>
       <c r="J188" t="n">
-        <v>0.03445384920547348</v>
+        <v>0.03418278897960941</v>
       </c>
       <c r="K188" t="n">
         <v>0.1030420165186774</v>
       </c>
       <c r="L188" t="n">
-        <v>0.0720389482786605</v>
+        <v>0.07084472809495179</v>
       </c>
       <c r="M188" t="n">
-        <v>0.1026493364232023</v>
+        <v>0.1027601432593531</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1070233382413944</v>
+        <v>0.1101668723799099</v>
       </c>
       <c r="O188" t="n">
-        <v>0.1027116880323083</v>
+        <v>0.1025926317903915</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.03509823781958468</v>
+        <v>0.05991023045983734</v>
       </c>
       <c r="G189" t="n">
-        <v>0.103879756490374</v>
+        <v>0.05563536658580918</v>
       </c>
       <c r="J189" t="n">
-        <v>0.03509823781958468</v>
+        <v>0.0352083349459917</v>
       </c>
       <c r="K189" t="n">
         <v>0.103879756490374</v>
       </c>
       <c r="L189" t="n">
-        <v>0.0706319532500963</v>
+        <v>0.06904992494675521</v>
       </c>
       <c r="M189" t="n">
-        <v>0.1034838838737974</v>
+        <v>0.1035955915785348</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1059543582273452</v>
+        <v>0.1052499200381924</v>
       </c>
       <c r="O189" t="n">
-        <v>0.1035467424065547</v>
+        <v>0.1034267182277118</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.03424169692537408</v>
+        <v>0.05924227117848935</v>
       </c>
       <c r="G190" t="n">
-        <v>0.1047174964620705</v>
+        <v>0.05564822234191637</v>
       </c>
       <c r="J190" t="n">
-        <v>0.03424169692537408</v>
+        <v>0.03421104398925059</v>
       </c>
       <c r="K190" t="n">
         <v>0.1047174964620705</v>
       </c>
       <c r="L190" t="n">
-        <v>0.07018911423983837</v>
+        <v>0.06905024493895104</v>
       </c>
       <c r="M190" t="n">
-        <v>0.1043184313243926</v>
+        <v>0.1044310398977165</v>
       </c>
       <c r="N190" t="n">
-        <v>0.1045429692205727</v>
+        <v>0.1079555196189606</v>
       </c>
       <c r="O190" t="n">
-        <v>0.1043817967808011</v>
+        <v>0.104260804665032</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.03417040209771732</v>
+        <v>0.05857257738025537</v>
       </c>
       <c r="G191" t="n">
-        <v>0.1055552364337671</v>
+        <v>0.05566019193739049</v>
       </c>
       <c r="J191" t="n">
-        <v>0.03417040209771732</v>
+        <v>0.03431431839714218</v>
       </c>
       <c r="K191" t="n">
         <v>0.1055552364337671</v>
       </c>
       <c r="L191" t="n">
-        <v>0.0712259727851306</v>
+        <v>0.07027865663989236</v>
       </c>
       <c r="M191" t="n">
-        <v>0.1051529787749877</v>
+        <v>0.1052664882168983</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1059802311946538</v>
+        <v>0.1075802812200282</v>
       </c>
       <c r="O191" t="n">
-        <v>0.1052168511550475</v>
+        <v>0.1050948911023523</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.03370999687118002</v>
+        <v>0.05790114906513533</v>
       </c>
       <c r="G192" t="n">
-        <v>0.1063929764054637</v>
+        <v>0.05567127537223151</v>
       </c>
       <c r="J192" t="n">
-        <v>0.03370999687118002</v>
+        <v>0.03361846081754148</v>
       </c>
       <c r="K192" t="n">
         <v>0.1063929764054637</v>
       </c>
       <c r="L192" t="n">
-        <v>0.06981921695536475</v>
+        <v>0.06960130488293678</v>
       </c>
       <c r="M192" t="n">
-        <v>0.1059875262255829</v>
+        <v>0.10610193653608</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1055551429142109</v>
+        <v>0.1054790100130855</v>
       </c>
       <c r="O192" t="n">
-        <v>0.1060519055292939</v>
+        <v>0.1059289775396726</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.03349270900667493</v>
+        <v>0.05722798623312925</v>
       </c>
       <c r="G193" t="n">
-        <v>0.1072307163771602</v>
+        <v>0.05568147264643945</v>
       </c>
       <c r="J193" t="n">
-        <v>0.03349270900667493</v>
+        <v>0.03394966783179719</v>
       </c>
       <c r="K193" t="n">
         <v>0.1072307163771602</v>
       </c>
       <c r="L193" t="n">
-        <v>0.07173145548157353</v>
+        <v>0.07277314753676042</v>
       </c>
       <c r="M193" t="n">
-        <v>0.106822073676178</v>
+        <v>0.1069373848552617</v>
       </c>
       <c r="N193" t="n">
-        <v>0.1094820624092253</v>
+        <v>0.1087329073980435</v>
       </c>
       <c r="O193" t="n">
-        <v>0.1068869599035403</v>
+        <v>0.1067630639769928</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.03401206182214382</v>
+        <v>0.05655308888423713</v>
       </c>
       <c r="G194" t="n">
-        <v>0.1080684563488568</v>
+        <v>0.05569078376001429</v>
       </c>
       <c r="J194" t="n">
-        <v>0.03401206182214382</v>
+        <v>0.03460581701543847</v>
       </c>
       <c r="K194" t="n">
         <v>0.1080684563488568</v>
       </c>
       <c r="L194" t="n">
-        <v>0.07058898386287168</v>
+        <v>0.06884161625360694</v>
       </c>
       <c r="M194" t="n">
-        <v>0.1076566211267731</v>
+        <v>0.1077728331744434</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1069706554573236</v>
+        <v>0.1106689946756291</v>
       </c>
       <c r="O194" t="n">
-        <v>0.1077220142777867</v>
+        <v>0.1075971504143131</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.03500382762028949</v>
+        <v>0.05587645701845902</v>
       </c>
       <c r="G195" t="n">
-        <v>0.1089061963205533</v>
+        <v>0.05569920871295606</v>
       </c>
       <c r="J195" t="n">
-        <v>0.03500382762028949</v>
+        <v>0.03413108462651074</v>
       </c>
       <c r="K195" t="n">
         <v>0.1089061963205533</v>
       </c>
       <c r="L195" t="n">
-        <v>0.06998573060047922</v>
+        <v>0.07311127219569458</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1084911685773683</v>
+        <v>0.1086082814936252</v>
       </c>
       <c r="N195" t="n">
-        <v>0.1056900688156561</v>
+        <v>0.1089496138814562</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1085570686520331</v>
+        <v>0.1084312368516333</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.03388615424391773</v>
+        <v>0.05519809063579482</v>
       </c>
       <c r="G196" t="n">
-        <v>0.1097439362922499</v>
+        <v>0.05570674750526471</v>
       </c>
       <c r="J196" t="n">
-        <v>0.03388615424391773</v>
+        <v>0.03423837699121639</v>
       </c>
       <c r="K196" t="n">
         <v>0.1097439362922499</v>
       </c>
       <c r="L196" t="n">
-        <v>0.06985106812234582</v>
+        <v>0.071489394607927</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1093257160279634</v>
+        <v>0.1094437298128069</v>
       </c>
       <c r="N196" t="n">
-        <v>0.1081257126436191</v>
+        <v>0.1093728982109463</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1093921230262796</v>
+        <v>0.1092653232889536</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.03463878018668616</v>
+        <v>0.05451798973624461</v>
       </c>
       <c r="G197" t="n">
-        <v>0.1105816762639465</v>
+        <v>0.05571340013694029</v>
       </c>
       <c r="J197" t="n">
-        <v>0.03463878018668616</v>
+        <v>0.03390873182708677</v>
       </c>
       <c r="K197" t="n">
         <v>0.1105816762639465</v>
       </c>
       <c r="L197" t="n">
-        <v>0.0687383602218947</v>
+        <v>0.07270274509044913</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1101602634785586</v>
+        <v>0.1102791781319886</v>
       </c>
       <c r="N197" t="n">
-        <v>0.1106735831860481</v>
+        <v>0.1105901278402339</v>
       </c>
       <c r="O197" t="n">
-        <v>0.110227177400526</v>
+        <v>0.1100994097262738</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.03496676578874175</v>
+        <v>0.0538361543198084</v>
       </c>
       <c r="G198" t="n">
-        <v>0.111419416235643</v>
+        <v>0.05571916660798278</v>
       </c>
       <c r="J198" t="n">
-        <v>0.03496676578874175</v>
+        <v>0.03371282668735744</v>
       </c>
       <c r="K198" t="n">
         <v>0.111419416235643</v>
       </c>
       <c r="L198" t="n">
-        <v>0.07187688008012652</v>
+        <v>0.07302883190837786</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1109948109291537</v>
+        <v>0.1111146264511704</v>
       </c>
       <c r="N198" t="n">
-        <v>0.1042953032538826</v>
+        <v>0.1063011527786997</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1110622317747724</v>
+        <v>0.1109334961635941</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.03492680385778076</v>
+        <v>0.05315258438648612</v>
       </c>
       <c r="G199" t="n">
-        <v>0.1122571562073396</v>
+        <v>0.05572404691839218</v>
       </c>
       <c r="J199" t="n">
-        <v>0.03492680385778076</v>
+        <v>0.03382251805692668</v>
       </c>
       <c r="K199" t="n">
         <v>0.1122571562073396</v>
       </c>
       <c r="L199" t="n">
-        <v>0.07048940205134166</v>
+        <v>0.07096804240480609</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1118293583797489</v>
+        <v>0.1119500747703521</v>
       </c>
       <c r="N199" t="n">
-        <v>0.1097263287833221</v>
+        <v>0.1102365639945672</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1118972861490188</v>
+        <v>0.1117675826009144</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.0342446149501332</v>
+        <v>0.05246727993627781</v>
       </c>
       <c r="G200" t="n">
-        <v>0.1130948961790362</v>
+        <v>0.05572804106816848</v>
       </c>
       <c r="J200" t="n">
-        <v>0.0342446149501332</v>
+        <v>0.03473895096291083</v>
       </c>
       <c r="K200" t="n">
         <v>0.1130948961790362</v>
       </c>
       <c r="L200" t="n">
-        <v>0.07137751065575579</v>
+        <v>0.07037466251828223</v>
       </c>
       <c r="M200" t="n">
-        <v>0.112663905830344</v>
+        <v>0.1127855230895338</v>
       </c>
       <c r="N200" t="n">
-        <v>0.106197494989872</v>
+        <v>0.108110990128118</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1127323405232652</v>
+        <v>0.1126016690382346</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.03449605110107358</v>
+        <v>0.05178024096918349</v>
       </c>
       <c r="G201" t="n">
-        <v>0.1139326361507327</v>
+        <v>0.05573114905731171</v>
       </c>
       <c r="J201" t="n">
-        <v>0.03449605110107358</v>
+        <v>0.03411454333929222</v>
       </c>
       <c r="K201" t="n">
         <v>0.1139326361507327</v>
       </c>
       <c r="L201" t="n">
-        <v>0.07212491491223053</v>
+        <v>0.07238024273147198</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1134984532809391</v>
+        <v>0.1136209714087156</v>
       </c>
       <c r="N201" t="n">
-        <v>0.1052161995240294</v>
+        <v>0.1095673149862357</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1135673948975116</v>
+        <v>0.1134357554755549</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.03363246788981206</v>
+        <v>0.05109146748520314</v>
       </c>
       <c r="G202" t="n">
-        <v>0.1147703761224293</v>
+        <v>0.05573337088582185</v>
       </c>
       <c r="J202" t="n">
-        <v>0.03363246788981206</v>
+        <v>0.03422941153952237</v>
       </c>
       <c r="K202" t="n">
         <v>0.1147703761224293</v>
       </c>
       <c r="L202" t="n">
-        <v>0.06891348247935775</v>
+        <v>0.06872766022772914</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1143330007315343</v>
+        <v>0.1144564197278973</v>
       </c>
       <c r="N202" t="n">
-        <v>0.1038343058659129</v>
+        <v>0.1042228120546498</v>
       </c>
       <c r="O202" t="n">
-        <v>0.114402449271758</v>
+        <v>0.1142698419128751</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.03488593098451351</v>
+        <v>0.05040095948433673</v>
       </c>
       <c r="G203" t="n">
-        <v>0.1156081160941259</v>
+        <v>0.05573470655369888</v>
       </c>
       <c r="J203" t="n">
-        <v>0.03488593098451351</v>
+        <v>0.03360960641914086</v>
       </c>
       <c r="K203" t="n">
         <v>0.1156081160941259</v>
       </c>
       <c r="L203" t="n">
-        <v>0.06957030188984933</v>
+        <v>0.06866569777640158</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1151675481821294</v>
+        <v>0.115291868047079</v>
       </c>
       <c r="N203" t="n">
-        <v>0.1040465502458804</v>
+        <v>0.1038574783569676</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1152375036460044</v>
+        <v>0.1151039283501954</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.03414337602478787</v>
+        <v>0.04970871696658428</v>
       </c>
       <c r="G204" t="n">
-        <v>0.1164458560658224</v>
+        <v>0.05573515606094282</v>
       </c>
       <c r="J204" t="n">
-        <v>0.03414337602478787</v>
+        <v>0.03496092945496949</v>
       </c>
       <c r="K204" t="n">
         <v>0.1164458560658224</v>
       </c>
       <c r="L204" t="n">
-        <v>0.06883595844277365</v>
+        <v>0.07011883849574779</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1160020956327246</v>
+        <v>0.1161273163662608</v>
       </c>
       <c r="N204" t="n">
-        <v>0.1037883052563633</v>
+        <v>0.1081454674172795</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1160725580202508</v>
+        <v>0.1159380147875156</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.03402048314359814</v>
+        <v>0.04901473993194584</v>
       </c>
       <c r="G205" t="n">
-        <v>0.117283596037519</v>
+        <v>0.0557347194075537</v>
       </c>
       <c r="J205" t="n">
-        <v>0.03402048314359814</v>
+        <v>0.03423992054319014</v>
       </c>
       <c r="K205" t="n">
         <v>0.117283596037519</v>
       </c>
       <c r="L205" t="n">
-        <v>0.06951688090989672</v>
+        <v>0.06965190320281017</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1168366430833197</v>
+        <v>0.1169627646854425</v>
       </c>
       <c r="N205" t="n">
-        <v>0.1031503707196421</v>
+        <v>0.1099803150575058</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1169076123944972</v>
+        <v>0.1167721012248359</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.03426433959192653</v>
+        <v>0.04831902838042135</v>
       </c>
       <c r="G206" t="n">
-        <v>0.1181213360092156</v>
+        <v>0.05573339659353147</v>
       </c>
       <c r="J206" t="n">
-        <v>0.03426433959192653</v>
+        <v>0.03369648195927266</v>
       </c>
       <c r="K206" t="n">
         <v>0.1181213360092156</v>
       </c>
       <c r="L206" t="n">
-        <v>0.06936394714827768</v>
+        <v>0.07115787625470449</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1176711905339148</v>
+        <v>0.1177982130046242</v>
       </c>
       <c r="N206" t="n">
-        <v>0.1065296178807008</v>
+        <v>0.1049457330336986</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1177426667687436</v>
+        <v>0.1176061876621562</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.03347639515526933</v>
+        <v>0.04762158231201082</v>
       </c>
       <c r="G207" t="n">
-        <v>0.1189590759809121</v>
+        <v>0.05573118761887615</v>
       </c>
       <c r="J207" t="n">
-        <v>0.03347639515526933</v>
+        <v>0.03514550886263586</v>
       </c>
       <c r="K207" t="n">
         <v>0.1189590759809121</v>
       </c>
       <c r="L207" t="n">
-        <v>0.07099173474232118</v>
+        <v>0.0724437231506859</v>
       </c>
       <c r="M207" t="n">
-        <v>0.11850573798451</v>
+        <v>0.118633661323806</v>
       </c>
       <c r="N207" t="n">
-        <v>0.1066417077149517</v>
+        <v>0.1069450011652011</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1185777211429901</v>
+        <v>0.1184402740994764</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.03440466960048158</v>
+        <v>0.04692240172671427</v>
       </c>
       <c r="G208" t="n">
-        <v>0.1197968159526087</v>
+        <v>0.05572809248358775</v>
       </c>
       <c r="J208" t="n">
-        <v>0.03440466960048158</v>
+        <v>0.0347167349967992</v>
       </c>
       <c r="K208" t="n">
         <v>0.1197968159526087</v>
       </c>
       <c r="L208" t="n">
-        <v>0.0704708094064605</v>
+        <v>0.07219277588609888</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1193402854351051</v>
+        <v>0.1194691096429877</v>
       </c>
       <c r="N208" t="n">
-        <v>0.1077476775422468</v>
+        <v>0.1074078358926246</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1194127755172365</v>
+        <v>0.1192743605367966</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.0336244284806005</v>
+        <v>0.04622148662453168</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1206345559243052</v>
+        <v>0.05572411118766626</v>
       </c>
       <c r="J209" t="n">
-        <v>0.0336244284806005</v>
+        <v>0.03448333658446333</v>
       </c>
       <c r="K209" t="n">
         <v>0.1206345559243052</v>
       </c>
       <c r="L209" t="n">
-        <v>0.06864137667770975</v>
+        <v>0.07097592169066214</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1201748328857003</v>
+        <v>0.1203045579621694</v>
       </c>
       <c r="N209" t="n">
-        <v>0.1075243693483352</v>
+        <v>0.1073634992043953</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1202478298914829</v>
+        <v>0.1201084469741169</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.03356363195879894</v>
+        <v>0.04551883700546307</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1214722958960018</v>
+        <v>0.05571924373111167</v>
       </c>
       <c r="J210" t="n">
-        <v>0.03356363195879894</v>
+        <v>0.03400434498065191</v>
       </c>
       <c r="K210" t="n">
         <v>0.1214722958960018</v>
       </c>
       <c r="L210" t="n">
-        <v>0.07237732991614929</v>
+        <v>0.0722588877777551</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1210093803362954</v>
+        <v>0.1211400062813512</v>
       </c>
       <c r="N210" t="n">
-        <v>0.1097728423419693</v>
+        <v>0.1040550946961924</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1210828842657293</v>
+        <v>0.1209425334114372</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.03349648007348813</v>
+        <v>0.04481445286950839</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1223100358676984</v>
+        <v>0.05571349011392399</v>
       </c>
       <c r="J211" t="n">
-        <v>0.03349648007348813</v>
+        <v>0.03485004676119542</v>
       </c>
       <c r="K211" t="n">
         <v>0.1223100358676984</v>
       </c>
       <c r="L211" t="n">
-        <v>0.06821102713544344</v>
+        <v>0.06873118467490516</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1218439277868905</v>
+        <v>0.1219754546005329</v>
       </c>
       <c r="N211" t="n">
-        <v>0.1048423107967875</v>
+        <v>0.1071023705765253</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1219179386399757</v>
+        <v>0.1217766198487574</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.03463761177667364</v>
+        <v>0.04410833421666772</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1231477758393949</v>
+        <v>0.05570685033610324</v>
       </c>
       <c r="J212" t="n">
-        <v>0.03463761177667364</v>
+        <v>0.03387079369078688</v>
       </c>
       <c r="K212" t="n">
         <v>0.1231477758393949</v>
       </c>
       <c r="L212" t="n">
-        <v>0.06894451521748293</v>
+        <v>0.07128270414840068</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1226784752374857</v>
+        <v>0.1228109029197146</v>
       </c>
       <c r="N212" t="n">
-        <v>0.1082940849821962</v>
+        <v>0.1056985586762756</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1227529930142221</v>
+        <v>0.1226107062860777</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.03339573263020165</v>
+        <v>0.04340048104694101</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1239855158110915</v>
+        <v>0.05569932439764939</v>
       </c>
       <c r="J213" t="n">
-        <v>0.03339573263020165</v>
+        <v>0.03356531828696348</v>
       </c>
       <c r="K213" t="n">
         <v>0.1239855158110915</v>
       </c>
       <c r="L213" t="n">
-        <v>0.06838244912589508</v>
+        <v>0.07125542635206311</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1235130226880808</v>
+        <v>0.1236463512388964</v>
       </c>
       <c r="N213" t="n">
-        <v>0.1079808846071684</v>
+        <v>0.1081481819841321</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1235880473884685</v>
+        <v>0.1234447927233979</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.03434477778291617</v>
+        <v>0.04269089336032825</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1248232557827881</v>
+        <v>0.05569091229856244</v>
       </c>
       <c r="J214" t="n">
-        <v>0.03434477778291617</v>
+        <v>0.03414999124950292</v>
       </c>
       <c r="K214" t="n">
         <v>0.1248232557827881</v>
       </c>
       <c r="L214" t="n">
-        <v>0.07007038982999553</v>
+        <v>0.06887599120101037</v>
       </c>
       <c r="M214" t="n">
-        <v>0.124347570138676</v>
+        <v>0.1244817995580781</v>
       </c>
       <c r="N214" t="n">
-        <v>0.1085720891270196</v>
+        <v>0.1040072746637383</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1244231017627149</v>
+        <v>0.1242788791607182</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.0346527585838259</v>
+        <v>0.04197957115682949</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1256609957544846</v>
+        <v>0.05568161403884243</v>
       </c>
       <c r="J215" t="n">
-        <v>0.0346527585838259</v>
+        <v>0.03344760667774074</v>
       </c>
       <c r="K215" t="n">
         <v>0.1256609957544846</v>
       </c>
       <c r="L215" t="n">
-        <v>0.06830627836354913</v>
+        <v>0.06844093046172744</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1251821175892711</v>
+        <v>0.1253172478772598</v>
       </c>
       <c r="N215" t="n">
-        <v>0.1057291650898107</v>
+        <v>0.1031915054317391</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1252581561369613</v>
+        <v>0.1251129655980384</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.03460332402907823</v>
+        <v>0.04126651443644466</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1264987357261812</v>
+        <v>0.0556714296184893</v>
       </c>
       <c r="J216" t="n">
-        <v>0.03460332402907823</v>
+        <v>0.03470434170830194</v>
       </c>
       <c r="K216" t="n">
         <v>0.1264987357261812</v>
       </c>
       <c r="L216" t="n">
-        <v>0.07020609965485988</v>
+        <v>0.06877546534609633</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1260166650398662</v>
+        <v>0.1261526961964416</v>
       </c>
       <c r="N216" t="n">
-        <v>0.1094281620999105</v>
+        <v>0.106262745211374</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1260932105112077</v>
+        <v>0.1259470520353587</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.03363907857274143</v>
+        <v>0.04055172319917383</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1273364756978778</v>
+        <v>0.05566035903750309</v>
       </c>
       <c r="J217" t="n">
-        <v>0.03363907857274143</v>
+        <v>0.03424601318427629</v>
       </c>
       <c r="K217" t="n">
         <v>0.1273364756978778</v>
       </c>
       <c r="L217" t="n">
-        <v>0.0702445888745194</v>
+        <v>0.07132005950306039</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1268512124904614</v>
+        <v>0.1269881445156233</v>
       </c>
       <c r="N217" t="n">
-        <v>0.1037421307496152</v>
+        <v>0.10771198357911</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1269282648854541</v>
+        <v>0.126781138472679</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.03417883533777284</v>
+        <v>0.03983519744501694</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1281742156695743</v>
+        <v>0.0556484022958838</v>
       </c>
       <c r="J218" t="n">
-        <v>0.03417883533777284</v>
+        <v>0.0332879587757532</v>
       </c>
       <c r="K218" t="n">
         <v>0.1281742156695743</v>
       </c>
       <c r="L218" t="n">
-        <v>0.0681288151833972</v>
+        <v>0.0697569068239195</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1276857599410565</v>
+        <v>0.127823592834805</v>
       </c>
       <c r="N218" t="n">
-        <v>0.1032145895915815</v>
+        <v>0.1083023555123258</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1277633192597005</v>
+        <v>0.1276152249099992</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.03297105083429309</v>
+        <v>0.03911693717397403</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1290119556412709</v>
+        <v>0.0556355593936314</v>
       </c>
       <c r="J219" t="n">
-        <v>0.03297105083429309</v>
+        <v>0.03471964941646696</v>
       </c>
       <c r="K219" t="n">
         <v>0.1290119556412709</v>
       </c>
       <c r="L219" t="n">
-        <v>0.07162252938737845</v>
+        <v>0.06788292761404283</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1285203073916517</v>
+        <v>0.1286590411539868</v>
       </c>
       <c r="N219" t="n">
-        <v>0.1063292534560663</v>
+        <v>0.1089132115692627</v>
       </c>
       <c r="O219" t="n">
-        <v>0.128598373633947</v>
+        <v>0.1284493113473195</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.03311528942081028</v>
+        <v>0.0383969423860451</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1298496956129674</v>
+        <v>0.05562183033074593</v>
       </c>
       <c r="J220" t="n">
-        <v>0.03311528942081028</v>
+        <v>0.03364323259494451</v>
       </c>
       <c r="K220" t="n">
         <v>0.1298496956129674</v>
       </c>
       <c r="L220" t="n">
-        <v>0.07161142498875045</v>
+        <v>0.07185612944322972</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1293548548422468</v>
+        <v>0.1294944894731685</v>
       </c>
       <c r="N220" t="n">
-        <v>0.1098756929817827</v>
+        <v>0.1097430490252403</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1294334280081934</v>
+        <v>0.1292833977846397</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.03403893061307263</v>
+        <v>0.03767521308123013</v>
       </c>
       <c r="G221" t="n">
-        <v>0.130687435584664</v>
+        <v>0.05560721510722737</v>
       </c>
       <c r="J221" t="n">
-        <v>0.03403893061307263</v>
+        <v>0.03348323707847181</v>
       </c>
       <c r="K221" t="n">
         <v>0.130687435584664</v>
       </c>
       <c r="L221" t="n">
-        <v>0.07063164283823345</v>
+        <v>0.07138098358890607</v>
       </c>
       <c r="M221" t="n">
-        <v>0.130189402292842</v>
+        <v>0.1303299377923502</v>
       </c>
       <c r="N221" t="n">
-        <v>0.1020266068582732</v>
+        <v>0.1054737338577082</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1302684823824398</v>
+        <v>0.13011748422196</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.0336606947632121</v>
+        <v>0.03695174925952911</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1315251755563606</v>
+        <v>0.05559171372307572</v>
       </c>
       <c r="J222" t="n">
-        <v>0.0336606947632121</v>
+        <v>0.03424980652909784</v>
       </c>
       <c r="K222" t="n">
         <v>0.1315251755563606</v>
       </c>
       <c r="L222" t="n">
-        <v>0.06874010772076386</v>
+        <v>0.06865811270361125</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1310239497434371</v>
+        <v>0.1311653861115319</v>
       </c>
       <c r="N222" t="n">
-        <v>0.1051839236520163</v>
+        <v>0.1043342060052296</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1311035367566862</v>
+        <v>0.1309515706592802</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.0344919242851954</v>
+        <v>0.03622655092094208</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1323629155280572</v>
+        <v>0.05557532617829097</v>
       </c>
       <c r="J223" t="n">
-        <v>0.0344919242851954</v>
+        <v>0.03339299331901049</v>
       </c>
       <c r="K223" t="n">
         <v>0.1323629155280572</v>
       </c>
       <c r="L223" t="n">
-        <v>0.06891738177613305</v>
+        <v>0.07082658139307038</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1318584971940322</v>
+        <v>0.1320008344307137</v>
       </c>
       <c r="N223" t="n">
-        <v>0.1036361395649825</v>
+        <v>0.1036842459563664</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1319385911309326</v>
+        <v>0.1317856570966005</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.0337783237741405</v>
+        <v>0.03549961806546902</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1332006554997537</v>
+        <v>0.05555805247287313</v>
       </c>
       <c r="J224" t="n">
-        <v>0.0337783237741405</v>
+        <v>0.03361796736249345</v>
       </c>
       <c r="K224" t="n">
         <v>0.1332006554997537</v>
       </c>
       <c r="L224" t="n">
-        <v>0.0708678209307132</v>
+        <v>0.06776540481163207</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1326930446446274</v>
+        <v>0.1328362827498954</v>
       </c>
       <c r="N224" t="n">
-        <v>0.1064268862568352</v>
+        <v>0.1032110162278292</v>
       </c>
       <c r="O224" t="n">
-        <v>0.132773645505179</v>
+        <v>0.1326197435339208</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.03423769224865622</v>
+        <v>0.03477095069310991</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1340383954714503</v>
+        <v>0.05553989260682222</v>
       </c>
       <c r="J225" t="n">
-        <v>0.03423769224865622</v>
+        <v>0.03316226449536877</v>
       </c>
       <c r="K225" t="n">
         <v>0.1340383954714503</v>
       </c>
       <c r="L225" t="n">
-        <v>0.06892027062577696</v>
+        <v>0.06843059268132493</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1335275920952225</v>
+        <v>0.1336717310690771</v>
       </c>
       <c r="N225" t="n">
-        <v>0.1078945831517691</v>
+        <v>0.1031605864506741</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1336086998794254</v>
+        <v>0.133453829971241</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.03320159788502243</v>
+        <v>0.03404054880386478</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1348761354431468</v>
+        <v>0.05552084658013821</v>
       </c>
       <c r="J226" t="n">
-        <v>0.03320159788502243</v>
+        <v>0.03399271134462628</v>
       </c>
       <c r="K226" t="n">
         <v>0.1348761354431468</v>
       </c>
       <c r="L226" t="n">
-        <v>0.06754245888689697</v>
+        <v>0.06993427707383018</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1343621395458177</v>
+        <v>0.1345071793882589</v>
       </c>
       <c r="N226" t="n">
-        <v>0.1090055032263312</v>
+        <v>0.1026774718061894</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1344437542536718</v>
+        <v>0.1342879164085613</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.0342899423909695</v>
+        <v>0.03330841239773362</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1357138754148434</v>
+        <v>0.05550091439282111</v>
       </c>
       <c r="J227" t="n">
-        <v>0.0342899423909695</v>
+        <v>0.03402984004037027</v>
       </c>
       <c r="K227" t="n">
         <v>0.1357138754148434</v>
       </c>
       <c r="L227" t="n">
-        <v>0.06933691208481352</v>
+        <v>0.06989469265890552</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1351966869964128</v>
+        <v>0.1353426277074406</v>
       </c>
       <c r="N227" t="n">
-        <v>0.1038694237951064</v>
+        <v>0.107432973070257</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1352788086279182</v>
+        <v>0.1351220028458815</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.03392599584819153</v>
+        <v>0.03257454147471642</v>
       </c>
       <c r="G228" t="n">
-        <v>0.13655161538654</v>
+        <v>0.05548009604487092</v>
       </c>
       <c r="J228" t="n">
-        <v>0.03392599584819153</v>
+        <v>0.0338595461163699</v>
       </c>
       <c r="K228" t="n">
         <v>0.13655161538654</v>
       </c>
       <c r="L228" t="n">
-        <v>0.06715412360355394</v>
+        <v>0.06989437754038585</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1360312344470079</v>
+        <v>0.1361780760266224</v>
       </c>
       <c r="N228" t="n">
-        <v>0.1081797343398603</v>
+        <v>0.10605473273703</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1361138630021646</v>
+        <v>0.1359560892832018</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.03423318235179652</v>
+        <v>0.03183893603481319</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1373893553582365</v>
+        <v>0.05545839153628764</v>
       </c>
       <c r="J229" t="n">
-        <v>0.03423318235179652</v>
+        <v>0.0335881776935278</v>
       </c>
       <c r="K229" t="n">
         <v>0.1373893553582365</v>
       </c>
       <c r="L229" t="n">
-        <v>0.06909313999000985</v>
+        <v>0.07125138130980291</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1368657818976031</v>
+        <v>0.1370135243458041</v>
       </c>
       <c r="N229" t="n">
-        <v>0.1087737093976331</v>
+        <v>0.1036902335097856</v>
       </c>
       <c r="O229" t="n">
-        <v>0.136948917376411</v>
+        <v>0.136790175720522</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.03391037146747831</v>
+        <v>0.03110159607802393</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1382270953299331</v>
+        <v>0.05543580086707126</v>
       </c>
       <c r="J230" t="n">
-        <v>0.03391037146747831</v>
+        <v>0.03334041184862284</v>
       </c>
       <c r="K230" t="n">
         <v>0.1382270953299331</v>
       </c>
       <c r="L230" t="n">
-        <v>0.06787066495846666</v>
+        <v>0.06892976143459606</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1377003293481982</v>
+        <v>0.1378489726649858</v>
       </c>
       <c r="N230" t="n">
-        <v>0.1024273540554418</v>
+        <v>0.1086623747850832</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1377839717506575</v>
+        <v>0.1376242621578423</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.03338620251533619</v>
+        <v>0.03036252160434863</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1390648353016297</v>
+        <v>0.05541232403722181</v>
       </c>
       <c r="J231" t="n">
-        <v>0.03338620251533619</v>
+        <v>0.03345377819280576</v>
       </c>
       <c r="K231" t="n">
         <v>0.1390648353016297</v>
       </c>
       <c r="L231" t="n">
-        <v>0.06863697076847272</v>
+        <v>0.06679928370156191</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1385348767987934</v>
+        <v>0.1386844209841675</v>
       </c>
       <c r="N231" t="n">
-        <v>0.1034173314243039</v>
+        <v>0.1056757484547434</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1386190261249039</v>
+        <v>0.1384583485951626</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.03345711131121666</v>
+        <v>0.02962171261378732</v>
       </c>
       <c r="G232" t="n">
-        <v>0.1399025752733262</v>
+        <v>0.05538796104673926</v>
       </c>
       <c r="J232" t="n">
-        <v>0.03345711131121666</v>
+        <v>0.03352411740758128</v>
       </c>
       <c r="K232" t="n">
         <v>0.1399025752733262</v>
       </c>
       <c r="L232" t="n">
-        <v>0.07061718597664429</v>
+        <v>0.06989977198706529</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1393694242493885</v>
+        <v>0.1395198693033493</v>
       </c>
       <c r="N232" t="n">
-        <v>0.1081018584725085</v>
+        <v>0.1066163846949763</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1394540804991503</v>
+        <v>0.1392924350324828</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.03416374004203258</v>
+        <v>0.02887916910633995</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1407403152450228</v>
+        <v>0.05536271189562363</v>
       </c>
       <c r="J233" t="n">
-        <v>0.03416374004203258</v>
+        <v>0.03288177315192158</v>
       </c>
       <c r="K233" t="n">
         <v>0.1407403152450228</v>
       </c>
       <c r="L233" t="n">
-        <v>0.06905118812047528</v>
+        <v>0.06955579644687657</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1402039716999836</v>
+        <v>0.140355317622531</v>
       </c>
       <c r="N233" t="n">
-        <v>0.1052628165750782</v>
+        <v>0.104219770177088</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1402891348733967</v>
+        <v>0.1401265214698031</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.03403190115147565</v>
+        <v>0.02813489108200656</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1415780552167193</v>
+        <v>0.0553365765838749</v>
       </c>
       <c r="J234" t="n">
-        <v>0.03403190115147565</v>
+        <v>0.03294298563169326</v>
       </c>
       <c r="K234" t="n">
         <v>0.1415780552167193</v>
       </c>
       <c r="L234" t="n">
-        <v>0.06975536767906101</v>
+        <v>0.06979390070617097</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1410385191505788</v>
+        <v>0.1411907659417127</v>
       </c>
       <c r="N234" t="n">
-        <v>0.1037000653010138</v>
+        <v>0.1084080561347371</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1411241892476431</v>
+        <v>0.1409606079071233</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.03352200811161857</v>
+        <v>0.02738887854078714</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1424157951884159</v>
+        <v>0.05530955511149308</v>
       </c>
       <c r="J235" t="n">
-        <v>0.03352200811161857</v>
+        <v>0.03417538333223212</v>
       </c>
       <c r="K235" t="n">
         <v>0.1424157951884159</v>
       </c>
       <c r="L235" t="n">
-        <v>0.06771574151651541</v>
+        <v>0.06828058010831464</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1418730666011739</v>
+        <v>0.1420262142608945</v>
       </c>
       <c r="N235" t="n">
-        <v>0.1071793950070187</v>
+        <v>0.1056518025636034</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1419592436218895</v>
+        <v>0.1417946943444436</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.03351513763181861</v>
+        <v>0.02664113148268168</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1432535351601125</v>
+        <v>0.05528164747847818</v>
       </c>
       <c r="J236" t="n">
-        <v>0.03351513763181861</v>
+        <v>0.03371621363369579</v>
       </c>
       <c r="K236" t="n">
         <v>0.1432535351601125</v>
       </c>
       <c r="L236" t="n">
-        <v>0.0675942343132262</v>
+        <v>0.07053972878391293</v>
       </c>
       <c r="M236" t="n">
-        <v>0.142707614051769</v>
+        <v>0.1428616625800762</v>
       </c>
       <c r="N236" t="n">
-        <v>0.1022663137871835</v>
+        <v>0.1063038914158621</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1427942979961359</v>
+        <v>0.1426287807817638</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.03323257647965326</v>
+        <v>0.0258916499076902</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1440912751318091</v>
+        <v>0.05525285368483019</v>
       </c>
       <c r="J237" t="n">
-        <v>0.03323257647965326</v>
+        <v>0.03393449486708162</v>
       </c>
       <c r="K237" t="n">
         <v>0.1440912751318091</v>
       </c>
       <c r="L237" t="n">
-        <v>0.06743063502997021</v>
+        <v>0.06911825382334624</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1435421615023642</v>
+        <v>0.1436971108992579</v>
       </c>
       <c r="N237" t="n">
-        <v>0.1037790437729346</v>
+        <v>0.1068476780533055</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1436293523703823</v>
+        <v>0.1434628672190841</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.03294850886299666</v>
+        <v>0.02514043381581268</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1449290151035056</v>
+        <v>0.0552231737305491</v>
       </c>
       <c r="J238" t="n">
-        <v>0.03294850886299666</v>
+        <v>0.03333291662117698</v>
       </c>
       <c r="K238" t="n">
         <v>0.1449290151035056</v>
       </c>
       <c r="L238" t="n">
-        <v>0.06802802928629401</v>
+        <v>0.06841488782900179</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1443767089529593</v>
+        <v>0.1445325592184397</v>
       </c>
       <c r="N238" t="n">
-        <v>0.1022833206933166</v>
+        <v>0.1006609277725764</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1444644067446287</v>
+        <v>0.1442969536564044</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.03341666621966807</v>
+        <v>0.02438748320704914</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1457667550752022</v>
+        <v>0.05519260761563493</v>
       </c>
       <c r="J239" t="n">
-        <v>0.03341666621966807</v>
+        <v>0.03390951453800978</v>
       </c>
       <c r="K239" t="n">
         <v>0.1457667550752022</v>
       </c>
       <c r="L239" t="n">
-        <v>0.0668613954127027</v>
+        <v>0.0670221982599131</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1452112564035545</v>
+        <v>0.1453680075376214</v>
       </c>
       <c r="N239" t="n">
-        <v>0.1017834990179083</v>
+        <v>0.1060760151843293</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1452994611188751</v>
+        <v>0.1451310400937246</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.03272376139837682</v>
+        <v>0.02363279808139956</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1466044950468987</v>
+        <v>0.05516115534008768</v>
       </c>
       <c r="J240" t="n">
-        <v>0.03272376139837682</v>
+        <v>0.03337466091660383</v>
       </c>
       <c r="K240" t="n">
         <v>0.1466044950468987</v>
       </c>
       <c r="L240" t="n">
-        <v>0.06680500408057377</v>
+        <v>0.07011459034872833</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1460458038541496</v>
+        <v>0.1462034558568031</v>
       </c>
       <c r="N240" t="n">
-        <v>0.1060445235553452</v>
+        <v>0.1009443239052376</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1461345154931215</v>
+        <v>0.1459651265310449</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.03284012764230461</v>
+        <v>0.02287637843886395</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1474422350185953</v>
+        <v>0.05512881690390732</v>
       </c>
       <c r="J241" t="n">
-        <v>0.03284012764230461</v>
+        <v>0.03342454722886297</v>
       </c>
       <c r="K241" t="n">
         <v>0.1474422350185953</v>
       </c>
       <c r="L241" t="n">
-        <v>0.07007354389742806</v>
+        <v>0.06793212498422829</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1468803513047447</v>
+        <v>0.1470389041759849</v>
       </c>
       <c r="N241" t="n">
-        <v>0.1028826192298596</v>
+        <v>0.1050740620087169</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1469695698673679</v>
+        <v>0.1467992129683651</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.03296419971076425</v>
+        <v>0.02211822427944229</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1482799749902919</v>
+        <v>0.05509559230709388</v>
       </c>
       <c r="J242" t="n">
-        <v>0.03296419971076425</v>
+        <v>0.03384011077676476</v>
       </c>
       <c r="K242" t="n">
         <v>0.1482799749902919</v>
       </c>
       <c r="L242" t="n">
-        <v>0.06791289758546976</v>
+        <v>0.06875890916600672</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1477148987553399</v>
+        <v>0.1478743524951666</v>
       </c>
       <c r="N242" t="n">
-        <v>0.1034223434546377</v>
+        <v>0.1011931693765541</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1478046242416144</v>
+        <v>0.1476332994056854</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.03297941809706958</v>
+        <v>0.02135833560313462</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1491177149619884</v>
+        <v>0.05506148154964735</v>
       </c>
       <c r="J243" t="n">
-        <v>0.03297941809706958</v>
+        <v>0.03321300369745982</v>
       </c>
       <c r="K243" t="n">
         <v>0.1491177149619884</v>
       </c>
       <c r="L243" t="n">
-        <v>0.0664999916811255</v>
+        <v>0.06954661254552363</v>
       </c>
       <c r="M243" t="n">
-        <v>0.148549446205935</v>
+        <v>0.1487098008143483</v>
       </c>
       <c r="N243" t="n">
-        <v>0.1002438975110688</v>
+        <v>0.1005766891132095</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1486396786158608</v>
+        <v>0.1484673858430056</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.03291930412063863</v>
+        <v>0.0205967124099409</v>
       </c>
       <c r="G244" t="n">
-        <v>0.149955454933685</v>
+        <v>0.05502648463156774</v>
       </c>
       <c r="J244" t="n">
-        <v>0.03291930412063863</v>
+        <v>0.03416972089133288</v>
       </c>
       <c r="K244" t="n">
         <v>0.149955454933685</v>
       </c>
       <c r="L244" t="n">
-        <v>0.06632507543191044</v>
+        <v>0.06925502364140848</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1493839936565302</v>
+        <v>0.1495452491335301</v>
       </c>
       <c r="N244" t="n">
-        <v>0.1021184056738995</v>
+        <v>0.1018303903013202</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1494747329901072</v>
+        <v>0.1493014722803259</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.03345875042040834</v>
+        <v>0.01983335469986117</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1507931949053816</v>
+        <v>0.05499060155285503</v>
       </c>
       <c r="J245" t="n">
-        <v>0.03345875042040834</v>
+        <v>0.03300881184770718</v>
       </c>
       <c r="K245" t="n">
         <v>0.1507931949053816</v>
       </c>
       <c r="L245" t="n">
-        <v>0.06764909893576324</v>
+        <v>0.06716946180343686</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1502185411071253</v>
+        <v>0.1503806974527118</v>
       </c>
       <c r="N245" t="n">
-        <v>0.106448443501709</v>
+        <v>0.1063397453038112</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1503097873643536</v>
+        <v>0.1501355587176461</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.03261462442673253</v>
+        <v>0.0190682624728954</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1516309348770781</v>
+        <v>0.05495383231350923</v>
       </c>
       <c r="J246" t="n">
-        <v>0.03261462442673253</v>
+        <v>0.0326562691401563</v>
       </c>
       <c r="K246" t="n">
         <v>0.1516309348770781</v>
       </c>
       <c r="L246" t="n">
-        <v>0.06767216418395808</v>
+        <v>0.06694566518634981</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1510530885577205</v>
+        <v>0.1512161457718935</v>
       </c>
       <c r="N246" t="n">
-        <v>0.1027081902052563</v>
+        <v>0.1053853080162006</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1511448417386</v>
+        <v>0.1509696451549664</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.0326950432117606</v>
+        <v>0.01830143572904359</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1524686748487747</v>
+        <v>0.05491617691353034</v>
       </c>
       <c r="J247" t="n">
-        <v>0.0326950432117606</v>
+        <v>0.032936573364879</v>
       </c>
       <c r="K247" t="n">
         <v>0.1524686748487747</v>
       </c>
       <c r="L247" t="n">
-        <v>0.06974211380611001</v>
+        <v>0.06648708873457715</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1518876360083156</v>
+        <v>0.1520515940910752</v>
       </c>
       <c r="N247" t="n">
-        <v>0.1002427929452277</v>
+        <v>0.09965748821317183</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1519798961128464</v>
+        <v>0.1518037315922867</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.03384872172019887</v>
+        <v>0.01753287446830575</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1533064148204712</v>
+        <v>0.05487763535291838</v>
       </c>
       <c r="J248" t="n">
-        <v>0.03384872172019887</v>
+        <v>0.03393179753181502</v>
       </c>
       <c r="K248" t="n">
         <v>0.1533064148204712</v>
       </c>
       <c r="L248" t="n">
-        <v>0.06698884940381267</v>
+        <v>0.06693047446313552</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1527221834589108</v>
+        <v>0.152887042410257</v>
       </c>
       <c r="N248" t="n">
-        <v>0.1021517032600838</v>
+        <v>0.1052039270885816</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1528149504870928</v>
+        <v>0.1526378180296069</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.03348638187373805</v>
+        <v>0.01676257869068189</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1541441547921678</v>
+        <v>0.05483820763167332</v>
       </c>
       <c r="J249" t="n">
-        <v>0.03348638187373805</v>
+        <v>0.03332852643463489</v>
       </c>
       <c r="K249" t="n">
         <v>0.1541441547921678</v>
       </c>
       <c r="L249" t="n">
-        <v>0.06596368576531322</v>
+        <v>0.07058346581541242</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1535567309095059</v>
+        <v>0.1537224907294387</v>
       </c>
       <c r="N249" t="n">
-        <v>0.103314390472486</v>
+        <v>0.09968835872504961</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1536500048613392</v>
+        <v>0.1534719044669272</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.03244264542641216</v>
+        <v>0.01599054839617198</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1549818947638644</v>
+        <v>0.05479789374979516</v>
       </c>
       <c r="J250" t="n">
-        <v>0.03244264542641216</v>
+        <v>0.03243433125384118</v>
       </c>
       <c r="K250" t="n">
         <v>0.1549818947638644</v>
       </c>
       <c r="L250" t="n">
-        <v>0.06630570528310736</v>
+        <v>0.06878306960885416</v>
       </c>
       <c r="M250" t="n">
-        <v>0.154391278360101</v>
+        <v>0.1545579390486205</v>
       </c>
       <c r="N250" t="n">
-        <v>0.1012767688658951</v>
+        <v>0.09966692227148738</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1544850592355856</v>
+        <v>0.1543059909042474</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.03261307640641795</v>
+        <v>0.01521678358477605</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1558196347355609</v>
+        <v>0.05475669370728391</v>
       </c>
       <c r="J251" t="n">
-        <v>0.03261307640641795</v>
+        <v>0.03322832083564001</v>
       </c>
       <c r="K251" t="n">
         <v>0.1558196347355609</v>
       </c>
       <c r="L251" t="n">
-        <v>0.06739087470435437</v>
+        <v>0.06963434632105853</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1552258258106962</v>
+        <v>0.1553933873678022</v>
       </c>
       <c r="N251" t="n">
-        <v>0.1020026982955575</v>
+        <v>0.1059881497909906</v>
       </c>
       <c r="O251" t="n">
-        <v>0.155320113609832</v>
+        <v>0.1551400773415677</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.03350543098499216</v>
+        <v>0.01444128425649407</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1566573747072575</v>
+        <v>0.05471460750413958</v>
       </c>
       <c r="J252" t="n">
-        <v>0.03350543098499216</v>
+        <v>0.03272429122705138</v>
       </c>
       <c r="K252" t="n">
         <v>0.1566573747072575</v>
       </c>
       <c r="L252" t="n">
-        <v>0.0696724532061716</v>
+        <v>0.06991168165708875</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1560603732612913</v>
+        <v>0.1562288356869839</v>
       </c>
       <c r="N252" t="n">
-        <v>0.1008299139787662</v>
+        <v>0.09908640898581889</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1561551679840785</v>
+        <v>0.1559741637788879</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.03237977071126753</v>
+        <v>0.01366405041132608</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1574951146789541</v>
+        <v>0.05467163514036216</v>
       </c>
       <c r="J253" t="n">
-        <v>0.03237977071126753</v>
+        <v>0.03300210895475475</v>
       </c>
       <c r="K253" t="n">
         <v>0.1574951146789541</v>
       </c>
       <c r="L253" t="n">
-        <v>0.06786614724900311</v>
+        <v>0.06725112425492291</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1568949207118865</v>
+        <v>0.1570642840061656</v>
       </c>
       <c r="N253" t="n">
-        <v>0.09904005104950281</v>
+        <v>0.101180487445339</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1569902223583249</v>
+        <v>0.1568082502162082</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.03381851375418757</v>
+        <v>0.01288508204927205</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1583328546506506</v>
+        <v>0.05462777661595165</v>
       </c>
       <c r="J254" t="n">
-        <v>0.03381851375418757</v>
+        <v>0.03257244340092248</v>
       </c>
       <c r="K254" t="n">
         <v>0.1583328546506506</v>
       </c>
       <c r="L254" t="n">
-        <v>0.06685271419506247</v>
+        <v>0.06604694641159739</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1577294681624816</v>
+        <v>0.1578997323253474</v>
       </c>
       <c r="N254" t="n">
-        <v>0.105321735981185</v>
+        <v>0.09956614763276039</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1578252767325713</v>
+        <v>0.1576423366535284</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.03212789924800356</v>
+        <v>0.012104379170332</v>
       </c>
       <c r="G255" t="n">
-        <v>0.1591705946223472</v>
+        <v>0.05458303193090805</v>
       </c>
       <c r="J255" t="n">
-        <v>0.03212789924800356</v>
+        <v>0.03343020734665549</v>
       </c>
       <c r="K255" t="n">
         <v>0.1591705946223472</v>
       </c>
       <c r="L255" t="n">
-        <v>0.06678939350775076</v>
+        <v>0.06836821276654367</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1585640156130767</v>
+        <v>0.1587351806445291</v>
       </c>
       <c r="N255" t="n">
-        <v>0.1036229001394712</v>
+        <v>0.1018924532807211</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1586603311068177</v>
+        <v>0.1584764230908487</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.03309936003528033</v>
+        <v>0.01132194177450591</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1600083345940438</v>
+        <v>0.05453740108523136</v>
       </c>
       <c r="J256" t="n">
-        <v>0.03309936003528033</v>
+        <v>0.03338954569998208</v>
       </c>
       <c r="K256" t="n">
         <v>0.1600083345940438</v>
       </c>
       <c r="L256" t="n">
-        <v>0.0684219661935187</v>
+        <v>0.06720168525517181</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1593985630636719</v>
+        <v>0.1595706289637109</v>
       </c>
       <c r="N256" t="n">
-        <v>0.09999555917104591</v>
+        <v>0.1026755657890378</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1594953854810641</v>
+        <v>0.159310509528169</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.03238103126888139</v>
+        <v>0.01053776986179377</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1608460745657403</v>
+        <v>0.05449088407892157</v>
       </c>
       <c r="J257" t="n">
-        <v>0.03238103126888139</v>
+        <v>0.03252246653024425</v>
       </c>
       <c r="K257" t="n">
         <v>0.1608460745657403</v>
       </c>
       <c r="L257" t="n">
-        <v>0.06883116015099008</v>
+        <v>0.06982060480494162</v>
       </c>
       <c r="M257" t="n">
-        <v>0.160233110514267</v>
+        <v>0.1604060772828926</v>
       </c>
       <c r="N257" t="n">
-        <v>0.1033583398134898</v>
+        <v>0.1017119124070497</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1603304398553105</v>
+        <v>0.1601445959654892</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.0322246958578508</v>
+        <v>0.009751863432195612</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1616838145374369</v>
+        <v>0.0544434809119787</v>
       </c>
       <c r="J258" t="n">
-        <v>0.0322246958578508</v>
+        <v>0.03198509053877012</v>
       </c>
       <c r="K258" t="n">
         <v>0.1616838145374369</v>
       </c>
       <c r="L258" t="n">
-        <v>0.06628070187087806</v>
+        <v>0.06884988724871632</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1610676579648621</v>
+        <v>0.1612415256020743</v>
       </c>
       <c r="N258" t="n">
-        <v>0.1034385729887938</v>
+        <v>0.09967849071141482</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1611654942295569</v>
+        <v>0.1609786824028095</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.03252344152918957</v>
+        <v>0.008964222485711416</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1625215545091334</v>
+        <v>0.05439519158440274</v>
       </c>
       <c r="J259" t="n">
-        <v>0.03252344152918957</v>
+        <v>0.03216939795853724</v>
       </c>
       <c r="K259" t="n">
         <v>0.1625215545091334</v>
       </c>
       <c r="L259" t="n">
-        <v>0.06850034072875755</v>
+        <v>0.06711695143462637</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1619022054154573</v>
+        <v>0.1620769739212561</v>
       </c>
       <c r="N259" t="n">
-        <v>0.09902555701384352</v>
+        <v>0.1035585582014926</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1620005486038033</v>
+        <v>0.1618127688401297</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.0330456074309091</v>
+        <v>0.008174847022341204</v>
       </c>
       <c r="G260" t="n">
-        <v>0.16335929448083</v>
+        <v>0.0543460160961937</v>
       </c>
       <c r="J260" t="n">
-        <v>0.0330456074309091</v>
+        <v>0.03295528287065184</v>
       </c>
       <c r="K260" t="n">
         <v>0.16335929448083</v>
       </c>
       <c r="L260" t="n">
-        <v>0.06632886908641003</v>
+        <v>0.06833038065952327</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1627367528660524</v>
+        <v>0.1629124222404378</v>
       </c>
       <c r="N260" t="n">
-        <v>0.1044892230433621</v>
+        <v>0.09887596370796531</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1628356029780497</v>
+        <v>0.16264685527745</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.0324195410486513</v>
+        <v>0.007383737042084955</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1641970344525266</v>
+        <v>0.05429595444735158</v>
       </c>
       <c r="J261" t="n">
-        <v>0.0324195410486513</v>
+        <v>0.0321458521011328</v>
       </c>
       <c r="K261" t="n">
         <v>0.1641970344525266</v>
       </c>
       <c r="L261" t="n">
-        <v>0.06678890406186533</v>
+        <v>0.06762844722422728</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1635713003166476</v>
+        <v>0.1637478705596195</v>
       </c>
       <c r="N261" t="n">
-        <v>0.1019903399137944</v>
+        <v>0.1029055017433512</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1636706573522961</v>
+        <v>0.1634809417147702</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.03325491624590415</v>
+        <v>0.006590892544942661</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1650347744242232</v>
+        <v>0.05424500663787635</v>
       </c>
       <c r="J262" t="n">
-        <v>0.03325491624590415</v>
+        <v>0.03345331938262361</v>
       </c>
       <c r="K262" t="n">
         <v>0.1650347744242232</v>
       </c>
       <c r="L262" t="n">
-        <v>0.06526153923549827</v>
+        <v>0.06680050617852798</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1644058477672427</v>
+        <v>0.1645833188788012</v>
       </c>
       <c r="N262" t="n">
-        <v>0.0982012110430423</v>
+        <v>0.1053486438937901</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1645057117265425</v>
+        <v>0.1643150281520905</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.03287454860208314</v>
+        <v>0.005796313530914345</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1658725143959197</v>
+        <v>0.05419317266776804</v>
       </c>
       <c r="J263" t="n">
-        <v>0.03287454860208314</v>
+        <v>0.03237709259513648</v>
       </c>
       <c r="K263" t="n">
         <v>0.1658725143959197</v>
       </c>
       <c r="L263" t="n">
-        <v>0.06622872084933576</v>
+        <v>0.06791037189960566</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1652403952178379</v>
+        <v>0.165418767197983</v>
       </c>
       <c r="N263" t="n">
-        <v>0.1016279123758849</v>
+        <v>0.1002275031111838</v>
       </c>
       <c r="O263" t="n">
-        <v>0.165340766100789</v>
+        <v>0.1651491145894108</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.03219606639040606</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1667102543676163</v>
+        <v>0.05414045253702663</v>
       </c>
       <c r="J264" t="n">
-        <v>0.03219606639040606</v>
+        <v>0.03169139933038299</v>
       </c>
       <c r="K264" t="n">
         <v>0.1667102543676163</v>
       </c>
       <c r="L264" t="n">
-        <v>0.06633041929619102</v>
+        <v>0.06527483651884405</v>
       </c>
       <c r="M264" t="n">
-        <v>0.166074942668433</v>
+        <v>0.1662542155171647</v>
       </c>
       <c r="N264" t="n">
-        <v>0.1015003394558566</v>
+        <v>0.09924148598788368</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1661758204750353</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.165983201026731</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.05414045253702663</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.005636380870981693</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.05410632892572529</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.006274394228444349</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.05407309147505703</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.006914040072387988</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.05404074018502188</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.007555318402812587</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.05400927505561979</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.008198229219718162</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.0539786960868508</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.008842772523104718</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.0539490032787149</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.009488948312972229</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.05392019663121209</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.01013675658932073</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.05389227614434238</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.01078619735215017</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.05386524181810573</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.01143727060146061</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.0538390936525022</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.01208997633725201</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.05381383164753175</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.01274431455952438</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.05378945580319439</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.01340028526827775</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.05376596611949012</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.01405788846351205</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.05374336259641893</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.01471712414522735</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.05372164523398084</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.0153779923134236</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.05370081403217583</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.01604049296810083</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.05368086899100391</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.01670462610925903</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.05366181011046508</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.01737039173689821</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.05364363739055935</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.01803778985101837</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.0536263508312867</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.01870682045161947</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.05360995043264714</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.01937748353870157</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.05359443619464068</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.02004977911226462</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.05357980811726729</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.02072370717230865</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.05356606620052701</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.02139926771883366</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.0535532104444198</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.02207646075183964</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.05354124084894569</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.02275528627132657</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.05353015741410466</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.0234357442772945</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.05351996013989672</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.02411783476974337</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.05351064902632188</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.02480155774867324</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.05350222407338013</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.02548691321408406</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.05349468528107146</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.02617390116597586</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.05348803264939587</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.02686252160434864</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.05348226617835339</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.02755277452920239</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.053477385867944</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.0282446599405371</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.05347339171816768</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.02893817783835279</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.05347028372902446</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.02963332822264945</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.05346806190051434</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.03033011109342706</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.05346672623263729</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.03102852645068566</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.05346627672539333</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.03172857429442524</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.05346671337878247</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.0324302546246458</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.05346803619280471</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.03313356744134729</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.05347024516746002</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.03383851274452979</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.05347334030274842</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.03454509053419325</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.05347732159866991</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.03525330081033767</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.0534821890552245</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.03596314357296307</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.05348794267241216</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.03667461882206945</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.05349458245023293</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.03738772655765678</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.05350210838868678</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.03810246677972509</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.05351052048777372</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.0388188394882744</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.05351981874749376</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.03953684468330465</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.05353000316784687</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.04025648236481588</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.05354107374883308</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.04097775253280807</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.05355303049045237</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.04170065518728125</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.05356587339270476</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.04242519032823538</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.05357960245559023</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.0431513579556705</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.05359421767910881</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.04387915806958657</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.05360971906326045</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.04460859066998364</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.0536261066080452</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.04533965575686168</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.05364338031346303</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.04607235333022067</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.05366154017951395</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.04680668339006064</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.05368058620619796</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.04754264593638158</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.05370051839351507</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.0482802409691835</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.05372133674146527</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.04901946848846638</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.05374304125004854</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.04976032849423022</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.05376563191926491</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.05050282098647506</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.05378910874911436</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.05124694596520085</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.05381347173959691</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.05199270343040761</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.05383872089071255</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.05274009338209537</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.05386485620246127</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.05348911582026408</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.05389187767484309</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.05423977074491376</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.05391978530785799</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.0549920581560444</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.05394857910150598</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.05574597805365604</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.05397825905578707</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.05650153043774864</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.05400882517070124</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.05725871530832222</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.05404027744624849</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.05801753266537675</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.05407261588242885</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.05877798250891225</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.05410584047924229</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.05954006483892874</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.05413995123668882</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.06030377965542617</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.05417494815476843</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.06106912695840462</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.05421083123348115</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.06183610674786402</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.05424760047282694</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.06260471902380439</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.05428525587280583</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.06337496378622572</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.05432379743341781</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.06414684103512804</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.05436322515466287</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.06492035077051132</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.05440353903654101</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.06569549299237556</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.05444473907905227</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.06647226770072079</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.05448682528219658</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.06725067489554698</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.05452979764597401</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.06803071457685417</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.05457365617038452</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.0688123867446423</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.05461840085542812</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.06959569139891141</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.05466403170110481</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.0703806285396615</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.0547105487074146</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.07116719816689253</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.05475795187435745</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.07195540028060456</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.05480624120193341</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.07274523488079757</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.05485541669014247</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.07353670196747153</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.0549054783389846</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.07432980154062646</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.05495642614845982</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.07512453360026237</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.05500826011856814</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.07592089814637924</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.05506098024930954</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.07542089814637924</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.05506098024930954</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.07617930732859997</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.05672727773422163</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.07692877715604449</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.05839357521913371</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.07766925134062104</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.06005987270404579</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.07840067359423784</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.06172617018895787</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.07912298762880313</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.06339246767386995</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.07983613715622508</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.06505876515878203</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.08054006588841195</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.06672506264369411</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.08123471753727193</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.06839136012860619</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.08192003581471326</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.07005765761351829</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.08259596443264414</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.07172395509843037</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.08326244710297279</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.07339025258334245</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.08391942753760748</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.07505655006825454</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.08456684944845635</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.07672284755316661</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.08520465654742765</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.07838914503807869</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.08583279254642961</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.08005544252299078</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.08645120115737043</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.08172174000790286</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.08705982609215837</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.08338803749281494</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.08765861106270156</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.08505433497772702</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.08824749978090835</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.0867206324626391</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.08882643595868681</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.08838692994755119</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.08939536330794526</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.09005322743246327</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.08995422554059185</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.09171952491737534</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.09050296636853486</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.09338582240228743</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.09104152950368252</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.09505211988719953</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.09156985865794298</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.09671841737211159</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.0920878975432245</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.09838471485702369</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.09259558987143529</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.1000510123419358</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.09309287935448357</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.1017173098268478</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.09357970970427751</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.1033836073117599</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.09406242313798324</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.105049904796672</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.09456417106299841</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.1067162022815841</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.09508236278480237</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1083824997664962</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.09561162665605979</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1100487972514083</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.09614659102943543</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1117150947363204</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.09668188425759386</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1133813922212324</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.09721213469319975</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1150476897061445</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.09773197068891784</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1167139871910566</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.09823602059741277</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1183802846759687</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.09871891277134917</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1200465821608808</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.09917527556339178</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1217128796457928</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.09959973732620522</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1233791771307049</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.09998692641245421</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.125045474615617</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.1003314711748033</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1267117721005291</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.1006279999659174</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1283780695854412</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.1008711411384609</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1300443670703533</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.1010555230450987</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1317106645552653</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.1012278641951723</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.1333769620401774</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.1012265224713155</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.1350432595250895</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.1012244503520018</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.1367095570100016</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.1012111282239333</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.1383758544949137</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.1011882130639499</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.1400421519798258</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.1011562072155996</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.1417084494647378</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.1011156130224302</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.1433747469496499</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.1010669328279898</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.145041044434562</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.1010106689758262</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.1467073419194741</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.1009473238094875</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.1483736394043862</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.1008773996725215</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.1008013989084763</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.1517062343742103</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.1007198238608997</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.1533725318591224</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.1006331768733398</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.1550388293440345</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.1005419602893443</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.1567051268289466</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.1004466764524614</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.1583714243138586</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.1003478277062389</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.1600377217987707</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.1002459163942249</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.1617040192836828</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.1001414448599671</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.1633703167685949</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.1000349154470137</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.165036614253507</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.09992683049891246</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.1667029117384191</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.09981769235921142</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.1683692092233311</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.09970800337145852</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.1700355067082432</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.09959826587920168</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.1717018041931553</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.09948898222598884</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.1733681016780674</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.09938057380451767</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.1750343991629795</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.09926827727540849</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.1767006966478915</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.09914918573278886</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.1783669941328036</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.09902345360782405</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.1800332916177157</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.0988912353316794</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.1816995891026278</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.09875268533552012</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.1833658865875399</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.09860795805051148</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.185032184072452</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.09845720790781878</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.186698481557364</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.0983005893386073</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.1883647790422761</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.09813825677404237</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.1900310765271882</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.09797036464528916</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.1916973740121003</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.09779706738351299</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.1933636714970124</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.09761851941987915</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.1950299689819245</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.09743487518555291</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.1966962664668366</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.09724628911169952</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.1983625639517486</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.09705291562948426</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.2000288614366607</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.09685490917007245</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.2016951589215728</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.09665242416462935</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.2033614564064849</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.0964456150443202</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.2050277538913969</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.09623463624031031</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.2066940513763091</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.09601964218376494</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.2083603488612211</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.09580078730584937</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.2100266463461332</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.09557822603772886</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.2116929438310453</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.09535211281056874</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.2133592413159573</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.09512260205553422</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.2150255388008694</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.09488984820379062</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.2166918362857816</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.09465400568650323</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.2183581337706936</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.09441522893483723</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.2200244312556057</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>
